--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -324,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -347,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -356,6 +358,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -364,6 +367,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,9 +699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN78" sqref="A78:AN78"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN79" sqref="A79:AN79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9142,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO78" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO79" si="1">SUM(B67:AL67)</f>
         <v>89</v>
       </c>
     </row>
@@ -10533,47 +10537,50 @@
       </c>
     </row>
     <row r="79" spans="1:41">
+      <c r="A79" s="1">
+        <v>43958.639444444445</v>
+      </c>
       <c r="B79">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -10585,25 +10592,25 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -10615,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79">
         <v>0</v>
@@ -10645,10 +10652,14 @@
         <v>0</v>
       </c>
       <c r="AM79">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AN79">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO79">
+        <f t="shared" si="1"/>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:41">
@@ -11127,8 +11138,8 @@
         <v>0</v>
       </c>
       <c r="AO83">
-        <f>SUM(AO2:AO78)</f>
-        <v>3150</v>
+        <f>SUM(AO2:AO79)</f>
+        <v>3531</v>
       </c>
     </row>
     <row r="84" spans="2:41">
@@ -11253,7 +11264,7 @@
     <row r="85" spans="2:41">
       <c r="B85">
         <f>SUM(B2:B84)</f>
-        <v>1308</v>
+        <v>1491</v>
       </c>
       <c r="C85">
         <f t="shared" ref="C85:AN85" si="2">SUM(C2:C84)</f>
@@ -11261,11 +11272,11 @@
       </c>
       <c r="D85">
         <f t="shared" si="2"/>
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="E85">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
@@ -11273,15 +11284,15 @@
       </c>
       <c r="G85">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H85">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I85">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J85">
         <f t="shared" si="2"/>
@@ -11289,23 +11300,23 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L85">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M85">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="O85">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P85">
         <f t="shared" si="2"/>
@@ -11321,19 +11332,19 @@
       </c>
       <c r="S85">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T85">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V85">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W85">
         <f t="shared" si="2"/>
@@ -11341,11 +11352,11 @@
       </c>
       <c r="X85">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="Y85">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Z85">
         <f t="shared" si="2"/>
@@ -11361,7 +11372,7 @@
       </c>
       <c r="AC85">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD85">
         <f t="shared" si="2"/>
@@ -11401,11 +11412,11 @@
       </c>
       <c r="AM85">
         <f t="shared" si="2"/>
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="AN85">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -11422,11 +11433,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD79" sqref="AD79"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA68" sqref="AA68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20948,6 +20959,128 @@
       </c>
       <c r="AN78">
         <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40">
+      <c r="A79" s="1">
+        <v>43958.639444444445</v>
+      </c>
+      <c r="B79">
+        <v>183</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>55</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>11</v>
+      </c>
+      <c r="I79">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>19</v>
+      </c>
+      <c r="O79">
+        <v>7</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>44</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>19</v>
+      </c>
+      <c r="Y79">
+        <v>4</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>67</v>
+      </c>
+      <c r="AN79">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -324,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -349,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -359,6 +361,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -368,6 +371,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -699,9 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN79" sqref="A79:AN79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN80" sqref="A80:AN80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9146,7 +9150,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO79" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO80" si="1">SUM(B67:AL67)</f>
         <v>89</v>
       </c>
     </row>
@@ -10663,35 +10667,38 @@
       </c>
     </row>
     <row r="80" spans="1:41">
+      <c r="A80" s="1">
+        <v>43959.649583333332</v>
+      </c>
       <c r="B80">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -10700,28 +10707,28 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -10733,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -10745,10 +10752,10 @@
         <v>0</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80">
         <v>0</v>
@@ -10757,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="AG80">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH80">
         <v>0</v>
@@ -10769,16 +10776,20 @@
         <v>0</v>
       </c>
       <c r="AK80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL80">
         <v>0</v>
       </c>
       <c r="AM80">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AO80">
+        <f t="shared" si="1"/>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="2:41">
@@ -11138,8 +11149,8 @@
         <v>0</v>
       </c>
       <c r="AO83">
-        <f>SUM(AO2:AO79)</f>
-        <v>3531</v>
+        <f>SUM(AO2:AO80)</f>
+        <v>3917</v>
       </c>
     </row>
     <row r="84" spans="2:41">
@@ -11264,43 +11275,43 @@
     <row r="85" spans="2:41">
       <c r="B85">
         <f>SUM(B2:B84)</f>
-        <v>1491</v>
+        <v>1667</v>
       </c>
       <c r="C85">
         <f t="shared" ref="C85:AN85" si="2">SUM(C2:C84)</f>
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D85">
         <f t="shared" si="2"/>
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="E85">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H85">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="I85">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="J85">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L85">
         <f t="shared" si="2"/>
@@ -11312,11 +11323,11 @@
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="O85">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P85">
         <f t="shared" si="2"/>
@@ -11324,7 +11335,7 @@
       </c>
       <c r="Q85">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R85">
         <f t="shared" si="2"/>
@@ -11332,7 +11343,7 @@
       </c>
       <c r="S85">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T85">
         <f t="shared" si="2"/>
@@ -11340,7 +11351,7 @@
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V85">
         <f t="shared" si="2"/>
@@ -11356,7 +11367,7 @@
       </c>
       <c r="Y85">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Z85">
         <f t="shared" si="2"/>
@@ -11372,11 +11383,11 @@
       </c>
       <c r="AC85">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AD85">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE85">
         <f t="shared" si="2"/>
@@ -11388,7 +11399,7 @@
       </c>
       <c r="AG85">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AH85">
         <f t="shared" si="2"/>
@@ -11404,7 +11415,7 @@
       </c>
       <c r="AK85">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL85">
         <f t="shared" si="2"/>
@@ -11412,11 +11423,11 @@
       </c>
       <c r="AM85">
         <f t="shared" si="2"/>
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="AN85">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -11433,11 +11444,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA68" sqref="AA68"/>
+      <selection pane="bottomLeft" activeCell="W80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21081,6 +21092,128 @@
       </c>
       <c r="AN79">
         <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40">
+      <c r="A80" s="1">
+        <v>43959.649583333332</v>
+      </c>
+      <c r="B80">
+        <v>176</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>65</v>
+      </c>
+      <c r="E80">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>31</v>
+      </c>
+      <c r="I80">
+        <v>17</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>15</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>4</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>10</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>14</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>2</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>78</v>
+      </c>
+      <c r="AN80">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -324,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -351,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -362,6 +364,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -372,6 +375,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,9 +707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN80" sqref="A80:AN80"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN81" sqref="A81:AN81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9150,7 +9154,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO80" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO81" si="1">SUM(B67:AL67)</f>
         <v>89</v>
       </c>
     </row>
@@ -10792,18 +10796,21 @@
         <v>386</v>
       </c>
     </row>
-    <row r="81" spans="2:41">
+    <row r="81" spans="1:41">
+      <c r="A81" s="1">
+        <v>43960.633877314816</v>
+      </c>
       <c r="B81">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10812,31 +10819,31 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -10863,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -10872,16 +10879,16 @@
         <v>0</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD81">
         <v>0</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -10905,13 +10912,17 @@
         <v>0</v>
       </c>
       <c r="AM81">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AN81">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AO81">
+        <f t="shared" si="1"/>
+        <v>239</v>
       </c>
     </row>
-    <row r="82" spans="2:41">
+    <row r="82" spans="1:41">
       <c r="B82">
         <v>0</v>
       </c>
@@ -11030,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:41">
+    <row r="83" spans="1:41">
       <c r="B83">
         <v>0</v>
       </c>
@@ -11149,11 +11160,11 @@
         <v>0</v>
       </c>
       <c r="AO83">
-        <f>SUM(AO2:AO80)</f>
-        <v>3917</v>
+        <f>SUM(AO2:AO81)</f>
+        <v>4156</v>
       </c>
     </row>
-    <row r="84" spans="2:41">
+    <row r="84" spans="1:41">
       <c r="B84">
         <v>0</v>
       </c>
@@ -11272,22 +11283,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:41">
+    <row r="85" spans="1:41">
       <c r="B85">
         <f>SUM(B2:B84)</f>
-        <v>1667</v>
+        <v>1764</v>
       </c>
       <c r="C85">
         <f t="shared" ref="C85:AN85" si="2">SUM(C2:C84)</f>
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D85">
         <f t="shared" si="2"/>
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="E85">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
@@ -11299,11 +11310,11 @@
       </c>
       <c r="H85">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="I85">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J85">
         <f t="shared" si="2"/>
@@ -11311,11 +11322,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L85">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M85">
         <f t="shared" si="2"/>
@@ -11323,15 +11334,15 @@
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="O85">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P85">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q85">
         <f t="shared" si="2"/>
@@ -11367,7 +11378,7 @@
       </c>
       <c r="Y85">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Z85">
         <f t="shared" si="2"/>
@@ -11379,11 +11390,11 @@
       </c>
       <c r="AB85">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC85">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD85">
         <f t="shared" si="2"/>
@@ -11391,7 +11402,7 @@
       </c>
       <c r="AE85">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF85">
         <f t="shared" si="2"/>
@@ -11423,11 +11434,11 @@
       </c>
       <c r="AM85">
         <f t="shared" si="2"/>
-        <v>679</v>
+        <v>745</v>
       </c>
       <c r="AN85">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -11444,11 +11455,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W80" sqref="A80:XFD80"/>
+      <selection pane="bottomLeft" activeCell="AA82" sqref="AA82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21214,6 +21225,128 @@
       </c>
       <c r="AN80">
         <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40">
+      <c r="A81" s="1">
+        <v>43960.633877314816</v>
+      </c>
+      <c r="B81">
+        <v>97</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>19</v>
+      </c>
+      <c r="I81">
+        <v>17</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81">
+        <v>6</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>44</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>3</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>2</v>
+      </c>
+      <c r="AC81">
+        <v>2</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>2</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>66</v>
+      </c>
+      <c r="AN81">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -324,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -353,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -365,6 +367,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -376,6 +379,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,11 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN81" sqref="A81:AN81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN82" sqref="A82:AN82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9154,7 +9158,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO81" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO82" si="1">SUM(B67:AL67)</f>
         <v>89</v>
       </c>
     </row>
@@ -10923,50 +10927,53 @@
       </c>
     </row>
     <row r="82" spans="1:41">
+      <c r="A82" s="1">
+        <v>43961.656747685185</v>
+      </c>
       <c r="B82">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O82">
         <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -10978,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U82">
         <v>0</v>
@@ -10990,10 +10997,10 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -11011,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -11020,13 +11027,13 @@
         <v>0</v>
       </c>
       <c r="AH82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI82">
         <v>0</v>
       </c>
       <c r="AJ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK82">
         <v>0</v>
@@ -11035,10 +11042,14 @@
         <v>0</v>
       </c>
       <c r="AM82">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AN82">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AO82">
+        <f t="shared" si="1"/>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:41">
@@ -11158,10 +11169,6 @@
       </c>
       <c r="AN83">
         <v>0</v>
-      </c>
-      <c r="AO83">
-        <f>SUM(AO2:AO81)</f>
-        <v>4156</v>
       </c>
     </row>
     <row r="84" spans="1:41">
@@ -11286,27 +11293,27 @@
     <row r="85" spans="1:41">
       <c r="B85">
         <f>SUM(B2:B84)</f>
-        <v>1764</v>
+        <v>1845</v>
       </c>
       <c r="C85">
         <f t="shared" ref="C85:AN85" si="2">SUM(C2:C84)</f>
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D85">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="E85">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H85">
         <f t="shared" si="2"/>
@@ -11314,11 +11321,11 @@
       </c>
       <c r="I85">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="J85">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
@@ -11326,7 +11333,7 @@
       </c>
       <c r="L85">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M85">
         <f t="shared" si="2"/>
@@ -11334,7 +11341,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O85">
         <f t="shared" si="2"/>
@@ -11342,7 +11349,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q85">
         <f t="shared" si="2"/>
@@ -11358,7 +11365,7 @@
       </c>
       <c r="T85">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
@@ -11374,11 +11381,11 @@
       </c>
       <c r="X85">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Y85">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Z85">
         <f t="shared" si="2"/>
@@ -11402,7 +11409,7 @@
       </c>
       <c r="AE85">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF85">
         <f t="shared" si="2"/>
@@ -11414,7 +11421,7 @@
       </c>
       <c r="AH85">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI85">
         <f t="shared" si="2"/>
@@ -11422,7 +11429,7 @@
       </c>
       <c r="AJ85">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK85">
         <f t="shared" si="2"/>
@@ -11434,11 +11441,17 @@
       </c>
       <c r="AM85">
         <f t="shared" si="2"/>
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="AN85">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41">
+      <c r="AO94">
+        <f>SUM(AO2:AO82)</f>
+        <v>4404</v>
       </c>
     </row>
   </sheetData>
@@ -11455,11 +11468,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA82" sqref="AA82"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z86" sqref="Z86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21347,6 +21360,128 @@
       </c>
       <c r="AN81">
         <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40">
+      <c r="A82" s="1">
+        <v>43961.656747685185</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>26</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>26</v>
+      </c>
+      <c r="J82">
+        <v>12</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>20</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>2</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>35</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>7</v>
+      </c>
+      <c r="Y82">
+        <v>10</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>4</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>2</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>33</v>
+      </c>
+      <c r="AN82">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -324,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -355,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -368,6 +370,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -380,6 +383,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -709,11 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO94"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN82" sqref="A82:AN82"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN83" sqref="A83:AN83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9158,7 +9162,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO82" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO83" si="1">SUM(B67:AL67)</f>
         <v>89</v>
       </c>
     </row>
@@ -11053,35 +11057,38 @@
       </c>
     </row>
     <row r="83" spans="1:41">
+      <c r="A83" s="1">
+        <v>43962.656817129631</v>
+      </c>
       <c r="B83">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -11090,22 +11097,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -11120,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -11132,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -11165,10 +11172,14 @@
         <v>0</v>
       </c>
       <c r="AM83">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AN83">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO83">
+        <f t="shared" si="1"/>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:41">
@@ -11292,166 +11303,1354 @@
     </row>
     <row r="85" spans="1:41">
       <c r="B85">
-        <f>SUM(B2:B84)</f>
-        <v>1845</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85:AN85" si="2">SUM(C2:C84)</f>
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <f>SUM(AO2:AO83)</f>
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41">
+      <c r="B95">
+        <f>SUM(B2:B94)</f>
+        <v>1933</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
+        <v>359</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="2"/>
-        <v>602</v>
-      </c>
-      <c r="E85">
+        <v>666</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="F85">
+        <v>126</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G85">
+      <c r="G95">
         <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="H85">
+        <v>118</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="I85">
+        <v>207</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="2"/>
-        <v>185</v>
-      </c>
-      <c r="J85">
+        <v>186</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="K85">
+      <c r="K95">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="L85">
+        <v>65</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="M85">
+      <c r="M95">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N85">
+      <c r="N95">
         <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="O85">
+        <v>184</v>
+      </c>
+      <c r="O95">
         <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="P85">
+        <v>111</v>
+      </c>
+      <c r="P95">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q85">
+      <c r="Q95">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="R85">
+        <v>16</v>
+      </c>
+      <c r="R95">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S85">
+      <c r="S95">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB95">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T85">
+      <c r="AC95">
         <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="U85">
+        <v>17</v>
+      </c>
+      <c r="AD95">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="AE95">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AF95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AH95">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AI95">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AJ95">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="W85">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X85">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="Z85">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AA85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB85">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AC85">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AD85">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AE85">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="AF85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG85">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AH85">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AI85">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="AJ85">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AK85">
+      <c r="AK95">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AL85">
+      <c r="AL95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM85">
+      <c r="AM95">
         <f t="shared" si="2"/>
-        <v>778</v>
-      </c>
-      <c r="AN85">
+        <v>902</v>
+      </c>
+      <c r="AN95">
         <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:41">
-      <c r="AO94">
-        <f>SUM(AO2:AO82)</f>
-        <v>4404</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -11468,11 +12667,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z86" sqref="Z86"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21482,6 +22681,128 @@
       </c>
       <c r="AN82">
         <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40">
+      <c r="A83" s="1">
+        <v>43962.656817129631</v>
+      </c>
+      <c r="B83">
+        <v>88</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>64</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>49</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>13</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>4</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>124</v>
+      </c>
+      <c r="AN83">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -324,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +373,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -384,6 +387,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,9 +719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN83" sqref="A83:AN83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN84" sqref="A84:AN84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9162,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO83" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO85" si="1">SUM(B67:AL67)</f>
         <v>89</v>
       </c>
     </row>
@@ -11183,44 +11187,47 @@
       </c>
     </row>
     <row r="84" spans="1:41">
+      <c r="A84" s="1">
+        <v>43963.662939814814</v>
+      </c>
       <c r="B84">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -11235,16 +11242,16 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
         <v>0</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -11253,10 +11260,10 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA84">
         <v>0</v>
@@ -11265,13 +11272,13 @@
         <v>0</v>
       </c>
       <c r="AC84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD84">
         <v>0</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -11283,22 +11290,26 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ84">
         <v>0</v>
       </c>
       <c r="AK84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84">
         <v>0</v>
       </c>
       <c r="AM84">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO84">
+        <f>SUM(B84:AL84)</f>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:41">
@@ -11419,6 +11430,10 @@
       <c r="AN85">
         <v>0</v>
       </c>
+      <c r="AO85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:41">
       <c r="B86">
@@ -12372,8 +12387,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO83)</f>
-        <v>4646</v>
+        <f>SUM(AO2:AO84)</f>
+        <v>4792</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12498,19 +12513,19 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>1933</v>
+        <v>1990</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
@@ -12518,27 +12533,27 @@
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M95">
         <f t="shared" si="2"/>
@@ -12546,7 +12561,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
@@ -12566,7 +12581,7 @@
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
@@ -12574,11 +12589,11 @@
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V95">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W95">
         <f t="shared" si="2"/>
@@ -12590,11 +12605,11 @@
       </c>
       <c r="Y95">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z95">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA95">
         <f t="shared" si="2"/>
@@ -12606,7 +12621,7 @@
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD95">
         <f t="shared" si="2"/>
@@ -12614,7 +12629,7 @@
       </c>
       <c r="AE95">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF95">
         <f t="shared" si="2"/>
@@ -12630,7 +12645,7 @@
       </c>
       <c r="AI95">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AJ95">
         <f t="shared" si="2"/>
@@ -12638,7 +12653,7 @@
       </c>
       <c r="AK95">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL95">
         <f t="shared" si="2"/>
@@ -12646,11 +12661,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>902</v>
+        <v>959</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -12667,11 +12682,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22803,6 +22818,128 @@
       </c>
       <c r="AN83">
         <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40">
+      <c r="A84" s="1">
+        <v>43963.662939814814</v>
+      </c>
+      <c r="B84">
+        <v>57</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>8</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>2</v>
+      </c>
+      <c r="Z84">
+        <v>2</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>2</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>4</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>7</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>57</v>
+      </c>
+      <c r="AN84">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -324,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -359,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -374,6 +376,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -388,6 +391,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,9 +723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN84" sqref="A84:AN84"/>
+      <selection pane="bottomLeft" activeCell="AN85" sqref="A85:AN85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11313,68 +11317,71 @@
       </c>
     </row>
     <row r="85" spans="1:41">
+      <c r="A85" s="1">
+        <v>43964.645231481481</v>
+      </c>
       <c r="B85">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85">
         <v>0</v>
@@ -11383,31 +11390,31 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z85">
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB85">
         <v>0</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD85">
         <v>0</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF85">
         <v>0</v>
       </c>
       <c r="AG85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH85">
         <v>0</v>
@@ -11419,20 +11426,20 @@
         <v>0</v>
       </c>
       <c r="AK85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85">
         <v>0</v>
       </c>
       <c r="AM85">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AN85">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:41">
@@ -12387,8 +12394,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO84)</f>
-        <v>4792</v>
+        <f>SUM(AO2:AO85)</f>
+        <v>4976</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12513,15 +12520,15 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>1990</v>
+        <v>2041</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
@@ -12529,7 +12536,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
@@ -12537,7 +12544,7 @@
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
@@ -12545,15 +12552,15 @@
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M95">
         <f t="shared" si="2"/>
@@ -12561,11 +12568,11 @@
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
@@ -12573,27 +12580,27 @@
       </c>
       <c r="Q95">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R95">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V95">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W95">
         <f t="shared" si="2"/>
@@ -12605,7 +12612,7 @@
       </c>
       <c r="Y95">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Z95">
         <f t="shared" si="2"/>
@@ -12613,7 +12620,7 @@
       </c>
       <c r="AA95">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB95">
         <f t="shared" si="2"/>
@@ -12621,7 +12628,7 @@
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD95">
         <f t="shared" si="2"/>
@@ -12629,7 +12636,7 @@
       </c>
       <c r="AE95">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AF95">
         <f t="shared" si="2"/>
@@ -12637,7 +12644,7 @@
       </c>
       <c r="AG95">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH95">
         <f t="shared" si="2"/>
@@ -12653,7 +12660,7 @@
       </c>
       <c r="AK95">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL95">
         <f t="shared" si="2"/>
@@ -12661,11 +12668,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>959</v>
+        <v>1070</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -12682,11 +12689,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <selection pane="bottomLeft" activeCell="AC85" sqref="AC85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22940,6 +22947,128 @@
       </c>
       <c r="AN84">
         <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40">
+      <c r="A85" s="1">
+        <v>43964.645231481481</v>
+      </c>
+      <c r="B85">
+        <v>51</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>16</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>9</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>16</v>
+      </c>
+      <c r="O85">
+        <v>5</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
+      <c r="S85">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <v>23</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>4</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>3</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>3</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>111</v>
+      </c>
+      <c r="AN85">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -72,6 +72,30 @@
           <t xml:space="preserve">
 2020-04-28 16:23:32 One case previously reported in Gombe State is now recorded as a Borno State case
 Therefore the total number of cases in Borno is 53 and 46 in Gombe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hedgar Ajakaiye:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2020-05-14 16:02:05, Two cases reported yesterday from Kaduna, were repeat tests. Therefore, Kaduna has a total of 114 confirmed cases</t>
         </r>
       </text>
     </comment>
@@ -324,8 +348,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -377,6 +403,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -392,6 +419,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,7 +753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN85" sqref="A85:AN85"/>
+      <selection pane="bottomLeft" activeCell="AN86" sqref="A86:AN86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9170,7 +9198,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO85" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO86" si="1">SUM(B67:AL67)</f>
         <v>89</v>
       </c>
     </row>
@@ -11360,7 +11388,7 @@
         <v>16</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -11439,48 +11467,51 @@
       </c>
       <c r="AO85">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:41">
+      <c r="A86" s="1">
+        <v>43965.666458333333</v>
+      </c>
       <c r="B86">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -11489,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -11498,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U86">
         <v>0</v>
@@ -11525,10 +11556,10 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE86">
         <v>0</v>
@@ -11537,13 +11568,13 @@
         <v>0</v>
       </c>
       <c r="AG86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH86">
         <v>0</v>
       </c>
       <c r="AI86">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ86">
         <v>0</v>
@@ -11555,10 +11586,14 @@
         <v>0</v>
       </c>
       <c r="AM86">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN86">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO86">
+        <f t="shared" si="1"/>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:41">
@@ -12394,8 +12429,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO85)</f>
-        <v>4976</v>
+        <f>SUM(AO2:AO86)</f>
+        <v>5167</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12520,19 +12555,19 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>2041</v>
+        <v>2099</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
@@ -12540,7 +12575,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
@@ -12548,11 +12583,11 @@
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
@@ -12560,7 +12595,7 @@
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M95">
         <f t="shared" si="2"/>
@@ -12568,11 +12603,11 @@
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
@@ -12580,7 +12615,7 @@
       </c>
       <c r="Q95">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R95">
         <f t="shared" si="2"/>
@@ -12592,7 +12627,7 @@
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -12628,11 +12663,11 @@
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AD95">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE95">
         <f t="shared" si="2"/>
@@ -12644,7 +12679,7 @@
       </c>
       <c r="AG95">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH95">
         <f t="shared" si="2"/>
@@ -12652,7 +12687,7 @@
       </c>
       <c r="AI95">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AJ95">
         <f t="shared" si="2"/>
@@ -12668,11 +12703,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>1070</v>
+        <v>1180</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -12689,11 +12724,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC85" sqref="AC85"/>
+      <selection pane="bottomLeft" activeCell="AA88" sqref="AA88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23069,6 +23104,128 @@
       </c>
       <c r="AN85">
         <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40">
+      <c r="A86" s="1">
+        <v>43965.666458333333</v>
+      </c>
+      <c r="B86">
+        <v>58</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>46</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>35</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>5</v>
+      </c>
+      <c r="AD86">
+        <v>4</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>12</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>110</v>
+      </c>
+      <c r="AN86">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="M79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hedgar Ajakaiye:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2020-05-15 15:59:12, On the 14th of May, 4 cases reported from Plateau &amp; 1 case from Akwa Ibom, were repeat cases
+Therefore Plateau has a total of 21 
+cases and Akwa Ibom has a total of 16 cases
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O85" authorId="0">
       <text>
         <r>
@@ -96,6 +123,33 @@
           </rPr>
           <t xml:space="preserve">
 2020-05-14 16:02:05, Two cases reported yesterday from Kaduna, were repeat tests. Therefore, Kaduna has a total of 114 confirmed cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hedgar Ajakaiye:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2020-05-15 15:59:12, On the 14th of May, 4 cases reported from Plateau &amp; 1 case from Akwa Ibom, were repeat cases
+Therefore Plateau has a total of 21 
+cases and Akwa Ibom has a total of 16 cases
+</t>
         </r>
       </text>
     </comment>
@@ -348,8 +402,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -387,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -404,6 +464,9 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -420,6 +483,9 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -751,9 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN86" sqref="A86:AN86"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:AN68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9099,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I67">
         <v>18</v>
@@ -9198,8 +9264,8 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO86" si="1">SUM(B67:AL67)</f>
-        <v>89</v>
+        <f t="shared" ref="AO67:AO87" si="1">SUM(B67:AL67)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -9219,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -9243,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68">
         <v>5</v>
@@ -9325,7 +9391,7 @@
       </c>
       <c r="AO68">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -10626,7 +10692,7 @@
         <v>8</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>19</v>
@@ -10711,7 +10777,7 @@
       </c>
       <c r="AO79">
         <f t="shared" si="1"/>
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:41">
@@ -11556,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>4</v>
@@ -11593,21 +11659,24 @@
       </c>
       <c r="AO86">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:41">
+      <c r="A87" s="1">
+        <v>43966.657893518517</v>
+      </c>
       <c r="B87">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -11616,49 +11685,49 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U87">
         <v>0</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -11709,10 +11778,14 @@
         <v>0</v>
       </c>
       <c r="AM87">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN87">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO87">
+        <f t="shared" si="1"/>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:41">
@@ -12429,8 +12502,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO86)</f>
-        <v>5167</v>
+        <f>SUM(AO2:AO87)</f>
+        <v>5445</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12555,23 +12628,23 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>2099</v>
+        <v>2278</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
@@ -12579,39 +12652,39 @@
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M95">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q95">
         <f t="shared" si="2"/>
@@ -12619,7 +12692,7 @@
       </c>
       <c r="R95">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
@@ -12627,7 +12700,7 @@
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -12635,7 +12708,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W95">
         <f t="shared" si="2"/>
@@ -12663,7 +12736,7 @@
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AD95">
         <f t="shared" si="2"/>
@@ -12703,11 +12776,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>1180</v>
+        <v>1320</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -12724,11 +12797,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA88" sqref="AA88"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20811,7 +20884,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I67">
         <v>18</v>
@@ -20927,7 +21000,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -20951,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68">
         <v>5</v>
@@ -23226,6 +23299,128 @@
       </c>
       <c r="AN86">
         <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40">
+      <c r="A87" s="1">
+        <v>43966.657893518517</v>
+      </c>
+      <c r="B87">
+        <v>179</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>15</v>
+      </c>
+      <c r="I87">
+        <v>13</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>20</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>15</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>4</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>140</v>
+      </c>
+      <c r="AN87">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -402,8 +402,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -447,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -467,6 +469,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -486,6 +489,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,9 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:AN68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN88" sqref="A88:AN88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9264,7 +9268,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO87" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO88" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -11789,11 +11793,14 @@
       </c>
     </row>
     <row r="88" spans="1:41">
+      <c r="A88" s="1">
+        <v>43967.664201388892</v>
+      </c>
       <c r="B88">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11811,13 +11818,13 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -11826,10 +11833,10 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -11841,31 +11848,31 @@
         <v>0</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U88">
         <v>0</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88">
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB88">
         <v>0</v>
@@ -11883,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="AG88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH88">
         <v>0</v>
@@ -11901,10 +11908,14 @@
         <v>0</v>
       </c>
       <c r="AM88">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="AN88">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO88">
+        <f t="shared" si="1"/>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:41">
@@ -12502,8 +12513,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO87)</f>
-        <v>5445</v>
+        <f>SUM(AO2:AO88)</f>
+        <v>5621</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12628,11 +12639,11 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>2278</v>
+        <v>2373</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
@@ -12656,15 +12667,15 @@
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
@@ -12676,11 +12687,11 @@
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
@@ -12696,11 +12707,11 @@
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -12708,7 +12719,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="W95">
         <f t="shared" si="2"/>
@@ -12716,7 +12727,7 @@
       </c>
       <c r="X95">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y95">
         <f t="shared" si="2"/>
@@ -12724,11 +12735,11 @@
       </c>
       <c r="Z95">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA95">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB95">
         <f t="shared" si="2"/>
@@ -12752,7 +12763,7 @@
       </c>
       <c r="AG95">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH95">
         <f t="shared" si="2"/>
@@ -12776,11 +12787,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>1320</v>
+        <v>1472</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -12797,11 +12808,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="Z91" sqref="Z91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23421,6 +23432,128 @@
       </c>
       <c r="AN87">
         <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40">
+      <c r="A88" s="1">
+        <v>43967.664201388892</v>
+      </c>
+      <c r="B88">
+        <v>95</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>8</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>31</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>4</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>6</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>8</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>152</v>
+      </c>
+      <c r="AN88">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -402,8 +402,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -470,6 +472,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -490,6 +493,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -822,8 +826,8 @@
   <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN88" sqref="A88:AN88"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9268,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO88" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO89" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -11919,14 +11923,17 @@
       </c>
     </row>
     <row r="89" spans="1:41">
+      <c r="A89" s="1">
+        <v>43968.632280092592</v>
+      </c>
       <c r="B89">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -11935,46 +11942,46 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -11983,13 +11990,13 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -12001,13 +12008,13 @@
         <v>0</v>
       </c>
       <c r="AC89">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD89">
         <v>0</v>
       </c>
       <c r="AE89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -12031,10 +12038,14 @@
         <v>0</v>
       </c>
       <c r="AM89">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AN89">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO89">
+        <f t="shared" si="1"/>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:41">
@@ -12513,8 +12524,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO88)</f>
-        <v>5621</v>
+        <f>SUM(AO2:AO89)</f>
+        <v>5959</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12639,15 +12650,15 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>2373</v>
+        <v>2550</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>761</v>
+        <v>825</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
@@ -12659,15 +12670,15 @@
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
@@ -12675,7 +12686,7 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
@@ -12683,15 +12694,15 @@
       </c>
       <c r="M95">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
@@ -12699,19 +12710,19 @@
       </c>
       <c r="Q95">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R95">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -12723,7 +12734,7 @@
       </c>
       <c r="W95">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X95">
         <f t="shared" si="2"/>
@@ -12731,7 +12742,7 @@
       </c>
       <c r="Y95">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z95">
         <f t="shared" si="2"/>
@@ -12747,7 +12758,7 @@
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AD95">
         <f t="shared" si="2"/>
@@ -12755,7 +12766,7 @@
       </c>
       <c r="AE95">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF95">
         <f t="shared" si="2"/>
@@ -12787,11 +12798,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>1472</v>
+        <v>1594</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -12808,11 +12819,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z91" sqref="Z91"/>
+      <selection pane="bottomLeft" activeCell="AL91" sqref="AL91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23554,6 +23565,128 @@
       </c>
       <c r="AN88">
         <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40">
+      <c r="A89" s="1">
+        <v>43968.632280092592</v>
+      </c>
+      <c r="B89">
+        <v>177</v>
+      </c>
+      <c r="C89">
+        <v>21</v>
+      </c>
+      <c r="D89">
+        <v>64</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>9</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>11</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>16</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>3</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>14</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>122</v>
+      </c>
+      <c r="AN89">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -402,8 +402,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -451,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -473,6 +475,7 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -494,6 +497,7 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,7 +831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="AN90" sqref="A90:AN90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9272,7 +9276,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO89" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO90" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12049,47 +12053,50 @@
       </c>
     </row>
     <row r="90" spans="1:41">
+      <c r="A90" s="1">
+        <v>43969.662060185183</v>
+      </c>
       <c r="B90">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -12101,13 +12108,13 @@
         <v>0</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -12116,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -12161,10 +12168,14 @@
         <v>0</v>
       </c>
       <c r="AM90">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN90">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO90">
+        <f t="shared" si="1"/>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:41">
@@ -12524,8 +12535,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO89)</f>
-        <v>5959</v>
+        <f>SUM(AO2:AO90)</f>
+        <v>6175</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12650,19 +12661,19 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>2550</v>
+        <v>2624</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
@@ -12670,27 +12681,27 @@
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M95">
         <f t="shared" si="2"/>
@@ -12698,11 +12709,11 @@
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
@@ -12718,7 +12729,7 @@
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
@@ -12726,7 +12737,7 @@
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V95">
         <f t="shared" si="2"/>
@@ -12738,7 +12749,7 @@
       </c>
       <c r="X95">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Y95">
         <f t="shared" si="2"/>
@@ -12798,11 +12809,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>1594</v>
+        <v>1644</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -12819,11 +12830,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL91" sqref="AL91"/>
+      <selection pane="bottomLeft" activeCell="Z92" sqref="Z92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23687,6 +23698,128 @@
       </c>
       <c r="AN89">
         <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40">
+      <c r="A90" s="1">
+        <v>43969.662060185183</v>
+      </c>
+      <c r="B90">
+        <v>74</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>8</v>
+      </c>
+      <c r="H90">
+        <v>33</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>13</v>
+      </c>
+      <c r="K90">
+        <v>19</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>7</v>
+      </c>
+      <c r="O90">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>3</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>10</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>50</v>
+      </c>
+      <c r="AN90">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -402,8 +402,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -476,6 +478,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -498,6 +501,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -831,7 +835,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN90" sqref="A90:AN90"/>
+      <selection pane="bottomLeft" activeCell="AN91" sqref="A91:AN91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9276,7 +9280,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO90" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO91" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12179,35 +12183,38 @@
       </c>
     </row>
     <row r="91" spans="1:41">
+      <c r="A91" s="1">
+        <v>43970.65216435185</v>
+      </c>
       <c r="B91">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -12216,10 +12223,10 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -12234,10 +12241,10 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -12258,10 +12265,10 @@
         <v>0</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC91">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD91">
         <v>0</v>
@@ -12273,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="AG91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH91">
         <v>0</v>
@@ -12282,19 +12289,23 @@
         <v>0</v>
       </c>
       <c r="AJ91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL91">
         <v>0</v>
       </c>
       <c r="AM91">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN91">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <f t="shared" si="1"/>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:41">
@@ -12535,8 +12546,8 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <f>SUM(AO2:AO90)</f>
-        <v>6175</v>
+        <f>SUM(AO2:AO91)</f>
+        <v>6401</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -12661,11 +12672,11 @@
     <row r="95" spans="1:41">
       <c r="B95">
         <f>SUM(B2:B94)</f>
-        <v>2624</v>
+        <v>2755</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
@@ -12673,7 +12684,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
@@ -12681,7 +12692,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
@@ -12689,15 +12700,15 @@
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
@@ -12709,11 +12720,11 @@
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O95">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
@@ -12733,11 +12744,11 @@
       </c>
       <c r="T95">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V95">
         <f t="shared" si="2"/>
@@ -12765,11 +12776,11 @@
       </c>
       <c r="AB95">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AD95">
         <f t="shared" si="2"/>
@@ -12785,7 +12796,7 @@
       </c>
       <c r="AG95">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH95">
         <f t="shared" si="2"/>
@@ -12797,11 +12808,11 @@
       </c>
       <c r="AJ95">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK95">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AL95">
         <f t="shared" si="2"/>
@@ -12809,11 +12820,11 @@
       </c>
       <c r="AM95">
         <f t="shared" si="2"/>
-        <v>1644</v>
+        <v>1734</v>
       </c>
       <c r="AN95">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -12830,11 +12841,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN90"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z92" sqref="Z92"/>
+      <selection pane="bottomLeft" activeCell="AJ93" sqref="AJ93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23820,6 +23831,128 @@
       </c>
       <c r="AN90">
         <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40">
+      <c r="A91" s="1">
+        <v>43970.65216435185</v>
+      </c>
+      <c r="B91">
+        <v>131</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>25</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>11</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>7</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>4</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>5</v>
+      </c>
+      <c r="AC91">
+        <v>15</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>3</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>1</v>
+      </c>
+      <c r="AK91">
+        <v>4</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>90</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -149,6 +149,32 @@
 2020-05-15 15:59:12, On the 14th of May, 4 cases reported from Plateau &amp; 1 case from Akwa Ibom, were repeat cases
 Therefore Plateau has a total of 21 
 cases and Akwa Ibom has a total of 16 cases
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X90" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hedgar Ajakaiye:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2020-05-20 15:25:39, On the 18th of May, 8 new cases in Zamfara were erroneously announced
+Therefore, as at the 20th of May 2020, Zamfara has recorded a total of 76 confirmed cases
 </t>
         </r>
       </text>
@@ -402,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -455,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -479,6 +507,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -502,6 +531,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -831,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO95"/>
+  <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN91" sqref="A91:AN91"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN92" sqref="A92:AN92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9280,7 +9310,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO91" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO92" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12127,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -12179,7 +12209,7 @@
       </c>
       <c r="AO90">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:41">
@@ -12309,14 +12339,17 @@
       </c>
     </row>
     <row r="92" spans="1:41">
+      <c r="A92" s="1">
+        <v>43971.639363425929</v>
+      </c>
       <c r="B92">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -12331,16 +12364,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -12352,19 +12385,19 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -12373,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X92">
         <v>0</v>
@@ -12391,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="AC92">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD92">
         <v>0</v>
@@ -12406,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="AH92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI92">
         <v>0</v>
@@ -12421,13 +12454,18 @@
         <v>0</v>
       </c>
       <c r="AM92">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AN92">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO92">
+        <f t="shared" si="1"/>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:41">
+      <c r="A93" s="1"/>
       <c r="B93">
         <v>0</v>
       </c>
@@ -12544,13 +12582,10 @@
       </c>
       <c r="AN93">
         <v>0</v>
-      </c>
-      <c r="AO93">
-        <f>SUM(AO2:AO91)</f>
-        <v>6401</v>
       </c>
     </row>
     <row r="94" spans="1:41">
+      <c r="A94" s="1"/>
       <c r="B94">
         <v>0</v>
       </c>
@@ -12670,161 +12705,1005 @@
       </c>
     </row>
     <row r="95" spans="1:41">
+      <c r="A95" s="1"/>
       <c r="B95">
-        <f>SUM(B2:B94)</f>
-        <v>2755</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:AN95" si="2">SUM(C2:C94)</f>
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41">
+      <c r="A96" s="1"/>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42">
+      <c r="A97" s="1"/>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42">
+      <c r="A98" s="1"/>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42">
+      <c r="A99" s="1"/>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:42">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42">
+      <c r="B102">
+        <f>SUM(B2:B101)</f>
+        <v>2954</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
+        <v>435</v>
+      </c>
+      <c r="D102">
         <f t="shared" si="2"/>
-        <v>842</v>
-      </c>
-      <c r="E95">
+        <v>847</v>
+      </c>
+      <c r="E102">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="F95">
+      <c r="F102">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="G95">
+      <c r="G102">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="H95">
+      <c r="H102">
         <f t="shared" si="2"/>
         <v>281</v>
       </c>
-      <c r="I95">
+      <c r="I102">
         <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-      <c r="J95">
+        <v>235</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="K95">
+      <c r="K102">
         <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="L95">
+        <v>162</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="M95">
+        <v>66</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N95">
+      <c r="N102">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="O95">
+      <c r="O102">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="P95">
+      <c r="P102">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="AH102">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q95">
+      <c r="AI102">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="R95">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="S95">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="2"/>
-        <v>205</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="V95">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="W95">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X95">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="Y95">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="Z95">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AA95">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB95">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AC95">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="AD95">
+        <v>32</v>
+      </c>
+      <c r="AJ102">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE95">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AF95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG95">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="AH95">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AI95">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AJ95">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AK95">
+      <c r="AK102">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AL95">
+      <c r="AL102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM95">
+      <c r="AM102">
         <f t="shared" si="2"/>
-        <v>1734</v>
-      </c>
-      <c r="AN95">
+        <v>1840</v>
+      </c>
+      <c r="AN102">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42">
+      <c r="AP105">
+        <f>SUM(AO2:AO92)</f>
+        <v>6677</v>
       </c>
     </row>
   </sheetData>
@@ -12841,11 +13720,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ93" sqref="AJ93"/>
+      <selection pane="bottomLeft" activeCell="X93" sqref="X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23782,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -23953,6 +24832,128 @@
       </c>
       <c r="AN91">
         <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40">
+      <c r="A92" s="1">
+        <v>43971.639363425929</v>
+      </c>
+      <c r="B92">
+        <v>199</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>19</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>26</v>
+      </c>
+      <c r="T92">
+        <v>6</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>2</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>7</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>1</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>106</v>
+      </c>
+      <c r="AN92">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -483,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -508,6 +510,7 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -532,6 +535,7 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -864,8 +868,8 @@
   <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN92" sqref="A92:AN92"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN93" sqref="A93:AN93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9310,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO92" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO93" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12465,36 +12469,38 @@
       </c>
     </row>
     <row r="93" spans="1:41">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>43972.658599537041</v>
+      </c>
       <c r="B93">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -12503,25 +12509,25 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U93">
         <v>0</v>
@@ -12545,10 +12551,10 @@
         <v>0</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD93">
         <v>0</v>
@@ -12560,13 +12566,13 @@
         <v>0</v>
       </c>
       <c r="AG93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH93">
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ93">
         <v>0</v>
@@ -12578,10 +12584,14 @@
         <v>0</v>
       </c>
       <c r="AM93">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AN93">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AO93">
+        <f t="shared" si="1"/>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -13545,19 +13555,19 @@
     <row r="102" spans="1:42">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>2954</v>
+        <v>3093</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
@@ -13565,11 +13575,11 @@
       </c>
       <c r="G102">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="I102">
         <f t="shared" si="2"/>
@@ -13577,11 +13587,11 @@
       </c>
       <c r="J102">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
@@ -13593,11 +13603,11 @@
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O102">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P102">
         <f t="shared" si="2"/>
@@ -13605,19 +13615,19 @@
       </c>
       <c r="Q102">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R102">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S102">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T102">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="U102">
         <f t="shared" si="2"/>
@@ -13649,11 +13659,11 @@
       </c>
       <c r="AB102">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC102">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AD102">
         <f t="shared" si="2"/>
@@ -13669,7 +13679,7 @@
       </c>
       <c r="AG102">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AH102">
         <f t="shared" si="2"/>
@@ -13677,7 +13687,7 @@
       </c>
       <c r="AI102">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AJ102">
         <f t="shared" si="2"/>
@@ -13693,17 +13703,17 @@
       </c>
       <c r="AM102">
         <f t="shared" si="2"/>
-        <v>1840</v>
+        <v>1907</v>
       </c>
       <c r="AN102">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:42">
       <c r="AP105">
-        <f>SUM(AO2:AO92)</f>
-        <v>6677</v>
+        <f>SUM(AO2:AO93)</f>
+        <v>7016</v>
       </c>
     </row>
   </sheetData>
@@ -13720,11 +13730,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X93" sqref="X93"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24954,6 +24964,128 @@
       </c>
       <c r="AN92">
         <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40">
+      <c r="A93" s="1">
+        <v>43972.658599537041</v>
+      </c>
+      <c r="B93">
+        <v>139</v>
+      </c>
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>28</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93">
+        <v>22</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25</v>
+      </c>
+      <c r="K93">
+        <v>28</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93">
+        <v>18</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>14</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
+      <c r="AC93">
+        <v>13</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>4</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>13</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>67</v>
+      </c>
+      <c r="AN93">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -485,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -511,6 +513,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -536,6 +539,7 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -867,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN93" sqref="A93:AN93"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN94" sqref="A94:AN94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9314,7 +9318,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO93" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO94" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12595,69 +12599,71 @@
       </c>
     </row>
     <row r="94" spans="1:41">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>43973.649317129632</v>
+      </c>
       <c r="B94">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U94">
         <v>0</v>
       </c>
       <c r="V94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -12666,19 +12672,19 @@
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z94">
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94">
         <v>0</v>
       </c>
       <c r="AC94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD94">
         <v>0</v>
@@ -12696,22 +12702,26 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL94">
         <v>0</v>
       </c>
       <c r="AM94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN94">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AO94">
+        <f t="shared" si="1"/>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:41">
@@ -13555,19 +13565,19 @@
     <row r="102" spans="1:42">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>3093</v>
+        <v>3224</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
@@ -13575,15 +13585,15 @@
       </c>
       <c r="G102">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I102">
         <f t="shared" si="2"/>
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="J102">
         <f t="shared" si="2"/>
@@ -13591,23 +13601,23 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M102">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O102">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P102">
         <f t="shared" si="2"/>
@@ -13615,7 +13625,7 @@
       </c>
       <c r="Q102">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R102">
         <f t="shared" si="2"/>
@@ -13623,11 +13633,11 @@
       </c>
       <c r="S102">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="T102">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="U102">
         <f t="shared" si="2"/>
@@ -13635,7 +13645,7 @@
       </c>
       <c r="V102">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W102">
         <f t="shared" si="2"/>
@@ -13647,7 +13657,7 @@
       </c>
       <c r="Y102">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z102">
         <f t="shared" si="2"/>
@@ -13655,7 +13665,7 @@
       </c>
       <c r="AA102">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB102">
         <f t="shared" si="2"/>
@@ -13663,7 +13673,7 @@
       </c>
       <c r="AC102">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD102">
         <f t="shared" si="2"/>
@@ -13687,15 +13697,15 @@
       </c>
       <c r="AI102">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ102">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK102">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AL102">
         <f t="shared" si="2"/>
@@ -13703,17 +13713,17 @@
       </c>
       <c r="AM102">
         <f t="shared" si="2"/>
-        <v>1907</v>
+        <v>2007</v>
       </c>
       <c r="AN102">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:42">
       <c r="AP105">
-        <f>SUM(AO2:AO93)</f>
-        <v>7016</v>
+        <f>SUM(AO2:AO94)</f>
+        <v>7261</v>
       </c>
     </row>
   </sheetData>
@@ -13730,11 +13740,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25086,6 +25096,128 @@
       </c>
       <c r="AN93">
         <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40">
+      <c r="A94" s="1">
+        <v>43973.649317129632</v>
+      </c>
+      <c r="B94">
+        <v>131</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>12</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>9</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
+        <v>9</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>9</v>
+      </c>
+      <c r="T94">
+        <v>16</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>3</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>1</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>1</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>2</v>
+      </c>
+      <c r="AJ94">
+        <v>1</v>
+      </c>
+      <c r="AK94">
+        <v>9</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>100</v>
+      </c>
+      <c r="AN94">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -487,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -514,6 +516,7 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -540,6 +543,7 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -871,9 +875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN94" sqref="A94:AN94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN95" sqref="A95:AN95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9318,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO94" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO95" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12725,18 +12729,20 @@
       </c>
     </row>
     <row r="95" spans="1:41">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>43974.66070601852</v>
+      </c>
       <c r="B95">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -12748,25 +12754,25 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -12784,10 +12790,10 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W95">
         <v>0</v>
@@ -12802,13 +12808,13 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB95">
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD95">
         <v>0</v>
@@ -12838,10 +12844,14 @@
         <v>0</v>
       </c>
       <c r="AM95">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="AN95">
         <v>0</v>
+      </c>
+      <c r="AO95">
+        <f t="shared" si="1"/>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:41">
@@ -13565,11 +13575,11 @@
     <row r="102" spans="1:42">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>3224</v>
+        <v>3357</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
@@ -13577,7 +13587,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
@@ -13593,19 +13603,19 @@
       </c>
       <c r="I102">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J102">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M102">
         <f t="shared" si="2"/>
@@ -13613,11 +13623,11 @@
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O102">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P102">
         <f t="shared" si="2"/>
@@ -13641,11 +13651,11 @@
       </c>
       <c r="U102">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V102">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W102">
         <f t="shared" si="2"/>
@@ -13665,7 +13675,7 @@
       </c>
       <c r="AA102">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB102">
         <f t="shared" si="2"/>
@@ -13673,7 +13683,7 @@
       </c>
       <c r="AC102">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AD102">
         <f t="shared" si="2"/>
@@ -13713,7 +13723,7 @@
       </c>
       <c r="AM102">
         <f t="shared" si="2"/>
-        <v>2007</v>
+        <v>2174</v>
       </c>
       <c r="AN102">
         <f t="shared" si="2"/>
@@ -13722,8 +13732,8 @@
     </row>
     <row r="105" spans="1:42">
       <c r="AP105">
-        <f>SUM(AO2:AO94)</f>
-        <v>7261</v>
+        <f>SUM(AO2:AO95)</f>
+        <v>7526</v>
       </c>
     </row>
   </sheetData>
@@ -13740,11 +13750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25218,6 +25228,128 @@
       </c>
       <c r="AN94">
         <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40">
+      <c r="A95" s="1">
+        <v>43974.66070601852</v>
+      </c>
+      <c r="B95">
+        <v>133</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>28</v>
+      </c>
+      <c r="K95">
+        <v>34</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <v>5</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>2</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>6</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>167</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -489,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -517,6 +519,7 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -544,6 +547,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -876,8 +880,8 @@
   <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN95" sqref="A95:AN95"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN96" sqref="A96:AN96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9322,7 +9326,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO95" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO96" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12855,18 +12859,20 @@
       </c>
     </row>
     <row r="96" spans="1:41">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>43975.632037037038</v>
+      </c>
       <c r="B96">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -12881,22 +12887,22 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -12905,10 +12911,10 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -12917,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="V96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -12932,13 +12938,13 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>0</v>
       </c>
       <c r="AC96">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD96">
         <v>0</v>
@@ -12950,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="AG96">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH96">
         <v>0</v>
@@ -12959,19 +12965,23 @@
         <v>0</v>
       </c>
       <c r="AJ96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK96">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL96">
         <v>0</v>
       </c>
       <c r="AM96">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AN96">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO96">
+        <f t="shared" si="1"/>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:42">
@@ -13575,19 +13585,19 @@
     <row r="102" spans="1:42">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>3357</v>
+        <v>3505</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
@@ -13607,19 +13617,19 @@
       </c>
       <c r="J102">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M102">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
@@ -13627,7 +13637,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P102">
         <f t="shared" si="2"/>
@@ -13639,11 +13649,11 @@
       </c>
       <c r="R102">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S102">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="T102">
         <f t="shared" si="2"/>
@@ -13655,7 +13665,7 @@
       </c>
       <c r="V102">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W102">
         <f t="shared" si="2"/>
@@ -13675,7 +13685,7 @@
       </c>
       <c r="AA102">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB102">
         <f t="shared" si="2"/>
@@ -13683,7 +13693,7 @@
       </c>
       <c r="AC102">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AD102">
         <f t="shared" si="2"/>
@@ -13699,7 +13709,7 @@
       </c>
       <c r="AG102">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH102">
         <f t="shared" si="2"/>
@@ -13711,11 +13721,11 @@
       </c>
       <c r="AJ102">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AK102">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AL102">
         <f t="shared" si="2"/>
@@ -13723,17 +13733,17 @@
       </c>
       <c r="AM102">
         <f t="shared" si="2"/>
-        <v>2174</v>
+        <v>2263</v>
       </c>
       <c r="AN102">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:42">
       <c r="AP105">
-        <f>SUM(AO2:AO95)</f>
-        <v>7526</v>
+        <f>SUM(AO2:AO96)</f>
+        <v>7839</v>
       </c>
     </row>
   </sheetData>
@@ -13750,11 +13760,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomLeft" activeCell="AB103" sqref="AB103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25350,6 +25360,128 @@
       </c>
       <c r="AN95">
         <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40">
+      <c r="A96" s="1">
+        <v>43975.632037037038</v>
+      </c>
+      <c r="B96">
+        <v>148</v>
+      </c>
+      <c r="C96">
+        <v>36</v>
+      </c>
+      <c r="D96">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>12</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>19</v>
+      </c>
+      <c r="K96">
+        <v>7</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>8</v>
+      </c>
+      <c r="S96">
+        <v>27</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>2</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>6</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>8</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>3</v>
+      </c>
+      <c r="AK96">
+        <v>11</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>89</v>
+      </c>
+      <c r="AN96">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -491,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -520,6 +524,8 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -548,6 +554,8 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -880,8 +888,8 @@
   <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN96" sqref="A96:AN96"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN97" sqref="A97:AN97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9326,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO96" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO97" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -12985,36 +12993,38 @@
       </c>
     </row>
     <row r="97" spans="1:42">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>43976.648993055554</v>
+      </c>
       <c r="B97">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -13035,10 +13045,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -13062,16 +13072,16 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97">
         <v>0</v>
       </c>
       <c r="AC97">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE97">
         <v>0</v>
@@ -13089,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="AJ97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -13098,10 +13108,14 @@
         <v>0</v>
       </c>
       <c r="AM97">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AN97">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO97">
+        <f t="shared" si="1"/>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:42">
@@ -13585,35 +13599,35 @@
     <row r="102" spans="1:42">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>3505</v>
+        <v>3595</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="I102">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J102">
         <f t="shared" si="2"/>
@@ -13621,7 +13635,7 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
@@ -13649,11 +13663,11 @@
       </c>
       <c r="R102">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="S102">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="T102">
         <f t="shared" si="2"/>
@@ -13685,7 +13699,7 @@
       </c>
       <c r="AA102">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB102">
         <f t="shared" si="2"/>
@@ -13693,11 +13707,11 @@
       </c>
       <c r="AC102">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AD102">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AE102">
         <f t="shared" si="2"/>
@@ -13721,7 +13735,7 @@
       </c>
       <c r="AJ102">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK102">
         <f t="shared" si="2"/>
@@ -13733,17 +13747,17 @@
       </c>
       <c r="AM102">
         <f t="shared" si="2"/>
-        <v>2263</v>
+        <v>2311</v>
       </c>
       <c r="AN102">
         <f t="shared" si="2"/>
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:42">
       <c r="AP105">
-        <f>SUM(AO2:AO96)</f>
-        <v>7839</v>
+        <f>SUM(AO2:AO97)</f>
+        <v>8068</v>
       </c>
     </row>
   </sheetData>
@@ -13760,11 +13774,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB103" sqref="AB103"/>
+      <selection pane="bottomLeft" activeCell="AE99" sqref="AE99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25482,6 +25496,128 @@
       </c>
       <c r="AN96">
         <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:40">
+      <c r="A97" s="1">
+        <v>43976.648993055554</v>
+      </c>
+      <c r="B97">
+        <v>90</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>23</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>27</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>7</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>12</v>
+      </c>
+      <c r="AD97">
+        <v>26</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>48</v>
+      </c>
+      <c r="AN97">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -495,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -526,6 +528,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -556,6 +559,7 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -888,8 +892,8 @@
   <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN97" sqref="A97:AN97"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN98" sqref="A98:AN98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9334,7 +9338,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO97" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO98" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -13119,36 +13123,38 @@
       </c>
     </row>
     <row r="98" spans="1:42">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>43977.646331018521</v>
+      </c>
       <c r="B98">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -13157,22 +13163,22 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -13184,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>0</v>
@@ -13214,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AG98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH98">
         <v>0</v>
@@ -13226,16 +13232,20 @@
         <v>0</v>
       </c>
       <c r="AK98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL98">
         <v>0</v>
       </c>
       <c r="AM98">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AN98">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AO98">
+        <f t="shared" si="1"/>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:42">
@@ -13599,7 +13609,7 @@
     <row r="102" spans="1:42">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>3595</v>
+        <v>3756</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
@@ -13607,11 +13617,11 @@
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
@@ -13619,7 +13629,7 @@
       </c>
       <c r="G102">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
@@ -13627,15 +13637,15 @@
       </c>
       <c r="I102">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J102">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
@@ -13647,11 +13657,11 @@
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O102">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="P102">
         <f t="shared" si="2"/>
@@ -13659,15 +13669,15 @@
       </c>
       <c r="Q102">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R102">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S102">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="T102">
         <f t="shared" si="2"/>
@@ -13683,7 +13693,7 @@
       </c>
       <c r="W102">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X102">
         <f t="shared" si="2"/>
@@ -13723,7 +13733,7 @@
       </c>
       <c r="AG102">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AH102">
         <f t="shared" si="2"/>
@@ -13739,7 +13749,7 @@
       </c>
       <c r="AK102">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AL102">
         <f t="shared" si="2"/>
@@ -13747,17 +13757,17 @@
       </c>
       <c r="AM102">
         <f t="shared" si="2"/>
-        <v>2311</v>
+        <v>2385</v>
       </c>
       <c r="AN102">
         <f t="shared" si="2"/>
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:42">
       <c r="AP105">
-        <f>SUM(AO2:AO97)</f>
-        <v>8068</v>
+        <f>SUM(AO2:AO98)</f>
+        <v>8344</v>
       </c>
     </row>
   </sheetData>
@@ -13774,11 +13784,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE99" sqref="AE99"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25618,6 +25628,128 @@
       </c>
       <c r="AN97">
         <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:40">
+      <c r="A98" s="1">
+        <v>43977.646331018521</v>
+      </c>
+      <c r="B98">
+        <v>161</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>27</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>19</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>36</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>10</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>3</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>74</v>
+      </c>
+      <c r="AN98">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -497,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -529,6 +531,7 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -560,6 +563,7 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -893,7 +897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN98" sqref="A98:AN98"/>
+      <selection pane="bottomLeft" activeCell="AN99" sqref="A99:AN99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9338,7 +9342,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO98" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO99" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -13249,48 +13253,50 @@
       </c>
     </row>
     <row r="99" spans="1:42">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>43978.655694444446</v>
+      </c>
       <c r="B99">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -13299,10 +13305,10 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -13311,10 +13317,10 @@
         <v>0</v>
       </c>
       <c r="V99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X99">
         <v>0</v>
@@ -13323,28 +13329,28 @@
         <v>0</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE99">
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG99">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH99">
         <v>0</v>
@@ -13362,10 +13368,14 @@
         <v>0</v>
       </c>
       <c r="AM99">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AN99">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO99">
+        <f t="shared" si="1"/>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:42">
@@ -13609,7 +13619,7 @@
     <row r="102" spans="1:42">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>3756</v>
+        <v>4012</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
@@ -13617,11 +13627,11 @@
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
@@ -13629,31 +13639,31 @@
       </c>
       <c r="G102">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="I102">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J102">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M102">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
@@ -13661,7 +13671,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="P102">
         <f t="shared" si="2"/>
@@ -13673,11 +13683,11 @@
       </c>
       <c r="R102">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S102">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="T102">
         <f t="shared" si="2"/>
@@ -13689,11 +13699,11 @@
       </c>
       <c r="V102">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W102">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X102">
         <f t="shared" si="2"/>
@@ -13705,23 +13715,23 @@
       </c>
       <c r="Z102">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA102">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB102">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AC102">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD102">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE102">
         <f t="shared" si="2"/>
@@ -13729,11 +13739,11 @@
       </c>
       <c r="AF102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG102">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AH102">
         <f t="shared" si="2"/>
@@ -13757,17 +13767,17 @@
       </c>
       <c r="AM102">
         <f t="shared" si="2"/>
-        <v>2385</v>
+        <v>2501</v>
       </c>
       <c r="AN102">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:42">
       <c r="AP105">
-        <f>SUM(AO2:AO98)</f>
-        <v>8344</v>
+        <f>SUM(AO2:AO99)</f>
+        <v>8733</v>
       </c>
     </row>
   </sheetData>
@@ -13784,11 +13794,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA105" sqref="AA105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25750,6 +25760,128 @@
       </c>
       <c r="AN98">
         <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:40">
+      <c r="A99" s="1">
+        <v>43978.655694444446</v>
+      </c>
+      <c r="B99">
+        <v>256</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>23</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>22</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <v>11</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>7</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>14</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>2</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>2</v>
+      </c>
+      <c r="AA99">
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <v>11</v>
+      </c>
+      <c r="AC99">
+        <v>2</v>
+      </c>
+      <c r="AD99">
+        <v>1</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>2</v>
+      </c>
+      <c r="AG99">
+        <v>6</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>116</v>
+      </c>
+      <c r="AN99">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -532,6 +534,7 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -564,6 +567,7 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -893,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP105"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN99" sqref="A99:AN99"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9342,7 +9346,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO99" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO100" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -13000,7 +13004,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:41">
       <c r="A97" s="1">
         <v>43976.648993055554</v>
       </c>
@@ -13126,7 +13130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:41">
       <c r="A98" s="1">
         <v>43977.646331018521</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:41">
       <c r="A99" s="1">
         <v>43978.655694444446</v>
       </c>
@@ -13378,48 +13382,51 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:41">
+      <c r="A100" s="1">
+        <v>43979.643958333334</v>
+      </c>
       <c r="B100">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -13428,10 +13435,10 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -13461,13 +13468,13 @@
         <v>0</v>
       </c>
       <c r="AC100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD100">
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -13485,19 +13492,24 @@
         <v>0</v>
       </c>
       <c r="AK100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL100">
         <v>0</v>
       </c>
       <c r="AM100">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AN100">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO100">
+        <f t="shared" si="1"/>
+        <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:41">
+      <c r="A101" s="1"/>
       <c r="B101">
         <v>0</v>
       </c>
@@ -13616,168 +13628,1247 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:41">
+      <c r="A102" s="1"/>
       <c r="B102">
-        <f>SUM(B2:B101)</f>
-        <v>4012</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:AN102" si="2">SUM(C2:C101)</f>
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41">
+      <c r="A103" s="1"/>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41">
+      <c r="A104" s="1"/>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41">
+      <c r="A105" s="1"/>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41">
+      <c r="A106" s="1"/>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41">
+      <c r="A107" s="1"/>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41">
+      <c r="A108" s="1"/>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41">
+      <c r="A109" s="1"/>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41">
+      <c r="B111">
+        <f>SUM(B2:B110)</f>
+        <v>4123</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
+        <v>535</v>
+      </c>
+      <c r="D111">
         <f t="shared" si="2"/>
-        <v>936</v>
-      </c>
-      <c r="E102">
+        <v>939</v>
+      </c>
+      <c r="E111">
         <f t="shared" si="2"/>
-        <v>242</v>
-      </c>
-      <c r="F102">
+        <v>246</v>
+      </c>
+      <c r="F111">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G102">
+      <c r="G111">
         <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-      <c r="H102">
+        <v>154</v>
+      </c>
+      <c r="H111">
         <f t="shared" si="2"/>
         <v>358</v>
       </c>
-      <c r="I102">
+      <c r="I111">
         <f t="shared" si="2"/>
-        <v>257</v>
-      </c>
-      <c r="J102">
+        <v>258</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K102">
+      <c r="K111">
         <f t="shared" si="2"/>
-        <v>252</v>
-      </c>
-      <c r="L102">
+        <v>260</v>
+      </c>
+      <c r="L111">
         <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="M102">
+        <v>87</v>
+      </c>
+      <c r="M111">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="N102">
+        <v>45</v>
+      </c>
+      <c r="N111">
         <f t="shared" si="2"/>
-        <v>233</v>
-      </c>
-      <c r="O102">
+        <v>234</v>
+      </c>
+      <c r="O111">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="P102">
+        <v>221</v>
+      </c>
+      <c r="P111">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q102">
+      <c r="Q111">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="R102">
+      <c r="R111">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="S102">
+        <v>57</v>
+      </c>
+      <c r="S111">
         <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="T102">
+        <v>176</v>
+      </c>
+      <c r="T111">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="U102">
+      <c r="U111">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="V102">
+      <c r="V111">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="W102">
+      <c r="W111">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="X102">
+      <c r="X111">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="Y102">
+      <c r="Y111">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="Z102">
+      <c r="Z111">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA102">
+      <c r="AA111">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB102">
+      <c r="AB111">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="AC102">
+      <c r="AC111">
         <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="AD102">
+        <v>99</v>
+      </c>
+      <c r="AD111">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="AE102">
+      <c r="AE111">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AF102">
+        <v>33</v>
+      </c>
+      <c r="AF111">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AG102">
+      <c r="AG111">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="AH102">
+      <c r="AH111">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AI102">
+      <c r="AI111">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="AJ102">
+      <c r="AJ111">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AK102">
+      <c r="AK111">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="AL102">
+        <v>40</v>
+      </c>
+      <c r="AL111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM102">
+      <c r="AM111">
         <f t="shared" si="2"/>
-        <v>2501</v>
-      </c>
-      <c r="AN102">
+        <v>2592</v>
+      </c>
+      <c r="AN111">
         <f t="shared" si="2"/>
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:42">
-      <c r="AP105">
-        <f>SUM(AO2:AO99)</f>
-        <v>8733</v>
+    <row r="114" spans="42:42">
+      <c r="AP114">
+        <f>SUM(AO2:AO100)</f>
+        <v>8915</v>
       </c>
     </row>
   </sheetData>
@@ -13794,11 +14885,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA105" sqref="AA105"/>
+      <selection pane="bottomLeft" activeCell="AD103" sqref="AD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25881,6 +26972,128 @@
         <v>116</v>
       </c>
       <c r="AN99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:40">
+      <c r="A100" s="1">
+        <v>43979.643958333334</v>
+      </c>
+      <c r="B100">
+        <v>111</v>
+      </c>
+      <c r="C100">
+        <v>16</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>8</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>6</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>6</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>2</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>4</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>91</v>
+      </c>
+      <c r="AN100">
         <v>5</v>
       </c>
     </row>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -535,6 +537,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -568,6 +571,7 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,9 +903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN101" sqref="A101:AN101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9346,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO100" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO101" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -13509,15 +13513,17 @@
       </c>
     </row>
     <row r="101" spans="1:41">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>43980.656956018516</v>
+      </c>
       <c r="B101">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -13526,19 +13532,19 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -13547,25 +13553,25 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101">
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U101">
         <v>0</v>
@@ -13592,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="AC101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD101">
         <v>0</v>
@@ -13610,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="AI101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ101">
         <v>0</v>
@@ -13622,10 +13628,14 @@
         <v>0</v>
       </c>
       <c r="AM101">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AN101">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO101">
+        <f t="shared" si="1"/>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:41">
@@ -14710,15 +14720,15 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>4123</v>
+        <v>4377</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
@@ -14730,7 +14740,7 @@
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
@@ -14738,15 +14748,15 @@
       </c>
       <c r="I111">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J111">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
@@ -14758,11 +14768,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="2"/>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
@@ -14770,7 +14780,7 @@
       </c>
       <c r="Q111">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
@@ -14778,11 +14788,11 @@
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="U111">
         <f t="shared" si="2"/>
@@ -14818,7 +14828,7 @@
       </c>
       <c r="AC111">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AD111">
         <f t="shared" si="2"/>
@@ -14842,7 +14852,7 @@
       </c>
       <c r="AI111">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AJ111">
         <f t="shared" si="2"/>
@@ -14858,17 +14868,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>2592</v>
+        <v>2697</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO100)</f>
-        <v>8915</v>
+        <f>SUM(AO2:AO101)</f>
+        <v>9302</v>
       </c>
     </row>
   </sheetData>
@@ -14885,11 +14895,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD103" sqref="AD103"/>
+      <selection pane="bottomLeft" activeCell="AB103" sqref="AB103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27095,6 +27105,128 @@
       </c>
       <c r="AN100">
         <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:40">
+      <c r="A101" s="1">
+        <v>43980.656956018516</v>
+      </c>
+      <c r="B101">
+        <v>254</v>
+      </c>
+      <c r="C101">
+        <v>29</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>22</v>
+      </c>
+      <c r="K101">
+        <v>15</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101">
+        <v>11</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>14</v>
+      </c>
+      <c r="T101">
+        <v>24</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>2</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>105</v>
+      </c>
+      <c r="AN101">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +540,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -572,6 +575,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -904,8 +908,8 @@
   <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN101" sqref="A101:AN101"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9350,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO101" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO102" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -13639,36 +13643,38 @@
       </c>
     </row>
     <row r="102" spans="1:41">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>43981.663819444446</v>
+      </c>
       <c r="B102">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -13680,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -13689,13 +13695,13 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U102">
         <v>0</v>
@@ -13722,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="AC102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD102">
         <v>0</v>
@@ -13740,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ102">
         <v>0</v>
@@ -13752,10 +13758,14 @@
         <v>0</v>
       </c>
       <c r="AM102">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AN102">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO102">
+        <f t="shared" si="1"/>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:41">
@@ -14720,23 +14730,23 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>4377</v>
+        <v>4755</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
@@ -14744,19 +14754,19 @@
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I111">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J111">
         <f t="shared" si="2"/>
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
@@ -14772,7 +14782,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
@@ -14784,15 +14794,15 @@
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="U111">
         <f t="shared" si="2"/>
@@ -14828,7 +14838,7 @@
       </c>
       <c r="AC111">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AD111">
         <f t="shared" si="2"/>
@@ -14852,7 +14862,7 @@
       </c>
       <c r="AI111">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AJ111">
         <f t="shared" si="2"/>
@@ -14868,17 +14878,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>2697</v>
+        <v>2856</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO101)</f>
-        <v>9302</v>
+        <f>SUM(AO2:AO102)</f>
+        <v>9855</v>
       </c>
     </row>
   </sheetData>
@@ -14895,11 +14905,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB103" sqref="AB103"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:AN102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27227,6 +27237,128 @@
       </c>
       <c r="AN101">
         <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:40">
+      <c r="A102" s="1">
+        <v>43981.663819444446</v>
+      </c>
+      <c r="B102">
+        <v>378</v>
+      </c>
+      <c r="C102">
+        <v>52</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>7</v>
+      </c>
+      <c r="J102">
+        <v>22</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>12</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>23</v>
+      </c>
+      <c r="S102">
+        <v>14</v>
+      </c>
+      <c r="T102">
+        <v>5</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>3</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>159</v>
+      </c>
+      <c r="AN102">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -541,6 +543,7 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -576,6 +579,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -909,7 +913,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <selection pane="bottomLeft" activeCell="AN103" sqref="A103:AN103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9354,7 +9358,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO102" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO103" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -13769,24 +13773,26 @@
       </c>
     </row>
     <row r="103" spans="1:41">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>43982.643483796295</v>
+      </c>
       <c r="B103">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -13798,19 +13804,19 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -13819,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -13831,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="V103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>0</v>
@@ -13852,10 +13858,10 @@
         <v>0</v>
       </c>
       <c r="AC103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE103">
         <v>0</v>
@@ -13873,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="AJ103">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK103">
         <v>0</v>
@@ -13882,10 +13888,14 @@
         <v>0</v>
       </c>
       <c r="AM103">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="AN103">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AO103">
+        <f t="shared" si="1"/>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:41">
@@ -14730,19 +14740,19 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>4755</v>
+        <v>4943</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
@@ -14750,7 +14760,7 @@
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
@@ -14766,11 +14776,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M111">
         <f t="shared" si="2"/>
@@ -14778,11 +14788,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="2"/>
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
@@ -14794,11 +14804,11 @@
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
@@ -14810,7 +14820,7 @@
       </c>
       <c r="V111">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W111">
         <f t="shared" si="2"/>
@@ -14838,11 +14848,11 @@
       </c>
       <c r="AC111">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AD111">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE111">
         <f t="shared" si="2"/>
@@ -14866,7 +14876,7 @@
       </c>
       <c r="AJ111">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AK111">
         <f t="shared" si="2"/>
@@ -14878,17 +14888,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>2856</v>
+        <v>3007</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO102)</f>
-        <v>9855</v>
+        <f>SUM(AO2:AO103)</f>
+        <v>10162</v>
       </c>
     </row>
   </sheetData>
@@ -14905,11 +14915,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:AN102"/>
+      <selection pane="bottomLeft" activeCell="AI104" sqref="AI104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27359,6 +27369,128 @@
       </c>
       <c r="AN102">
         <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:40">
+      <c r="A103" s="1">
+        <v>43982.643483796295</v>
+      </c>
+      <c r="B103">
+        <v>188</v>
+      </c>
+      <c r="C103">
+        <v>44</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>12</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103">
+        <v>14</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>2</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>9</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>151</v>
+      </c>
+      <c r="AN103">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -544,6 +546,7 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -580,6 +583,7 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -911,9 +915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN103" sqref="A103:AN103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN104" sqref="A104:AN104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9358,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO103" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO104" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -13899,18 +13903,20 @@
       </c>
     </row>
     <row r="104" spans="1:41">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>43983.661226851851</v>
+      </c>
       <c r="B104">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -13919,40 +13925,40 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S104">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -13961,10 +13967,10 @@
         <v>0</v>
       </c>
       <c r="V104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X104">
         <v>0</v>
@@ -13973,19 +13979,19 @@
         <v>0</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA104">
         <v>0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC104">
         <v>0</v>
       </c>
       <c r="AD104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE104">
         <v>0</v>
@@ -13994,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="AG104">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH104">
         <v>0</v>
@@ -14012,10 +14018,14 @@
         <v>0</v>
       </c>
       <c r="AM104">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AN104">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO104">
+        <f t="shared" si="1"/>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:41">
@@ -14740,19 +14750,19 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>4943</v>
+        <v>5135</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
@@ -14764,23 +14774,23 @@
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="I111">
         <f t="shared" si="2"/>
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="J111">
         <f t="shared" si="2"/>
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="M111">
         <f t="shared" si="2"/>
@@ -14788,11 +14798,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
@@ -14800,15 +14810,15 @@
       </c>
       <c r="Q111">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
@@ -14820,11 +14830,11 @@
       </c>
       <c r="V111">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W111">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X111">
         <f t="shared" si="2"/>
@@ -14836,7 +14846,7 @@
       </c>
       <c r="Z111">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA111">
         <f t="shared" si="2"/>
@@ -14844,7 +14854,7 @@
       </c>
       <c r="AB111">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC111">
         <f t="shared" si="2"/>
@@ -14852,7 +14862,7 @@
       </c>
       <c r="AD111">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AE111">
         <f t="shared" si="2"/>
@@ -14864,7 +14874,7 @@
       </c>
       <c r="AG111">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AH111">
         <f t="shared" si="2"/>
@@ -14888,17 +14898,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>3007</v>
+        <v>3122</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO103)</f>
-        <v>10162</v>
+        <f>SUM(AO2:AO104)</f>
+        <v>10578</v>
       </c>
     </row>
   </sheetData>
@@ -14915,11 +14925,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN103"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI104" sqref="AI104"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104:AN104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27491,6 +27501,128 @@
       </c>
       <c r="AN103">
         <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:40">
+      <c r="A104" s="1">
+        <v>43983.661226851851</v>
+      </c>
+      <c r="B104">
+        <v>192</v>
+      </c>
+      <c r="C104">
+        <v>14</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>7</v>
+      </c>
+      <c r="I104">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>41</v>
+      </c>
+      <c r="K104">
+        <v>10</v>
+      </c>
+      <c r="L104">
+        <v>23</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104">
+        <v>30</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>3</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104">
+        <v>33</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>5</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>4</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>3</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>18</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>115</v>
+      </c>
+      <c r="AN104">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -547,6 +549,7 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -584,6 +587,7 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -915,9 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN104" sqref="A104:AN104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN105" sqref="A105:AN105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9362,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO104" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO105" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14029,36 +14033,38 @@
       </c>
     </row>
     <row r="105" spans="1:41">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>43984.658182870371</v>
+      </c>
       <c r="B105">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -14067,10 +14073,10 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -14079,13 +14085,13 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U105">
         <v>0</v>
@@ -14112,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="AC105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD105">
         <v>0</v>
@@ -14142,10 +14148,14 @@
         <v>0</v>
       </c>
       <c r="AM105">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="AN105">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AO105">
+        <f t="shared" si="1"/>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:41">
@@ -14750,15 +14760,15 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>5135</v>
+        <v>5277</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
@@ -14766,11 +14776,11 @@
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
@@ -14778,15 +14788,15 @@
       </c>
       <c r="I111">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J111">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
@@ -14798,11 +14808,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
@@ -14814,15 +14824,15 @@
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="U111">
         <f t="shared" si="2"/>
@@ -14858,7 +14868,7 @@
       </c>
       <c r="AC111">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AD111">
         <f t="shared" si="2"/>
@@ -14898,17 +14908,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>3122</v>
+        <v>3239</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO104)</f>
-        <v>10578</v>
+        <f>SUM(AO2:AO105)</f>
+        <v>10819</v>
       </c>
     </row>
   </sheetData>
@@ -14925,11 +14935,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:AN104"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF106" sqref="AF106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27623,6 +27633,128 @@
       </c>
       <c r="AN104">
         <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40">
+      <c r="A105" s="1">
+        <v>43984.658182870371</v>
+      </c>
+      <c r="B105">
+        <v>142</v>
+      </c>
+      <c r="C105">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="J105">
+        <v>11</v>
+      </c>
+      <c r="K105">
+        <v>15</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>9</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>10</v>
+      </c>
+      <c r="S105">
+        <v>9</v>
+      </c>
+      <c r="T105">
+        <v>4</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>3</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>117</v>
+      </c>
+      <c r="AN105">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -511,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +554,8 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -588,6 +594,8 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,8 +928,8 @@
   <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN105" sqref="A105:AN105"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN106" sqref="A106:AN106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9366,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO105" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO106" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14159,24 +14167,26 @@
       </c>
     </row>
     <row r="106" spans="1:41">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>43985.658182870371</v>
+      </c>
       <c r="B106">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -14185,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -14197,31 +14207,31 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W106">
         <v>0</v>
@@ -14233,16 +14243,16 @@
         <v>0</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106">
         <v>0</v>
       </c>
       <c r="AC106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD106">
         <v>0</v>
@@ -14251,10 +14261,10 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH106">
         <v>0</v>
@@ -14266,16 +14276,20 @@
         <v>0</v>
       </c>
       <c r="AK106">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL106">
         <v>0</v>
       </c>
       <c r="AM106">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN106">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO106">
+        <f t="shared" si="1"/>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:41">
@@ -14760,11 +14774,11 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>5277</v>
+        <v>5440</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>687</v>
+        <v>763</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
@@ -14772,15 +14786,15 @@
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
@@ -14792,7 +14806,7 @@
       </c>
       <c r="J111">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
@@ -14808,7 +14822,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="2"/>
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
@@ -14816,19 +14830,19 @@
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q111">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
@@ -14836,11 +14850,11 @@
       </c>
       <c r="U111">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="V111">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="W111">
         <f t="shared" si="2"/>
@@ -14856,11 +14870,11 @@
       </c>
       <c r="Z111">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA111">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB111">
         <f t="shared" si="2"/>
@@ -14868,7 +14882,7 @@
       </c>
       <c r="AC111">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD111">
         <f t="shared" si="2"/>
@@ -14880,11 +14894,11 @@
       </c>
       <c r="AF111">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG111">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH111">
         <f t="shared" si="2"/>
@@ -14900,7 +14914,7 @@
       </c>
       <c r="AK111">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AL111">
         <f t="shared" si="2"/>
@@ -14908,17 +14922,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>3239</v>
+        <v>3329</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO105)</f>
-        <v>10819</v>
+        <f>SUM(AO2:AO106)</f>
+        <v>11167</v>
       </c>
     </row>
   </sheetData>
@@ -14935,11 +14949,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN105"/>
+  <dimension ref="A1:AN106"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF106" sqref="AF106"/>
+      <selection pane="bottomLeft" activeCell="AC109" sqref="AC109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27755,6 +27769,128 @@
       </c>
       <c r="AN105">
         <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:40">
+      <c r="A106" s="1">
+        <v>43985.658182870371</v>
+      </c>
+      <c r="B106">
+        <v>163</v>
+      </c>
+      <c r="C106">
+        <v>76</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>5</v>
+      </c>
+      <c r="Q106">
+        <v>5</v>
+      </c>
+      <c r="R106">
+        <v>8</v>
+      </c>
+      <c r="S106">
+        <v>21</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>6</v>
+      </c>
+      <c r="V106">
+        <v>8</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>4</v>
+      </c>
+      <c r="AA106">
+        <v>1</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AG106">
+        <v>8</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>23</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>90</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -556,6 +558,7 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -596,6 +599,7 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -928,8 +932,8 @@
   <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN106" sqref="A106:AN106"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN107" sqref="A107:AN107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9374,7 +9378,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO106" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO107" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14293,60 +14297,62 @@
       </c>
     </row>
     <row r="107" spans="1:41">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>43986.655428240738</v>
+      </c>
       <c r="B107">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -14376,10 +14382,10 @@
         <v>0</v>
       </c>
       <c r="AC107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD107">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE107">
         <v>0</v>
@@ -14388,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="AG107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH107">
         <v>0</v>
@@ -14397,19 +14403,23 @@
         <v>0</v>
       </c>
       <c r="AJ107">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK107">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL107">
         <v>0</v>
       </c>
       <c r="AM107">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="AN107">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO107">
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:41">
@@ -14774,19 +14784,19 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>5440</v>
+        <v>5542</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
@@ -14794,27 +14804,27 @@
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="I111">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="J111">
         <f t="shared" si="2"/>
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="M111">
         <f t="shared" si="2"/>
@@ -14822,11 +14832,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
@@ -14834,15 +14844,15 @@
       </c>
       <c r="Q111">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
@@ -14882,11 +14892,11 @@
       </c>
       <c r="AC111">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD111">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AE111">
         <f t="shared" si="2"/>
@@ -14898,7 +14908,7 @@
       </c>
       <c r="AG111">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH111">
         <f t="shared" si="2"/>
@@ -14910,11 +14920,11 @@
       </c>
       <c r="AJ111">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AK111">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AL111">
         <f t="shared" si="2"/>
@@ -14922,17 +14932,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>3329</v>
+        <v>3535</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO106)</f>
-        <v>11167</v>
+        <f>SUM(AO2:AO107)</f>
+        <v>11517</v>
       </c>
     </row>
   </sheetData>
@@ -14949,11 +14959,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN106"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC109" sqref="AC109"/>
+      <selection pane="bottomLeft" activeCell="AC110" sqref="AC110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27891,6 +27901,128 @@
       </c>
       <c r="AN106">
         <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:40">
+      <c r="A107" s="1">
+        <v>43986.655428240738</v>
+      </c>
+      <c r="B107">
+        <v>102</v>
+      </c>
+      <c r="C107">
+        <v>29</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>34</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>14</v>
+      </c>
+      <c r="I107">
+        <v>26</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>16</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>10</v>
+      </c>
+      <c r="O107">
+        <v>23</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>10</v>
+      </c>
+      <c r="S107">
+        <v>21</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>4</v>
+      </c>
+      <c r="AD107">
+        <v>8</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>2</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>9</v>
+      </c>
+      <c r="AK107">
+        <v>17</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>206</v>
+      </c>
+      <c r="AN107">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -517,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -559,6 +561,7 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -600,6 +603,7 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -933,7 +937,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN107" sqref="A107:AN107"/>
+      <selection pane="bottomLeft" activeCell="AN108" sqref="A108:AN108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9378,7 +9382,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO107" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO108" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14423,24 +14427,26 @@
       </c>
     </row>
     <row r="108" spans="1:41">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>43987.654479166667</v>
+      </c>
       <c r="B108">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -14449,10 +14455,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -14461,28 +14467,28 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R108">
         <v>0</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T108">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V108">
         <v>0</v>
@@ -14536,10 +14542,14 @@
         <v>0</v>
       </c>
       <c r="AM108">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AN108">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AO108">
+        <f t="shared" si="1"/>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:41">
@@ -14784,27 +14794,27 @@
     <row r="111" spans="1:41">
       <c r="B111">
         <f>SUM(B2:B110)</f>
-        <v>5542</v>
+        <v>5663</v>
       </c>
       <c r="C111">
         <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>792</v>
+        <v>862</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
@@ -14816,11 +14826,11 @@
       </c>
       <c r="J111">
         <f t="shared" si="2"/>
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="K111">
         <f t="shared" si="2"/>
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
@@ -14832,11 +14842,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="P111">
         <f t="shared" si="2"/>
@@ -14844,7 +14854,7 @@
       </c>
       <c r="Q111">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <f t="shared" si="2"/>
@@ -14852,15 +14862,15 @@
       </c>
       <c r="S111">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="T111">
         <f t="shared" si="2"/>
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="U111">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="V111">
         <f t="shared" si="2"/>
@@ -14932,17 +14942,17 @@
       </c>
       <c r="AM111">
         <f t="shared" si="2"/>
-        <v>3535</v>
+        <v>3696</v>
       </c>
       <c r="AN111">
         <f t="shared" si="2"/>
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114">
-        <f>SUM(AO2:AO107)</f>
-        <v>11517</v>
+        <f>SUM(AO2:AO108)</f>
+        <v>11845</v>
       </c>
     </row>
   </sheetData>
@@ -14959,11 +14969,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN108"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC110" sqref="AC110"/>
+      <selection pane="bottomLeft" activeCell="AG120" sqref="AG120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28023,6 +28033,128 @@
       </c>
       <c r="AN107">
         <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:40">
+      <c r="A108" s="1">
+        <v>43987.654479166667</v>
+      </c>
+      <c r="B108">
+        <v>121</v>
+      </c>
+      <c r="C108">
+        <v>70</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>14</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>13</v>
+      </c>
+      <c r="K108">
+        <v>16</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>25</v>
+      </c>
+      <c r="O108">
+        <v>15</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>18</v>
+      </c>
+      <c r="T108">
+        <v>8</v>
+      </c>
+      <c r="U108">
+        <v>6</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>161</v>
+      </c>
+      <c r="AN108">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -519,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -562,6 +564,7 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -604,6 +607,7 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -933,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP114"/>
+  <dimension ref="A1:AP124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN108" sqref="A108:AN108"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9382,7 +9386,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO108" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO109" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14553,36 +14557,38 @@
       </c>
     </row>
     <row r="109" spans="1:41">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>43988.651643518519</v>
+      </c>
       <c r="B109">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -14591,46 +14597,46 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R109">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S109">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T109">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U109">
         <v>0</v>
       </c>
       <c r="V109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X109">
         <v>0</v>
       </c>
       <c r="Y109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z109">
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB109">
         <v>0</v>
@@ -14639,16 +14645,16 @@
         <v>0</v>
       </c>
       <c r="AD109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF109">
         <v>0</v>
       </c>
       <c r="AG109">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH109">
         <v>0</v>
@@ -14660,19 +14666,24 @@
         <v>0</v>
       </c>
       <c r="AK109">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL109">
         <v>0</v>
       </c>
       <c r="AM109">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN109">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO109">
+        <f t="shared" si="1"/>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:41">
+      <c r="A110" s="1"/>
       <c r="B110">
         <v>0</v>
       </c>
@@ -14792,167 +14803,1366 @@
       </c>
     </row>
     <row r="111" spans="1:41">
+      <c r="A111" s="1"/>
       <c r="B111">
-        <f>SUM(B2:B110)</f>
-        <v>5663</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <f t="shared" ref="C111:AN111" si="2">SUM(C2:C110)</f>
-        <v>862</v>
+        <v>0</v>
       </c>
       <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41">
+      <c r="A112" s="1"/>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:42">
+      <c r="A113" s="1"/>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:42">
+      <c r="A114" s="1"/>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:42">
+      <c r="A115" s="1"/>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:42">
+      <c r="A116" s="1"/>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:42">
+      <c r="A117" s="1"/>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:42">
+      <c r="A118" s="1"/>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:42">
+      <c r="A119" s="1"/>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:42">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42">
+      <c r="B121">
+        <f>SUM(B2:B120)</f>
+        <v>5729</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
+        <v>912</v>
+      </c>
+      <c r="D121">
         <f t="shared" si="2"/>
-        <v>985</v>
-      </c>
-      <c r="E111">
+        <v>997</v>
+      </c>
+      <c r="E121">
         <f t="shared" si="2"/>
-        <v>329</v>
-      </c>
-      <c r="F111">
+        <v>336</v>
+      </c>
+      <c r="F121">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G111">
+      <c r="G121">
         <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="H111">
+        <v>201</v>
+      </c>
+      <c r="H121">
         <f t="shared" si="2"/>
-        <v>385</v>
-      </c>
-      <c r="I111">
+        <v>387</v>
+      </c>
+      <c r="I121">
         <f t="shared" si="2"/>
-        <v>322</v>
-      </c>
-      <c r="J111">
+        <v>348</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="2"/>
-        <v>364</v>
-      </c>
-      <c r="K111">
+        <v>387</v>
+      </c>
+      <c r="K121">
         <f t="shared" si="2"/>
-        <v>334</v>
-      </c>
-      <c r="L111">
+        <v>365</v>
+      </c>
+      <c r="L121">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="M111">
+      <c r="M121">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N111">
+      <c r="N121">
         <f t="shared" si="2"/>
-        <v>281</v>
-      </c>
-      <c r="O111">
+        <v>286</v>
+      </c>
+      <c r="O121">
         <f t="shared" si="2"/>
-        <v>335</v>
-      </c>
-      <c r="P111">
+        <v>337</v>
+      </c>
+      <c r="P121">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Q111">
+      <c r="Q121">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="R111">
+        <v>40</v>
+      </c>
+      <c r="R121">
         <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="S111">
+        <v>148</v>
+      </c>
+      <c r="S121">
         <f t="shared" si="2"/>
-        <v>308</v>
-      </c>
-      <c r="T111">
+        <v>332</v>
+      </c>
+      <c r="T121">
         <f t="shared" si="2"/>
-        <v>282</v>
-      </c>
-      <c r="U111">
+        <v>290</v>
+      </c>
+      <c r="U121">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="V111">
+      <c r="V121">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="W111">
+        <v>42</v>
+      </c>
+      <c r="W121">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="X111">
+        <v>16</v>
+      </c>
+      <c r="X121">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="Y111">
+      <c r="Y121">
         <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="Z111">
+        <v>128</v>
+      </c>
+      <c r="Z121">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AA111">
+      <c r="AA121">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AB111">
+        <v>29</v>
+      </c>
+      <c r="AB121">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="AC111">
+      <c r="AC121">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="AD111">
+      <c r="AD121">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AE111">
+        <v>59</v>
+      </c>
+      <c r="AE121">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="AF111">
+        <v>35</v>
+      </c>
+      <c r="AF121">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG111">
+      <c r="AG121">
         <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="AH111">
+        <v>105</v>
+      </c>
+      <c r="AH121">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AI111">
+      <c r="AI121">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="AJ111">
+      <c r="AJ121">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="AK111">
+      <c r="AK121">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="AL111">
+        <v>103</v>
+      </c>
+      <c r="AL121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM111">
+      <c r="AM121">
         <f t="shared" si="2"/>
-        <v>3696</v>
-      </c>
-      <c r="AN111">
+        <v>3826</v>
+      </c>
+      <c r="AN121">
         <f t="shared" si="2"/>
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="114" spans="42:42">
-      <c r="AP114">
-        <f>SUM(AO2:AO108)</f>
-        <v>11845</v>
+    <row r="124" spans="1:42">
+      <c r="AP124">
+        <f>SUM(AO2:AO109)</f>
+        <v>12234</v>
       </c>
     </row>
   </sheetData>
@@ -14969,11 +16179,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN108"/>
+  <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG120" sqref="AG120"/>
+      <selection pane="bottomLeft" activeCell="AA113" sqref="AA113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28155,6 +29365,128 @@
       </c>
       <c r="AN108">
         <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:40">
+      <c r="A109" s="1">
+        <v>43988.651643518519</v>
+      </c>
+      <c r="B109">
+        <v>66</v>
+      </c>
+      <c r="C109">
+        <v>50</v>
+      </c>
+      <c r="D109">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>7</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>17</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>26</v>
+      </c>
+      <c r="J109">
+        <v>23</v>
+      </c>
+      <c r="K109">
+        <v>31</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109">
+        <v>2</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>2</v>
+      </c>
+      <c r="R109">
+        <v>32</v>
+      </c>
+      <c r="S109">
+        <v>24</v>
+      </c>
+      <c r="T109">
+        <v>8</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>12</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>17</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>12</v>
+      </c>
+      <c r="AE109">
+        <v>2</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>14</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>23</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>130</v>
+      </c>
+      <c r="AN109">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,31 @@
           <t xml:space="preserve">
 2020-05-20 15:25:39, On the 18th of May, 8 new cases in Zamfara were erroneously announced
 Therefore, as at the 20th of May 2020, Zamfara has recorded a total of 76 confirmed cases
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hedgar Ajakaiye:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2020-06-07 16:10:17, Yesterday, we erroneously reported 7 new cases in Jigawa. Following further review, we can confirm that these were repeat tests for previously confirmed cases
 </t>
         </r>
       </text>
@@ -373,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,6 +435,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,7 +460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -516,12 +548,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -565,6 +601,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -608,6 +645,7 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,9 +977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP124"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O115" sqref="O115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN110" sqref="A110:AN110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9386,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO109" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO110" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14615,7 +14653,7 @@
         <v>24</v>
       </c>
       <c r="T109">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U109">
         <v>0</v>
@@ -14679,58 +14717,60 @@
       </c>
       <c r="AO109">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:41">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>43989.659513888888</v>
+      </c>
       <c r="B110">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -14745,16 +14785,16 @@
         <v>0</v>
       </c>
       <c r="V110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="X110">
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z110">
         <v>0</v>
@@ -14766,10 +14806,10 @@
         <v>0</v>
       </c>
       <c r="AC110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD110">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE110">
         <v>0</v>
@@ -14778,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="AG110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH110">
         <v>0</v>
@@ -14796,10 +14836,14 @@
         <v>0</v>
       </c>
       <c r="AM110">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="AN110">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO110">
+        <f t="shared" si="1"/>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:41">
@@ -16004,19 +16048,19 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>5729</v>
+        <v>5767</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>912</v>
+        <v>952</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16024,19 +16068,19 @@
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
@@ -16044,7 +16088,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M121">
         <f t="shared" si="2"/>
@@ -16052,19 +16096,19 @@
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
@@ -16076,7 +16120,7 @@
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="U121">
         <f t="shared" si="2"/>
@@ -16084,11 +16128,11 @@
       </c>
       <c r="V121">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W121">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="X121">
         <f t="shared" si="2"/>
@@ -16096,7 +16140,7 @@
       </c>
       <c r="Y121">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z121">
         <f t="shared" si="2"/>
@@ -16112,11 +16156,11 @@
       </c>
       <c r="AC121">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
@@ -16128,7 +16172,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16152,17 +16196,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>3826</v>
+        <v>3959</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO109)</f>
-        <v>12234</v>
+        <f>SUM(AO2:AO110)</f>
+        <v>12487</v>
       </c>
     </row>
   </sheetData>
@@ -16179,11 +16223,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA113" sqref="AA113"/>
+      <selection pane="bottomLeft" activeCell="AA115" sqref="AA115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29426,7 +29470,7 @@
         <v>24</v>
       </c>
       <c r="T109">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U109">
         <v>0</v>
@@ -29487,6 +29531,128 @@
       </c>
       <c r="AN109">
         <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:40">
+      <c r="A110" s="2">
+        <v>43989.65902777778</v>
+      </c>
+      <c r="B110" s="3">
+        <v>38</v>
+      </c>
+      <c r="C110" s="3">
+        <v>40</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2</v>
+      </c>
+      <c r="E110" s="3">
+        <v>19</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>16</v>
+      </c>
+      <c r="H110" s="3">
+        <v>8</v>
+      </c>
+      <c r="I110" s="3">
+        <v>8</v>
+      </c>
+      <c r="J110" s="3">
+        <v>14</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
+      </c>
+      <c r="L110" s="3">
+        <v>8</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
+        <v>5</v>
+      </c>
+      <c r="O110" s="3">
+        <v>6</v>
+      </c>
+      <c r="P110" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>2</v>
+      </c>
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3">
+        <v>0</v>
+      </c>
+      <c r="T110" s="3">
+        <v>0</v>
+      </c>
+      <c r="U110" s="3">
+        <v>0</v>
+      </c>
+      <c r="V110" s="3">
+        <v>2</v>
+      </c>
+      <c r="W110" s="3">
+        <v>67</v>
+      </c>
+      <c r="X110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD110" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="3">
+        <v>8</v>
+      </c>
+      <c r="AH110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM110" s="3">
+        <v>133</v>
+      </c>
+      <c r="AN110" s="3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -557,7 +559,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -602,6 +604,7 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -646,6 +649,7 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,7 +983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN110" sqref="A110:AN110"/>
+      <selection pane="bottomLeft" activeCell="AN111" sqref="A111:AN111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9424,7 +9428,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO110" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO111" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14847,48 +14851,50 @@
       </c>
     </row>
     <row r="111" spans="1:41">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>43990.653969907406</v>
+      </c>
       <c r="B111">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -14897,10 +14903,10 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S111">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -14930,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="AC111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD111">
         <v>0</v>
@@ -14960,10 +14966,14 @@
         <v>0</v>
       </c>
       <c r="AM111">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AN111">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO111">
+        <f t="shared" si="1"/>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:41">
@@ -16048,19 +16058,19 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>5767</v>
+        <v>5895</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>952</v>
+        <v>986</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16068,11 +16078,11 @@
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
@@ -16080,15 +16090,15 @@
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M121">
         <f t="shared" si="2"/>
@@ -16096,11 +16106,11 @@
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
@@ -16112,11 +16122,11 @@
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
@@ -16156,7 +16166,7 @@
       </c>
       <c r="AC121">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
@@ -16196,17 +16206,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>3959</v>
+        <v>4040</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO110)</f>
-        <v>12487</v>
+        <f>SUM(AO2:AO111)</f>
+        <v>12802</v>
       </c>
     </row>
   </sheetData>
@@ -16223,11 +16233,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN110"/>
+  <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA115" sqref="AA115"/>
+      <selection pane="bottomLeft" activeCell="AF111" sqref="AF111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29653,6 +29663,128 @@
       </c>
       <c r="AN110" s="3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:40">
+      <c r="A111" s="1">
+        <v>43990.653969907406</v>
+      </c>
+      <c r="B111">
+        <v>128</v>
+      </c>
+      <c r="C111">
+        <v>34</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>13</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>28</v>
+      </c>
+      <c r="K111">
+        <v>22</v>
+      </c>
+      <c r="L111">
+        <v>7</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111">
+        <v>20</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>7</v>
+      </c>
+      <c r="S111">
+        <v>32</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>5</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>81</v>
+      </c>
+      <c r="AN111">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -559,7 +561,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -605,6 +607,7 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -650,6 +653,7 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,7 +987,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN111" sqref="A111:AN111"/>
+      <selection pane="bottomLeft" activeCell="AN112" sqref="A112:AN112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9428,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO111" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO112" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -14977,72 +14981,74 @@
       </c>
     </row>
     <row r="112" spans="1:41">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>43991.6565162037</v>
+      </c>
       <c r="B112">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R112">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S112">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T112">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U112">
         <v>0</v>
       </c>
       <c r="V112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X112">
         <v>0</v>
@@ -15054,25 +15060,25 @@
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB112">
         <v>0</v>
       </c>
       <c r="AC112">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF112">
         <v>0</v>
       </c>
       <c r="AG112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH112">
         <v>0</v>
@@ -15084,16 +15090,20 @@
         <v>0</v>
       </c>
       <c r="AK112">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AL112">
         <v>0</v>
       </c>
       <c r="AM112">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="AN112">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO112">
+        <f t="shared" si="1"/>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:42">
@@ -16058,47 +16068,47 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>5895</v>
+        <v>6065</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>986</v>
+        <v>1012</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M121">
         <f t="shared" si="2"/>
@@ -16106,31 +16116,31 @@
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="U121">
         <f t="shared" si="2"/>
@@ -16138,11 +16148,11 @@
       </c>
       <c r="V121">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W121">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="X121">
         <f t="shared" si="2"/>
@@ -16158,7 +16168,7 @@
       </c>
       <c r="AA121">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AB121">
         <f t="shared" si="2"/>
@@ -16166,15 +16176,15 @@
       </c>
       <c r="AC121">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AF121">
         <f t="shared" si="2"/>
@@ -16182,7 +16192,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16198,7 +16208,7 @@
       </c>
       <c r="AK121">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="AL121">
         <f t="shared" si="2"/>
@@ -16206,17 +16216,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>4040</v>
+        <v>4206</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO111)</f>
-        <v>12802</v>
+        <f>SUM(AO2:AO112)</f>
+        <v>13465</v>
       </c>
     </row>
   </sheetData>
@@ -16233,11 +16243,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF111" sqref="AF111"/>
+      <selection pane="bottomLeft" activeCell="Y114" sqref="Y114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29785,6 +29795,128 @@
       </c>
       <c r="AN111">
         <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:40">
+      <c r="A112" s="1">
+        <v>43991.6565162037</v>
+      </c>
+      <c r="B112">
+        <v>170</v>
+      </c>
+      <c r="C112">
+        <v>26</v>
+      </c>
+      <c r="D112">
+        <v>16</v>
+      </c>
+      <c r="E112">
+        <v>108</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>16</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>11</v>
+      </c>
+      <c r="J112">
+        <v>33</v>
+      </c>
+      <c r="K112">
+        <v>11</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>69</v>
+      </c>
+      <c r="O112">
+        <v>6</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="R112">
+        <v>20</v>
+      </c>
+      <c r="S112">
+        <v>30</v>
+      </c>
+      <c r="T112">
+        <v>26</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
+        <v>14</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>17</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>8</v>
+      </c>
+      <c r="AD112">
+        <v>15</v>
+      </c>
+      <c r="AE112">
+        <v>6</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>1</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>49</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>166</v>
+      </c>
+      <c r="AN112">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -561,7 +563,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -608,6 +610,7 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -654,6 +657,7 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,8 +990,8 @@
   <dimension ref="A1:AP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN112" sqref="A112:AN112"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN113" sqref="A113:AN113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9432,7 +9436,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO112" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO113" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -15107,18 +15111,20 @@
       </c>
     </row>
     <row r="113" spans="1:42">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>43992.661678240744</v>
+      </c>
       <c r="B113">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -15130,10 +15136,10 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -15145,28 +15151,28 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R113">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S113">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -15190,19 +15196,19 @@
         <v>0</v>
       </c>
       <c r="AC113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD113">
         <v>0</v>
       </c>
       <c r="AE113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF113">
         <v>0</v>
       </c>
       <c r="AG113">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH113">
         <v>0</v>
@@ -15211,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="AJ113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -15220,10 +15226,14 @@
         <v>0</v>
       </c>
       <c r="AM113">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AN113">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AO113">
+        <f t="shared" si="1"/>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:42">
@@ -16068,19 +16078,19 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>6065</v>
+        <v>6266</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>1012</v>
+        <v>1097</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16096,11 +16106,11 @@
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
@@ -16116,11 +16126,11 @@
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
@@ -16128,15 +16138,15 @@
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
@@ -16144,7 +16154,7 @@
       </c>
       <c r="U121">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V121">
         <f t="shared" si="2"/>
@@ -16176,7 +16186,7 @@
       </c>
       <c r="AC121">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
@@ -16184,7 +16194,7 @@
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF121">
         <f t="shared" si="2"/>
@@ -16192,7 +16202,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16204,7 +16214,7 @@
       </c>
       <c r="AJ121">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK121">
         <f t="shared" si="2"/>
@@ -16216,17 +16226,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>4206</v>
+        <v>4351</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO112)</f>
-        <v>13465</v>
+        <f>SUM(AO2:AO113)</f>
+        <v>13874</v>
       </c>
     </row>
   </sheetData>
@@ -16243,11 +16253,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y114" sqref="Y114"/>
+      <selection pane="bottomLeft" activeCell="AD118" sqref="AD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29917,6 +29927,128 @@
       </c>
       <c r="AN112">
         <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:40">
+      <c r="A113" s="1">
+        <v>43992.661678240744</v>
+      </c>
+      <c r="B113">
+        <v>201</v>
+      </c>
+      <c r="C113">
+        <v>85</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>14</v>
+      </c>
+      <c r="J113">
+        <v>16</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>10</v>
+      </c>
+      <c r="O113">
+        <v>14</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>22</v>
+      </c>
+      <c r="S113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>5</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>2</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>2</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>14</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>2</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>145</v>
+      </c>
+      <c r="AN113">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,7 +565,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -611,6 +613,7 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -658,6 +661,7 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -990,8 +994,8 @@
   <dimension ref="A1:AP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN113" sqref="A113:AN113"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN114" sqref="A114:AN114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9436,7 +9440,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO113" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO114" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -15237,36 +15241,38 @@
       </c>
     </row>
     <row r="114" spans="1:42">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>43993.65861111111</v>
+      </c>
       <c r="B114">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -15275,25 +15281,25 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S114">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="T114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U114">
         <v>0</v>
@@ -15314,7 +15320,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB114">
         <v>0</v>
@@ -15323,16 +15329,16 @@
         <v>0</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF114">
         <v>0</v>
       </c>
       <c r="AG114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH114">
         <v>0</v>
@@ -15350,10 +15356,14 @@
         <v>0</v>
       </c>
       <c r="AM114">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AN114">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO114">
+        <f t="shared" si="1"/>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="1:42">
@@ -16078,7 +16088,7 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>6266</v>
+        <v>6611</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
@@ -16086,11 +16096,11 @@
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16098,11 +16108,11 @@
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
@@ -16110,11 +16120,11 @@
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
@@ -16126,11 +16136,11 @@
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
@@ -16138,19 +16148,19 @@
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="U121">
         <f t="shared" si="2"/>
@@ -16178,7 +16188,7 @@
       </c>
       <c r="AA121">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AB121">
         <f t="shared" si="2"/>
@@ -16190,11 +16200,11 @@
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AF121">
         <f t="shared" si="2"/>
@@ -16202,7 +16212,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16226,17 +16236,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>4351</v>
+        <v>4494</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO113)</f>
-        <v>13874</v>
+        <f>SUM(AO2:AO114)</f>
+        <v>14555</v>
       </c>
     </row>
   </sheetData>
@@ -16253,11 +16263,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD118" sqref="AD118"/>
+      <selection pane="bottomLeft" activeCell="Y117" sqref="Y117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30049,6 +30059,128 @@
       </c>
       <c r="AN113">
         <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40">
+      <c r="A114" s="1">
+        <v>43993.65861111111</v>
+      </c>
+      <c r="B114">
+        <v>345</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>23</v>
+      </c>
+      <c r="E114">
+        <v>48</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>47</v>
+      </c>
+      <c r="H114">
+        <v>12</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>12</v>
+      </c>
+      <c r="K114">
+        <v>36</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>18</v>
+      </c>
+      <c r="O114">
+        <v>9</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="R114">
+        <v>28</v>
+      </c>
+      <c r="S114">
+        <v>51</v>
+      </c>
+      <c r="T114">
+        <v>5</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>7</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>31</v>
+      </c>
+      <c r="AE114">
+        <v>4</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>1</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>143</v>
+      </c>
+      <c r="AN114">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -565,7 +567,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -614,6 +616,7 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -662,6 +665,7 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,8 +998,8 @@
   <dimension ref="A1:AP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN114" sqref="A114:AN114"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN115" sqref="A115:AN115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9440,7 +9444,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO114" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO115" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -15367,81 +15371,83 @@
       </c>
     </row>
     <row r="115" spans="1:42">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>43994.655590277776</v>
+      </c>
       <c r="B115">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S115">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T115">
         <v>0</v>
       </c>
       <c r="U115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="X115">
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -15450,25 +15456,25 @@
         <v>0</v>
       </c>
       <c r="AC115">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD115">
         <v>0</v>
       </c>
       <c r="AE115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF115">
         <v>0</v>
       </c>
       <c r="AG115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH115">
         <v>0</v>
       </c>
       <c r="AI115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ115">
         <v>0</v>
@@ -15480,10 +15486,14 @@
         <v>0</v>
       </c>
       <c r="AM115">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="AN115">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO115">
+        <f t="shared" si="1"/>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:42">
@@ -16088,19 +16098,19 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>6611</v>
+        <v>6840</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>1097</v>
+        <v>1162</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16108,7 +16118,7 @@
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
@@ -16116,19 +16126,19 @@
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M121">
         <f t="shared" si="2"/>
@@ -16136,11 +16146,11 @@
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
@@ -16148,15 +16158,15 @@
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
@@ -16164,15 +16174,15 @@
       </c>
       <c r="U121">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="V121">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="W121">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="X121">
         <f t="shared" si="2"/>
@@ -16180,11 +16190,11 @@
       </c>
       <c r="Y121">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Z121">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AA121">
         <f t="shared" si="2"/>
@@ -16196,7 +16206,7 @@
       </c>
       <c r="AC121">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
@@ -16204,7 +16214,7 @@
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AF121">
         <f t="shared" si="2"/>
@@ -16212,7 +16222,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16220,7 +16230,7 @@
       </c>
       <c r="AI121">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ121">
         <f t="shared" si="2"/>
@@ -16236,17 +16246,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>4494</v>
+        <v>4891</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO114)</f>
-        <v>14555</v>
+        <f>SUM(AO2:AO115)</f>
+        <v>15182</v>
       </c>
     </row>
   </sheetData>
@@ -16263,11 +16273,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y117" sqref="Y117"/>
+      <selection pane="bottomLeft" activeCell="AE117" sqref="AE117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30181,6 +30191,128 @@
       </c>
       <c r="AN114">
         <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40">
+      <c r="A115" s="1">
+        <v>43994.655590277776</v>
+      </c>
+      <c r="B115">
+        <v>229</v>
+      </c>
+      <c r="C115">
+        <v>65</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>21</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>27</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>42</v>
+      </c>
+      <c r="J115">
+        <v>28</v>
+      </c>
+      <c r="K115">
+        <v>35</v>
+      </c>
+      <c r="L115">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>10</v>
+      </c>
+      <c r="O115">
+        <v>10</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>8</v>
+      </c>
+      <c r="R115">
+        <v>18</v>
+      </c>
+      <c r="S115">
+        <v>28</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>4</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115">
+        <v>54</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>3</v>
+      </c>
+      <c r="Z115">
+        <v>9</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>18</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>3</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>4</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>1</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>397</v>
+      </c>
+      <c r="AN115">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,7 +569,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -617,6 +619,7 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -666,6 +669,7 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -997,9 +1001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN115" sqref="A115:AN115"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN116" sqref="A116:AN116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9444,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO115" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO116" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -15497,66 +15501,68 @@
       </c>
     </row>
     <row r="116" spans="1:42">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>43995.654722222222</v>
+      </c>
       <c r="B116">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S116">
         <v>0</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -15571,10 +15577,10 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB116">
         <v>0</v>
@@ -15583,37 +15589,41 @@
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF116">
         <v>0</v>
       </c>
       <c r="AG116">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH116">
         <v>0</v>
       </c>
       <c r="AI116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ116">
         <v>0</v>
       </c>
       <c r="AK116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL116">
         <v>0</v>
       </c>
       <c r="AM116">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN116">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO116">
+        <f t="shared" si="1"/>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="1:42">
@@ -16098,19 +16108,19 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>6840</v>
+        <v>7035</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>1162</v>
+        <v>1212</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>1049</v>
+        <v>1091</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16118,39 +16128,39 @@
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M121">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
@@ -16158,11 +16168,11 @@
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
@@ -16170,11 +16180,11 @@
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U121">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="V121">
         <f t="shared" si="2"/>
@@ -16194,11 +16204,11 @@
       </c>
       <c r="Z121">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AA121">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AB121">
         <f t="shared" si="2"/>
@@ -16210,11 +16220,11 @@
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AF121">
         <f t="shared" si="2"/>
@@ -16222,7 +16232,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16230,7 +16240,7 @@
       </c>
       <c r="AI121">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AJ121">
         <f t="shared" si="2"/>
@@ -16238,7 +16248,7 @@
       </c>
       <c r="AK121">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AL121">
         <f t="shared" si="2"/>
@@ -16246,17 +16256,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>4891</v>
+        <v>5101</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO115)</f>
-        <v>15182</v>
+        <f>SUM(AO2:AO116)</f>
+        <v>15683</v>
       </c>
     </row>
   </sheetData>
@@ -16273,11 +16283,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN115"/>
+  <dimension ref="A1:AN116"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE117" sqref="AE117"/>
+      <selection pane="bottomLeft" activeCell="Z117" sqref="Z117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30313,6 +30323,128 @@
       </c>
       <c r="AN115">
         <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40">
+      <c r="A116" s="1">
+        <v>43995.654722222222</v>
+      </c>
+      <c r="B116">
+        <v>195</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>42</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>17</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>26</v>
+      </c>
+      <c r="K116">
+        <v>22</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>8</v>
+      </c>
+      <c r="O116">
+        <v>27</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>11</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
+        <v>12</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>12</v>
+      </c>
+      <c r="AA116">
+        <v>11</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>21</v>
+      </c>
+      <c r="AE116">
+        <v>4</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>9</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>2</v>
+      </c>
+      <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>10</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>210</v>
+      </c>
+      <c r="AN116">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -569,7 +571,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -620,6 +622,7 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -670,6 +673,7 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1001,9 +1005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN116" sqref="A116:AN116"/>
+      <selection pane="bottomLeft" activeCell="AN117" sqref="A117:AN117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9448,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO116" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO117" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -15627,36 +15631,38 @@
       </c>
     </row>
     <row r="117" spans="1:42">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>43996.655335648145</v>
+      </c>
       <c r="B117">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -15668,31 +15674,31 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V117">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W117">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X117">
         <v>0</v>
@@ -15704,25 +15710,25 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB117">
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF117">
         <v>0</v>
       </c>
       <c r="AG117">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH117">
         <v>0</v>
@@ -15740,10 +15746,14 @@
         <v>0</v>
       </c>
       <c r="AM117">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AN117">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AO117">
+        <f t="shared" si="1"/>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:42">
@@ -16108,19 +16118,19 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>7035</v>
+        <v>7103</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>1212</v>
+        <v>1247</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>1091</v>
+        <v>1137</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16128,7 +16138,7 @@
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
@@ -16136,15 +16146,15 @@
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
@@ -16160,7 +16170,7 @@
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="P121">
         <f t="shared" si="2"/>
@@ -16168,15 +16178,15 @@
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
@@ -16184,15 +16194,15 @@
       </c>
       <c r="U121">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V121">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="W121">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X121">
         <f t="shared" si="2"/>
@@ -16208,7 +16218,7 @@
       </c>
       <c r="AA121">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB121">
         <f t="shared" si="2"/>
@@ -16216,15 +16226,15 @@
       </c>
       <c r="AC121">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AF121">
         <f t="shared" si="2"/>
@@ -16232,7 +16242,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16256,17 +16266,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>5101</v>
+        <v>5220</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO116)</f>
-        <v>15683</v>
+        <f>SUM(AO2:AO117)</f>
+        <v>16086</v>
       </c>
     </row>
   </sheetData>
@@ -16283,11 +16293,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN116"/>
+  <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z117" sqref="Z117"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ118" sqref="AJ118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30445,6 +30455,128 @@
       </c>
       <c r="AN116">
         <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40">
+      <c r="A117" s="1">
+        <v>43996.655335648145</v>
+      </c>
+      <c r="B117">
+        <v>68</v>
+      </c>
+      <c r="C117">
+        <v>35</v>
+      </c>
+      <c r="D117">
+        <v>46</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>73</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>13</v>
+      </c>
+      <c r="J117">
+        <v>36</v>
+      </c>
+      <c r="K117">
+        <v>16</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>17</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>13</v>
+      </c>
+      <c r="S117">
+        <v>7</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>6</v>
+      </c>
+      <c r="V117">
+        <v>7</v>
+      </c>
+      <c r="W117">
+        <v>15</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>8</v>
+      </c>
+      <c r="AD117">
+        <v>1</v>
+      </c>
+      <c r="AE117">
+        <v>3</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>31</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>119</v>
+      </c>
+      <c r="AN117">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,7 +573,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -623,6 +625,7 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -674,6 +677,7 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1006,8 +1010,8 @@
   <dimension ref="A1:AP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN117" sqref="A117:AN117"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN118" sqref="A118:AN118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9452,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO117" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO118" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -15757,45 +15761,47 @@
       </c>
     </row>
     <row r="118" spans="1:42">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>43997.66034722222</v>
+      </c>
       <c r="B118">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
         <v>0</v>
       </c>
       <c r="N118">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O118">
         <v>0</v>
@@ -15804,13 +15810,13 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -15819,10 +15825,10 @@
         <v>0</v>
       </c>
       <c r="V118">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -15831,28 +15837,28 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB118">
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD118">
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF118">
         <v>0</v>
       </c>
       <c r="AG118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH118">
         <v>0</v>
@@ -15870,10 +15876,14 @@
         <v>0</v>
       </c>
       <c r="AM118">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="AN118">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO118">
+        <f t="shared" si="1"/>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:42">
@@ -16118,19 +16128,19 @@
     <row r="121" spans="1:42">
       <c r="B121">
         <f>SUM(B2:B120)</f>
-        <v>7103</v>
+        <v>7319</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>1247</v>
+        <v>1264</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>1137</v>
+        <v>1158</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
@@ -16138,7 +16148,7 @@
       </c>
       <c r="G121">
         <f t="shared" si="2"/>
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
@@ -16146,19 +16156,19 @@
       </c>
       <c r="I121">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J121">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M121">
         <f t="shared" si="2"/>
@@ -16166,7 +16176,7 @@
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="O121">
         <f t="shared" si="2"/>
@@ -16178,15 +16188,15 @@
       </c>
       <c r="Q121">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="R121">
         <f t="shared" si="2"/>
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="S121">
         <f t="shared" si="2"/>
-        <v>489</v>
+        <v>592</v>
       </c>
       <c r="T121">
         <f t="shared" si="2"/>
@@ -16198,11 +16208,11 @@
       </c>
       <c r="V121">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="W121">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="X121">
         <f t="shared" si="2"/>
@@ -16214,11 +16224,11 @@
       </c>
       <c r="Z121">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA121">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB121">
         <f t="shared" si="2"/>
@@ -16226,7 +16236,7 @@
       </c>
       <c r="AC121">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AD121">
         <f t="shared" si="2"/>
@@ -16234,7 +16244,7 @@
       </c>
       <c r="AE121">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AF121">
         <f t="shared" si="2"/>
@@ -16242,7 +16252,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AH121">
         <f t="shared" si="2"/>
@@ -16266,17 +16276,17 @@
       </c>
       <c r="AM121">
         <f t="shared" si="2"/>
-        <v>5220</v>
+        <v>5349</v>
       </c>
       <c r="AN121">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:42">
       <c r="AP124">
-        <f>SUM(AO2:AO117)</f>
-        <v>16086</v>
+        <f>SUM(AO2:AO118)</f>
+        <v>16659</v>
       </c>
     </row>
   </sheetData>
@@ -16293,11 +16303,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN117"/>
+  <dimension ref="A1:AN118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ118" sqref="AJ118"/>
+      <selection pane="bottomLeft" activeCell="AE120" sqref="AE120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30577,6 +30587,128 @@
       </c>
       <c r="AN117">
         <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:40">
+      <c r="A118" s="1">
+        <v>43997.66034722222</v>
+      </c>
+      <c r="B118">
+        <v>216</v>
+      </c>
+      <c r="C118">
+        <v>17</v>
+      </c>
+      <c r="D118">
+        <v>21</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>20</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>40</v>
+      </c>
+      <c r="K118">
+        <v>68</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>12</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>8</v>
+      </c>
+      <c r="R118">
+        <v>13</v>
+      </c>
+      <c r="S118">
+        <v>103</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>10</v>
+      </c>
+      <c r="W118">
+        <v>7</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>1</v>
+      </c>
+      <c r="AA118">
+        <v>1</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>12</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>9</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>5</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>129</v>
+      </c>
+      <c r="AN118">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -573,7 +575,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -626,6 +628,7 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -678,6 +681,7 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,11 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP124"/>
+  <dimension ref="A1:AP134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN118" sqref="A118:AN118"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK136" sqref="AK136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9456,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO118" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO119" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -15130,7 +15134,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="113" spans="1:42">
+    <row r="113" spans="1:41">
       <c r="A113" s="1">
         <v>43992.661678240744</v>
       </c>
@@ -15256,7 +15260,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:42">
+    <row r="114" spans="1:41">
       <c r="A114" s="1">
         <v>43993.65861111111</v>
       </c>
@@ -15382,7 +15386,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="115" spans="1:42">
+    <row r="115" spans="1:41">
       <c r="A115" s="1">
         <v>43994.655590277776</v>
       </c>
@@ -15508,7 +15512,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="116" spans="1:42">
+    <row r="116" spans="1:41">
       <c r="A116" s="1">
         <v>43995.654722222222</v>
       </c>
@@ -15634,7 +15638,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="1:42">
+    <row r="117" spans="1:41">
       <c r="A117" s="1">
         <v>43996.655335648145</v>
       </c>
@@ -15760,7 +15764,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="118" spans="1:42">
+    <row r="118" spans="1:41">
       <c r="A118" s="1">
         <v>43997.66034722222</v>
       </c>
@@ -15886,67 +15890,69 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:42">
-      <c r="A119" s="1"/>
+    <row r="119" spans="1:41">
+      <c r="A119" s="1">
+        <v>43998.66715277778</v>
+      </c>
       <c r="B119">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M119">
         <v>0</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="T119">
         <v>0</v>
       </c>
       <c r="U119">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -15961,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>0</v>
@@ -15973,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -15991,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="AJ119">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AK119">
         <v>0</v>
@@ -16000,13 +16006,18 @@
         <v>0</v>
       </c>
       <c r="AM119">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="AN119">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AO119">
+        <f t="shared" si="1"/>
+        <v>490</v>
       </c>
     </row>
-    <row r="120" spans="1:42">
+    <row r="120" spans="1:41">
+      <c r="A120" s="1"/>
       <c r="B120">
         <v>0</v>
       </c>
@@ -16125,168 +16136,1367 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:42">
+    <row r="121" spans="1:41">
+      <c r="A121" s="1"/>
       <c r="B121">
-        <f>SUM(B2:B120)</f>
-        <v>7319</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:AN121" si="2">SUM(C2:C120)</f>
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:41">
+      <c r="A122" s="1"/>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:41">
+      <c r="A123" s="1"/>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:41">
+      <c r="A124" s="1"/>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:41">
+      <c r="A125" s="1"/>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:41">
+      <c r="A126" s="1"/>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:41">
+      <c r="A127" s="1"/>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:41">
+      <c r="A128" s="1"/>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:42">
+      <c r="A129" s="1"/>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:42">
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
+        <v>0</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:42">
+      <c r="B131">
+        <f>SUM(B2:B130)</f>
+        <v>7461</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
+        <v>1324</v>
+      </c>
+      <c r="D131">
         <f t="shared" si="2"/>
         <v>1158</v>
       </c>
-      <c r="E121">
+      <c r="E131">
         <f t="shared" si="2"/>
-        <v>567</v>
-      </c>
-      <c r="F121">
+        <v>574</v>
+      </c>
+      <c r="F131">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G121">
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="2"/>
+        <v>605</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N131">
         <f t="shared" si="2"/>
         <v>430</v>
       </c>
-      <c r="H121">
+      <c r="O131">
         <f t="shared" si="2"/>
-        <v>414</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="2"/>
-        <v>439</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="2"/>
-        <v>620</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="2"/>
-        <v>575</v>
-      </c>
-      <c r="L121">
-        <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
-      <c r="M121">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="2"/>
-        <v>422</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="2"/>
-        <v>446</v>
-      </c>
-      <c r="P121">
+        <v>472</v>
+      </c>
+      <c r="P131">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q121">
+      <c r="Q131">
         <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="R121">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="S121">
-        <f t="shared" si="2"/>
-        <v>592</v>
-      </c>
-      <c r="T121">
+        <v>82</v>
+      </c>
+      <c r="R131">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="U121">
+      <c r="S131">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="V121">
+        <v>631</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V131">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="W121">
+      <c r="W131">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="X121">
+      <c r="X131">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="Y121">
+      <c r="Y131">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="Z121">
+      <c r="Z131">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="AA121">
+        <v>36</v>
+      </c>
+      <c r="AA131">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="AB121">
+      <c r="AB131">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="AC121">
+      <c r="AC131">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="AD121">
+      <c r="AD131">
         <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="AE121">
+        <v>159</v>
+      </c>
+      <c r="AE131">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="AF121">
+      <c r="AF131">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG121">
+      <c r="AG131">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="AH121">
+      <c r="AH131">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AI121">
+      <c r="AI131">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="AJ121">
+      <c r="AJ131">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AK121">
+        <v>86</v>
+      </c>
+      <c r="AK131">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="AL121">
+      <c r="AL131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM121">
+      <c r="AM131">
         <f t="shared" si="2"/>
-        <v>5349</v>
-      </c>
-      <c r="AN121">
+        <v>5623</v>
+      </c>
+      <c r="AN131">
         <f t="shared" si="2"/>
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:42">
-      <c r="AP124">
-        <f>SUM(AO2:AO118)</f>
-        <v>16659</v>
+    <row r="134" spans="1:42">
+      <c r="AP134">
+        <f>SUM(AO2:AO119)</f>
+        <v>17149</v>
       </c>
     </row>
   </sheetData>
@@ -16303,11 +17513,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN118"/>
+  <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE120" sqref="AE120"/>
+      <selection pane="bottomLeft" activeCell="AA121" sqref="AA121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30709,6 +31919,128 @@
       </c>
       <c r="AN118">
         <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40">
+      <c r="A119" s="1">
+        <v>43998.66715277778</v>
+      </c>
+      <c r="B119">
+        <v>142</v>
+      </c>
+      <c r="C119">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>7</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>11</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>6</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>30</v>
+      </c>
+      <c r="L119">
+        <v>17</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>8</v>
+      </c>
+      <c r="O119">
+        <v>26</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>10</v>
+      </c>
+      <c r="R119">
+        <v>37</v>
+      </c>
+      <c r="S119">
+        <v>39</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>19</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>23</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>54</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>274</v>
+      </c>
+      <c r="AN119">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -575,7 +577,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -629,6 +631,7 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -682,6 +685,7 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,9 +1017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK136" sqref="AK136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN120" sqref="A120:AN120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9460,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO119" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO120" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -16017,39 +16021,41 @@
       </c>
     </row>
     <row r="120" spans="1:41">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>43999.637974537036</v>
+      </c>
       <c r="B120">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -16058,25 +16064,25 @@
         <v>0</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S120">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="T120">
         <v>0</v>
       </c>
       <c r="U120">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -16088,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z120">
         <v>0</v>
@@ -16100,13 +16106,13 @@
         <v>0</v>
       </c>
       <c r="AC120">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD120">
         <v>0</v>
       </c>
       <c r="AE120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -16121,7 +16127,7 @@
         <v>0</v>
       </c>
       <c r="AJ120">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK120">
         <v>0</v>
@@ -16130,10 +16136,14 @@
         <v>0</v>
       </c>
       <c r="AM120">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="AN120">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AO120">
+        <f t="shared" si="1"/>
+        <v>587</v>
       </c>
     </row>
     <row r="121" spans="1:41">
@@ -17338,19 +17348,19 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>7461</v>
+        <v>7616</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1324</v>
+        <v>1391</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
@@ -17358,7 +17368,7 @@
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
@@ -17366,19 +17376,19 @@
       </c>
       <c r="I131">
         <f t="shared" si="2"/>
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>605</v>
+        <v>661</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M131">
         <f t="shared" si="2"/>
@@ -17390,7 +17400,7 @@
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
@@ -17398,15 +17408,15 @@
       </c>
       <c r="Q131">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="R131">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
-        <v>631</v>
+        <v>696</v>
       </c>
       <c r="T131">
         <f t="shared" si="2"/>
@@ -17414,7 +17424,7 @@
       </c>
       <c r="U131">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="V131">
         <f t="shared" si="2"/>
@@ -17430,7 +17440,7 @@
       </c>
       <c r="Y131">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z131">
         <f t="shared" si="2"/>
@@ -17446,7 +17456,7 @@
       </c>
       <c r="AC131">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
@@ -17454,7 +17464,7 @@
       </c>
       <c r="AE131">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF131">
         <f t="shared" si="2"/>
@@ -17474,7 +17484,7 @@
       </c>
       <c r="AJ131">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="AK131">
         <f t="shared" si="2"/>
@@ -17486,17 +17496,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>5623</v>
+        <v>5967</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO119)</f>
-        <v>17149</v>
+        <f>SUM(AO2:AO120)</f>
+        <v>17736</v>
       </c>
     </row>
   </sheetData>
@@ -17513,11 +17523,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN119"/>
+  <dimension ref="A1:AN120"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA121" sqref="AA121"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32041,6 +32051,128 @@
       </c>
       <c r="AN119">
         <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40">
+      <c r="A120" s="1">
+        <v>43999.637974537036</v>
+      </c>
+      <c r="B120">
+        <v>155</v>
+      </c>
+      <c r="C120">
+        <v>67</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>12</v>
+      </c>
+      <c r="J120">
+        <v>75</v>
+      </c>
+      <c r="K120">
+        <v>56</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>18</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>7</v>
+      </c>
+      <c r="R120">
+        <v>50</v>
+      </c>
+      <c r="S120">
+        <v>65</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>17</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>18</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>1</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>25</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>344</v>
+      </c>
+      <c r="AN120">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -577,7 +579,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -632,6 +634,7 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -686,6 +689,7 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1018,8 +1022,8 @@
   <dimension ref="A1:AP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN120" sqref="A120:AN120"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9464,7 +9468,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO120" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO121" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -16147,66 +16151,68 @@
       </c>
     </row>
     <row r="121" spans="1:41">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>44000.655023148145</v>
+      </c>
       <c r="B121">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S121">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T121">
         <v>0</v>
       </c>
       <c r="U121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -16218,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z121">
         <v>0</v>
@@ -16233,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="AD121">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AE121">
         <v>0</v>
@@ -16242,28 +16248,32 @@
         <v>0</v>
       </c>
       <c r="AG121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH121">
         <v>0</v>
       </c>
       <c r="AI121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ121">
         <v>0</v>
       </c>
       <c r="AK121">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AL121">
         <v>0</v>
       </c>
       <c r="AM121">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AN121">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO121">
+        <f t="shared" si="1"/>
+        <v>745</v>
       </c>
     </row>
     <row r="122" spans="1:41">
@@ -17348,15 +17358,15 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>7616</v>
+        <v>7896</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1391</v>
+        <v>1451</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
@@ -17364,31 +17374,31 @@
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="I131">
         <f t="shared" si="2"/>
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>661</v>
+        <v>764</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M131">
         <f t="shared" si="2"/>
@@ -17396,11 +17406,11 @@
       </c>
       <c r="N131">
         <f t="shared" si="2"/>
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
@@ -17408,15 +17418,15 @@
       </c>
       <c r="Q131">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="R131">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="T131">
         <f t="shared" si="2"/>
@@ -17424,7 +17434,7 @@
       </c>
       <c r="U131">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V131">
         <f t="shared" si="2"/>
@@ -17440,7 +17450,7 @@
       </c>
       <c r="Y131">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Z131">
         <f t="shared" si="2"/>
@@ -17460,7 +17470,7 @@
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AE131">
         <f t="shared" si="2"/>
@@ -17472,7 +17482,7 @@
       </c>
       <c r="AG131">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AH131">
         <f t="shared" si="2"/>
@@ -17480,7 +17490,7 @@
       </c>
       <c r="AI131">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ131">
         <f t="shared" si="2"/>
@@ -17488,7 +17498,7 @@
       </c>
       <c r="AK131">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="AL131">
         <f t="shared" si="2"/>
@@ -17496,17 +17506,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>5967</v>
+        <v>6307</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO120)</f>
-        <v>17736</v>
+        <f>SUM(AO2:AO121)</f>
+        <v>18481</v>
       </c>
     </row>
   </sheetData>
@@ -17523,11 +17533,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN120"/>
+  <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y127" sqref="Y127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32173,6 +32183,128 @@
       </c>
       <c r="AN120">
         <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40">
+      <c r="A121" s="1">
+        <v>44000.655023148145</v>
+      </c>
+      <c r="B121">
+        <v>280</v>
+      </c>
+      <c r="C121">
+        <v>60</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+      <c r="H121">
+        <v>12</v>
+      </c>
+      <c r="I121">
+        <v>7</v>
+      </c>
+      <c r="J121">
+        <v>34</v>
+      </c>
+      <c r="K121">
+        <v>103</v>
+      </c>
+      <c r="L121">
+        <v>5</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>8</v>
+      </c>
+      <c r="O121">
+        <v>23</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>16</v>
+      </c>
+      <c r="R121">
+        <v>33</v>
+      </c>
+      <c r="S121">
+        <v>25</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>2</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>46</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>1</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>1</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>72</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>340</v>
+      </c>
+      <c r="AN121">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -579,7 +581,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -635,6 +637,7 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -690,6 +693,7 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1021,9 +1025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y66" sqref="Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8511,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -8587,7 +8591,7 @@
       </c>
       <c r="AO60">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -9468,7 +9472,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO121" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO122" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -10452,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="AG75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH75">
         <v>0</v>
@@ -10477,7 +10481,7 @@
       </c>
       <c r="AO75">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:41">
@@ -16277,72 +16281,74 @@
       </c>
     </row>
     <row r="122" spans="1:41">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>44001.628831018519</v>
+      </c>
       <c r="B122">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S122">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T122">
         <v>0</v>
       </c>
       <c r="U122">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V122">
         <v>0</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="X122">
         <v>0</v>
@@ -16351,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA122">
         <v>0</v>
@@ -16360,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="AC122">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD122">
         <v>0</v>
@@ -16372,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="AG122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH122">
         <v>0</v>
@@ -16381,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="AJ122">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -16390,10 +16396,14 @@
         <v>0</v>
       </c>
       <c r="AM122">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="AN122">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO122">
+        <f t="shared" si="1"/>
+        <v>667</v>
       </c>
     </row>
     <row r="123" spans="1:41">
@@ -17358,27 +17368,27 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>7896</v>
+        <v>8177</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1451</v>
+        <v>1489</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
@@ -17386,47 +17396,47 @@
       </c>
       <c r="I131">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>764</v>
+        <v>809</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M131">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N131">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q131">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="R131">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="T131">
         <f t="shared" si="2"/>
@@ -17434,7 +17444,7 @@
       </c>
       <c r="U131">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="V131">
         <f t="shared" si="2"/>
@@ -17442,7 +17452,7 @@
       </c>
       <c r="W131">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="X131">
         <f t="shared" si="2"/>
@@ -17454,7 +17464,7 @@
       </c>
       <c r="Z131">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AA131">
         <f t="shared" si="2"/>
@@ -17466,7 +17476,7 @@
       </c>
       <c r="AC131">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
@@ -17482,7 +17492,7 @@
       </c>
       <c r="AG131">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AH131">
         <f t="shared" si="2"/>
@@ -17494,7 +17504,7 @@
       </c>
       <c r="AJ131">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AK131">
         <f t="shared" si="2"/>
@@ -17506,17 +17516,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>6307</v>
+        <v>6581</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO121)</f>
-        <v>18481</v>
+        <f>SUM(AO2:AO122)</f>
+        <v>19148</v>
       </c>
     </row>
   </sheetData>
@@ -17533,11 +17543,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN121"/>
+  <dimension ref="A1:AN122"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y127" sqref="Y127"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG75" sqref="AG75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24790,7 +24800,7 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -26671,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="AG75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH75">
         <v>0</v>
@@ -32305,6 +32315,128 @@
       </c>
       <c r="AN121">
         <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40">
+      <c r="A122" s="1">
+        <v>44001.628831018519</v>
+      </c>
+      <c r="B122">
+        <v>281</v>
+      </c>
+      <c r="C122">
+        <v>38</v>
+      </c>
+      <c r="D122">
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>37</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>19</v>
+      </c>
+      <c r="K122">
+        <v>45</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>17</v>
+      </c>
+      <c r="N122">
+        <v>9</v>
+      </c>
+      <c r="O122">
+        <v>14</v>
+      </c>
+      <c r="P122">
+        <v>2</v>
+      </c>
+      <c r="Q122">
+        <v>23</v>
+      </c>
+      <c r="R122">
+        <v>18</v>
+      </c>
+      <c r="S122">
+        <v>18</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>31</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>48</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>3</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>21</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>3</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>17</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>274</v>
+      </c>
+      <c r="AN122">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -581,7 +583,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -638,6 +640,7 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -694,6 +697,7 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1025,9 +1029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP134"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y66" sqref="Y66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN123" sqref="A123:AN123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9472,7 +9476,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO122" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO123" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -16407,15 +16411,17 @@
       </c>
     </row>
     <row r="123" spans="1:41">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>44002.645497685182</v>
+      </c>
       <c r="B123">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -16430,13 +16436,13 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -16448,19 +16454,19 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R123">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -16490,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="AC123">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD123">
         <v>0</v>
@@ -16502,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="AG123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH123">
         <v>0</v>
@@ -16511,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="AJ123">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK123">
         <v>0</v>
@@ -16520,10 +16526,14 @@
         <v>0</v>
       </c>
       <c r="AM123">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AN123">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="AO123">
+        <f t="shared" si="1"/>
+        <v>661</v>
       </c>
     </row>
     <row r="124" spans="1:41">
@@ -17368,15 +17378,15 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>8177</v>
+        <v>8407</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1489</v>
+        <v>1549</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
@@ -17396,15 +17406,15 @@
       </c>
       <c r="I131">
         <f t="shared" si="2"/>
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>809</v>
+        <v>860</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
@@ -17420,23 +17430,23 @@
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q131">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="R131">
         <f t="shared" si="2"/>
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
-        <v>739</v>
+        <v>866</v>
       </c>
       <c r="T131">
         <f t="shared" si="2"/>
@@ -17476,7 +17486,7 @@
       </c>
       <c r="AC131">
         <f t="shared" si="2"/>
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
@@ -17492,7 +17502,7 @@
       </c>
       <c r="AG131">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AH131">
         <f t="shared" si="2"/>
@@ -17504,7 +17514,7 @@
       </c>
       <c r="AJ131">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AK131">
         <f t="shared" si="2"/>
@@ -17516,17 +17526,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>6581</v>
+        <v>6718</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO122)</f>
-        <v>19148</v>
+        <f>SUM(AO2:AO123)</f>
+        <v>19809</v>
       </c>
     </row>
   </sheetData>
@@ -17543,11 +17553,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN122"/>
+  <dimension ref="A1:AN123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG75" sqref="AG75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA127" sqref="AA127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32437,6 +32447,128 @@
       </c>
       <c r="AN122">
         <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40">
+      <c r="A123" s="1">
+        <v>44002.645497685182</v>
+      </c>
+      <c r="B123">
+        <v>230</v>
+      </c>
+      <c r="C123">
+        <v>60</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>31</v>
+      </c>
+      <c r="K123">
+        <v>51</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>25</v>
+      </c>
+      <c r="P123">
+        <v>2</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>83</v>
+      </c>
+      <c r="S123">
+        <v>127</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>13</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>3</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>27</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>137</v>
+      </c>
+      <c r="AN123">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -583,7 +585,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -641,6 +643,7 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -698,6 +701,7 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1029,9 +1033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN123" sqref="A123:AN123"/>
+      <selection pane="bottomLeft" activeCell="AN124" sqref="A124:AN124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9476,7 +9480,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO123" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO124" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -16537,21 +16541,23 @@
       </c>
     </row>
     <row r="124" spans="1:41">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>44003.648101851853</v>
+      </c>
       <c r="B124">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -16560,13 +16566,13 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -16575,13 +16581,13 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="P124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -16590,19 +16596,19 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T124">
         <v>0</v>
       </c>
       <c r="U124">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V124">
         <v>0</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X124">
         <v>0</v>
@@ -16611,19 +16617,19 @@
         <v>0</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA124">
         <v>0</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC124">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD124">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE124">
         <v>0</v>
@@ -16641,7 +16647,7 @@
         <v>0</v>
       </c>
       <c r="AJ124">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK124">
         <v>0</v>
@@ -16650,10 +16656,14 @@
         <v>0</v>
       </c>
       <c r="AM124">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AN124">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO124">
+        <f t="shared" si="1"/>
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:41">
@@ -17378,23 +17388,23 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>8407</v>
+        <v>8576</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1549</v>
+        <v>1567</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
@@ -17406,15 +17416,15 @@
       </c>
       <c r="I131">
         <f t="shared" si="2"/>
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>860</v>
+        <v>912</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
@@ -17426,15 +17436,15 @@
       </c>
       <c r="N131">
         <f t="shared" si="2"/>
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q131">
         <f t="shared" si="2"/>
@@ -17446,7 +17456,7 @@
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="T131">
         <f t="shared" si="2"/>
@@ -17454,7 +17464,7 @@
       </c>
       <c r="U131">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="V131">
         <f t="shared" si="2"/>
@@ -17462,7 +17472,7 @@
       </c>
       <c r="W131">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="X131">
         <f t="shared" si="2"/>
@@ -17474,7 +17484,7 @@
       </c>
       <c r="Z131">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AA131">
         <f t="shared" si="2"/>
@@ -17482,15 +17492,15 @@
       </c>
       <c r="AB131">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AC131">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="AE131">
         <f t="shared" si="2"/>
@@ -17514,7 +17524,7 @@
       </c>
       <c r="AJ131">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AK131">
         <f t="shared" si="2"/>
@@ -17526,17 +17536,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>6718</v>
+        <v>6879</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO123)</f>
-        <v>19809</v>
+        <f>SUM(AO2:AO124)</f>
+        <v>20245</v>
       </c>
     </row>
   </sheetData>
@@ -17553,11 +17563,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN123"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA127" sqref="AA127"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y129" sqref="Y129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32569,6 +32579,128 @@
       </c>
       <c r="AN123">
         <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40">
+      <c r="A124" s="1">
+        <v>44003.648101851853</v>
+      </c>
+      <c r="B124">
+        <v>169</v>
+      </c>
+      <c r="C124">
+        <v>18</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>23</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>5</v>
+      </c>
+      <c r="K124">
+        <v>52</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>17</v>
+      </c>
+      <c r="O124">
+        <v>28</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>18</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>5</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>3</v>
+      </c>
+      <c r="AC124">
+        <v>31</v>
+      </c>
+      <c r="AD124">
+        <v>29</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>14</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>161</v>
+      </c>
+      <c r="AN124">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -585,7 +587,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -644,6 +646,7 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -702,6 +705,7 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1035,7 +1039,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN124" sqref="A124:AN124"/>
+      <selection pane="bottomLeft" activeCell="AN125" sqref="A125:AN125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9480,7 +9484,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO124" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO125" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -16667,60 +16671,62 @@
       </c>
     </row>
     <row r="125" spans="1:41">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>44004.63486111111</v>
+      </c>
       <c r="B125">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P125">
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R125">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S125">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="T125">
         <v>0</v>
@@ -16732,13 +16738,13 @@
         <v>0</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X125">
         <v>0</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z125">
         <v>0</v>
@@ -16750,10 +16756,10 @@
         <v>0</v>
       </c>
       <c r="AC125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE125">
         <v>0</v>
@@ -16762,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="AG125">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH125">
         <v>0</v>
@@ -16771,19 +16777,23 @@
         <v>0</v>
       </c>
       <c r="AJ125">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK125">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL125">
         <v>0</v>
       </c>
       <c r="AM125">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AN125">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO125">
+        <f t="shared" si="1"/>
+        <v>675</v>
       </c>
     </row>
     <row r="126" spans="1:41">
@@ -17388,11 +17398,11 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>8576</v>
+        <v>8864</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1567</v>
+        <v>1583</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
@@ -17400,7 +17410,7 @@
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
@@ -17408,27 +17418,27 @@
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="I131">
         <f t="shared" si="2"/>
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>912</v>
+        <v>988</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M131">
         <f t="shared" si="2"/>
@@ -17436,11 +17446,11 @@
       </c>
       <c r="N131">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
@@ -17448,15 +17458,15 @@
       </c>
       <c r="Q131">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="R131">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
-        <v>874</v>
+        <v>930</v>
       </c>
       <c r="T131">
         <f t="shared" si="2"/>
@@ -17472,7 +17482,7 @@
       </c>
       <c r="W131">
         <f t="shared" si="2"/>
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="X131">
         <f t="shared" si="2"/>
@@ -17480,7 +17490,7 @@
       </c>
       <c r="Y131">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Z131">
         <f t="shared" si="2"/>
@@ -17496,11 +17506,11 @@
       </c>
       <c r="AC131">
         <f t="shared" si="2"/>
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AE131">
         <f t="shared" si="2"/>
@@ -17512,7 +17522,7 @@
       </c>
       <c r="AG131">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AH131">
         <f t="shared" si="2"/>
@@ -17524,11 +17534,11 @@
       </c>
       <c r="AJ131">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AK131">
         <f t="shared" si="2"/>
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="AL131">
         <f t="shared" si="2"/>
@@ -17536,17 +17546,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>6879</v>
+        <v>7109</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO124)</f>
-        <v>20245</v>
+        <f>SUM(AO2:AO125)</f>
+        <v>20920</v>
       </c>
     </row>
   </sheetData>
@@ -17563,11 +17573,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN124"/>
+  <dimension ref="A1:AN125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y129" sqref="Y129"/>
+      <selection pane="bottomLeft" activeCell="Z129" sqref="Z129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32701,6 +32711,128 @@
       </c>
       <c r="AN124">
         <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40">
+      <c r="A125" s="1">
+        <v>44004.63486111111</v>
+      </c>
+      <c r="B125">
+        <v>288</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>17</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>28</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
+      <c r="I125">
+        <v>8</v>
+      </c>
+      <c r="J125">
+        <v>13</v>
+      </c>
+      <c r="K125">
+        <v>76</v>
+      </c>
+      <c r="L125">
+        <v>20</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125">
+        <v>20</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>20</v>
+      </c>
+      <c r="R125">
+        <v>31</v>
+      </c>
+      <c r="S125">
+        <v>56</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>10</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>3</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>2</v>
+      </c>
+      <c r="AD125">
+        <v>9</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>9</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>8</v>
+      </c>
+      <c r="AK125">
+        <v>30</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>230</v>
+      </c>
+      <c r="AN125">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -587,7 +589,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -647,6 +649,7 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -706,6 +709,7 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1038,8 +1042,8 @@
   <dimension ref="A1:AP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN125" sqref="A125:AN125"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN126" sqref="A126:AN126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9484,7 +9488,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO125" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO126" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -16797,21 +16801,23 @@
       </c>
     </row>
     <row r="126" spans="1:41">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>44005.646134259259</v>
+      </c>
       <c r="B126">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -16820,13 +16826,13 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -16835,19 +16841,19 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -16856,13 +16862,13 @@
         <v>0</v>
       </c>
       <c r="U126">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V126">
         <v>0</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X126">
         <v>0</v>
@@ -16871,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA126">
         <v>0</v>
@@ -16883,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE126">
         <v>0</v>
@@ -16910,10 +16916,14 @@
         <v>0</v>
       </c>
       <c r="AM126">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="AN126">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO126">
+        <f t="shared" si="1"/>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:41">
@@ -17398,11 +17408,11 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>8864</v>
+        <v>9073</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1583</v>
+        <v>1605</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
@@ -17410,11 +17420,11 @@
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
@@ -17426,7 +17436,7 @@
       </c>
       <c r="I131">
         <f t="shared" si="2"/>
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
@@ -17434,7 +17444,7 @@
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>988</v>
+        <v>1055</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
@@ -17446,11 +17456,11 @@
       </c>
       <c r="N131">
         <f t="shared" si="2"/>
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
@@ -17458,11 +17468,11 @@
       </c>
       <c r="Q131">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="R131">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
@@ -17474,7 +17484,7 @@
       </c>
       <c r="U131">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="V131">
         <f t="shared" si="2"/>
@@ -17482,7 +17492,7 @@
       </c>
       <c r="W131">
         <f t="shared" si="2"/>
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="X131">
         <f t="shared" si="2"/>
@@ -17494,7 +17504,7 @@
       </c>
       <c r="Z131">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA131">
         <f t="shared" si="2"/>
@@ -17510,7 +17520,7 @@
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AE131">
         <f t="shared" si="2"/>
@@ -17546,17 +17556,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>7109</v>
+        <v>7338</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO125)</f>
-        <v>20920</v>
+        <f>SUM(AO2:AO126)</f>
+        <v>21372</v>
       </c>
     </row>
   </sheetData>
@@ -17573,11 +17583,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN125"/>
+  <dimension ref="A1:AN126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z129" sqref="Z129"/>
+      <selection pane="bottomLeft" activeCell="AD132" sqref="AD132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32833,6 +32843,128 @@
       </c>
       <c r="AN125">
         <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40">
+      <c r="A126" s="1">
+        <v>44005.646134259259</v>
+      </c>
+      <c r="B126">
+        <v>209</v>
+      </c>
+      <c r="C126">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>36</v>
+      </c>
+      <c r="F126">
+        <v>7</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>67</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>15</v>
+      </c>
+      <c r="O126">
+        <v>8</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>8</v>
+      </c>
+      <c r="R126">
+        <v>37</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>16</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>20</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>3</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>3</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>229</v>
+      </c>
+      <c r="AN126">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -589,7 +591,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -650,6 +652,7 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -710,6 +713,7 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,7 +1047,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN126" sqref="A126:AN126"/>
+      <selection pane="bottomLeft" activeCell="AN127" sqref="A127:AN127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9488,7 +9492,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO126" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO127" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -16927,24 +16931,26 @@
       </c>
     </row>
     <row r="127" spans="1:41">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>44006.641284722224</v>
+      </c>
       <c r="B127">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -16953,22 +16959,22 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -16977,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -16986,34 +16992,34 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V127">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X127">
         <v>0</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z127">
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC127">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE127">
         <v>0</v>
@@ -17031,7 +17037,7 @@
         <v>0</v>
       </c>
       <c r="AJ127">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK127">
         <v>0</v>
@@ -17040,10 +17046,14 @@
         <v>0</v>
       </c>
       <c r="AM127">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AN127">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO127">
+        <f t="shared" si="1"/>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:41">
@@ -17408,27 +17418,27 @@
     <row r="131" spans="1:42">
       <c r="B131">
         <f>SUM(B2:B130)</f>
-        <v>9073</v>
+        <v>9323</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1605</v>
+        <v>1622</v>
       </c>
       <c r="D131">
         <f t="shared" si="2"/>
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
@@ -17440,27 +17450,27 @@
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>1055</v>
+        <v>1155</v>
       </c>
       <c r="L131">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M131">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N131">
         <f t="shared" si="2"/>
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="O131">
         <f t="shared" si="2"/>
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="P131">
         <f t="shared" si="2"/>
@@ -17472,7 +17482,7 @@
       </c>
       <c r="R131">
         <f t="shared" si="2"/>
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="S131">
         <f t="shared" si="2"/>
@@ -17484,15 +17494,15 @@
       </c>
       <c r="U131">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="V131">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="W131">
         <f t="shared" si="2"/>
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="X131">
         <f t="shared" si="2"/>
@@ -17500,7 +17510,7 @@
       </c>
       <c r="Y131">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z131">
         <f t="shared" si="2"/>
@@ -17508,19 +17518,19 @@
       </c>
       <c r="AA131">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB131">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AC131">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="AD131">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AE131">
         <f t="shared" si="2"/>
@@ -17544,7 +17554,7 @@
       </c>
       <c r="AJ131">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AK131">
         <f t="shared" si="2"/>
@@ -17556,17 +17566,17 @@
       </c>
       <c r="AM131">
         <f t="shared" si="2"/>
-        <v>7338</v>
+        <v>7613</v>
       </c>
       <c r="AN131">
         <f t="shared" si="2"/>
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:42">
       <c r="AP134">
-        <f>SUM(AO2:AO126)</f>
-        <v>21372</v>
+        <f>SUM(AO2:AO127)</f>
+        <v>22021</v>
       </c>
     </row>
   </sheetData>
@@ -17583,11 +17593,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN126"/>
+  <dimension ref="A1:AN127"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD132" sqref="AD132"/>
+      <selection pane="bottomLeft" activeCell="AA132" sqref="AA132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32965,6 +32975,128 @@
       </c>
       <c r="AN126">
         <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40">
+      <c r="A127" s="1">
+        <v>44006.641284722224</v>
+      </c>
+      <c r="B127">
+        <v>250</v>
+      </c>
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>22</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>20</v>
+      </c>
+      <c r="K127">
+        <v>100</v>
+      </c>
+      <c r="L127">
+        <v>17</v>
+      </c>
+      <c r="M127">
+        <v>18</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>27</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>40</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>14</v>
+      </c>
+      <c r="V127">
+        <v>13</v>
+      </c>
+      <c r="W127">
+        <v>28</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>2</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>4</v>
+      </c>
+      <c r="AB127">
+        <v>13</v>
+      </c>
+      <c r="AC127">
+        <v>40</v>
+      </c>
+      <c r="AD127">
+        <v>1</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>7</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>275</v>
+      </c>
+      <c r="AN127">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,7 +593,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -653,6 +655,7 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -714,6 +717,7 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,11 +1047,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP134"/>
+  <dimension ref="A1:AP145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN127" sqref="A127:AN127"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9492,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO127" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO128" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -17057,36 +17061,38 @@
       </c>
     </row>
     <row r="128" spans="1:41">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>44007.658310185187</v>
+      </c>
       <c r="B128">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -17095,34 +17101,34 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R128">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="S128">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
       <c r="U128">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X128">
         <v>0</v>
@@ -17137,25 +17143,25 @@
         <v>0</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF128">
         <v>0</v>
       </c>
       <c r="AG128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI128">
         <v>0</v>
@@ -17170,13 +17176,17 @@
         <v>0</v>
       </c>
       <c r="AM128">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="AN128">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO128">
+        <f t="shared" si="1"/>
+        <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:40">
       <c r="A129" s="1"/>
       <c r="B129">
         <v>0</v>
@@ -17296,7 +17306,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:42">
+    <row r="130" spans="1:40">
+      <c r="A130" s="1"/>
       <c r="B130">
         <v>0</v>
       </c>
@@ -17415,168 +17426,1487 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:40">
+      <c r="A131" s="1"/>
       <c r="B131">
-        <f>SUM(B2:B130)</f>
-        <v>9323</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:AN131" si="2">SUM(C2:C130)</f>
-        <v>1622</v>
+        <v>0</v>
       </c>
       <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:40">
+      <c r="A132" s="1"/>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:40">
+      <c r="A133" s="1"/>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:40">
+      <c r="A134" s="1"/>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:40">
+      <c r="A135" s="1"/>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:40">
+      <c r="A136" s="1"/>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:40">
+      <c r="A137" s="1"/>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:40">
+      <c r="A138" s="1"/>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:40">
+      <c r="A139" s="1"/>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:40">
+      <c r="A140" s="1"/>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+      <c r="AF140">
+        <v>0</v>
+      </c>
+      <c r="AG140">
+        <v>0</v>
+      </c>
+      <c r="AH140">
+        <v>0</v>
+      </c>
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:40">
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:40">
+      <c r="B142">
+        <f>SUM(B2:B141)</f>
+        <v>9482</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ref="C142:AN142" si="2">SUM(C2:C141)</f>
+        <v>1656</v>
+      </c>
+      <c r="D142">
         <f t="shared" si="2"/>
         <v>1191</v>
       </c>
-      <c r="E131">
+      <c r="E142">
         <f t="shared" si="2"/>
-        <v>721</v>
-      </c>
-      <c r="F131">
+        <v>733</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="2"/>
+        <v>459</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>851</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="2"/>
+        <v>1188</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="2"/>
+        <v>493</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="2"/>
+        <v>668</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="2"/>
+        <v>715</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="2"/>
+        <v>936</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="X142">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="AA142">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AB142">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="G131">
+      <c r="AC142">
         <f t="shared" si="2"/>
-        <v>482</v>
-      </c>
-      <c r="H131">
+        <v>294</v>
+      </c>
+      <c r="AD142">
         <f t="shared" si="2"/>
-        <v>434</v>
-      </c>
-      <c r="I131">
+        <v>269</v>
+      </c>
+      <c r="AE142">
         <f t="shared" si="2"/>
-        <v>477</v>
-      </c>
-      <c r="J131">
-        <f t="shared" si="2"/>
-        <v>817</v>
-      </c>
-      <c r="K131">
-        <f t="shared" si="2"/>
-        <v>1155</v>
-      </c>
-      <c r="L131">
-        <f t="shared" si="2"/>
-        <v>217</v>
-      </c>
-      <c r="M131">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="N131">
-        <f t="shared" si="2"/>
-        <v>488</v>
-      </c>
-      <c r="O131">
-        <f t="shared" si="2"/>
-        <v>635</v>
-      </c>
-      <c r="P131">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="R131">
-        <f t="shared" si="2"/>
-        <v>609</v>
-      </c>
-      <c r="S131">
-        <f t="shared" si="2"/>
-        <v>930</v>
-      </c>
-      <c r="T131">
-        <f t="shared" si="2"/>
-        <v>317</v>
-      </c>
-      <c r="U131">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="V131">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="W131">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="X131">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="Y131">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="Z131">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AA131">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="AB131">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="AC131">
-        <f t="shared" si="2"/>
-        <v>293</v>
-      </c>
-      <c r="AD131">
-        <f t="shared" si="2"/>
-        <v>247</v>
-      </c>
-      <c r="AE131">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="AF131">
+        <v>71</v>
+      </c>
+      <c r="AF142">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG131">
+      <c r="AG142">
         <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
-      <c r="AH131">
+        <v>198</v>
+      </c>
+      <c r="AH142">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="AI131">
+        <v>19</v>
+      </c>
+      <c r="AI142">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="AJ131">
+      <c r="AJ142">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="AK131">
+      <c r="AK142">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="AL131">
+      <c r="AL142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM131">
+      <c r="AM142">
         <f t="shared" si="2"/>
-        <v>7613</v>
-      </c>
-      <c r="AN131">
+        <v>7822</v>
+      </c>
+      <c r="AN142">
         <f t="shared" si="2"/>
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="134" spans="1:42">
-      <c r="AP134">
-        <f>SUM(AO2:AO127)</f>
-        <v>22021</v>
+    <row r="145" spans="42:42">
+      <c r="AP145">
+        <f>SUM(AO2:AO128)</f>
+        <v>22615</v>
       </c>
     </row>
   </sheetData>
@@ -17593,11 +18923,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN127"/>
+  <dimension ref="A1:AN128"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA132" sqref="AA132"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -33097,6 +34427,128 @@
       </c>
       <c r="AN127">
         <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40">
+      <c r="A128" s="1">
+        <v>44007.658310185187</v>
+      </c>
+      <c r="B128">
+        <v>159</v>
+      </c>
+      <c r="C128">
+        <v>34</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>25</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>34</v>
+      </c>
+      <c r="K128">
+        <v>33</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128">
+        <v>33</v>
+      </c>
+      <c r="P128">
+        <v>3</v>
+      </c>
+      <c r="Q128">
+        <v>44</v>
+      </c>
+      <c r="R128">
+        <v>106</v>
+      </c>
+      <c r="S128">
+        <v>6</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>28</v>
+      </c>
+      <c r="V128">
+        <v>5</v>
+      </c>
+      <c r="W128">
+        <v>8</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>15</v>
+      </c>
+      <c r="AC128">
+        <v>1</v>
+      </c>
+      <c r="AD128">
+        <v>22</v>
+      </c>
+      <c r="AE128">
+        <v>4</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>5</v>
+      </c>
+      <c r="AH128">
+        <v>1</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>209</v>
+      </c>
+      <c r="AN128">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -593,7 +595,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -656,6 +658,7 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -718,6 +721,7 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1049,9 +1053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R138" sqref="R138"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9496,7 +9500,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO128" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO129" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -17186,37 +17190,39 @@
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:40">
-      <c r="A129" s="1"/>
+    <row r="129" spans="1:41">
+      <c r="A129" s="1">
+        <v>44008.659884259258</v>
+      </c>
       <c r="B129">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -17225,22 +17231,22 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -17252,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X129">
         <v>0</v>
@@ -17264,16 +17270,16 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB129">
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD129">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE129">
         <v>0</v>
@@ -17294,19 +17300,23 @@
         <v>0</v>
       </c>
       <c r="AK129">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL129">
         <v>0</v>
       </c>
       <c r="AM129">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AN129">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO129">
+        <f t="shared" si="1"/>
+        <v>684</v>
       </c>
     </row>
-    <row r="130" spans="1:40">
+    <row r="130" spans="1:41">
       <c r="A130" s="1"/>
       <c r="B130">
         <v>0</v>
@@ -17426,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:40">
+    <row r="131" spans="1:41">
       <c r="A131" s="1"/>
       <c r="B131">
         <v>0</v>
@@ -17546,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:40">
+    <row r="132" spans="1:41">
       <c r="A132" s="1"/>
       <c r="B132">
         <v>0</v>
@@ -17666,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:40">
+    <row r="133" spans="1:41">
       <c r="A133" s="1"/>
       <c r="B133">
         <v>0</v>
@@ -17786,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:40">
+    <row r="134" spans="1:41">
       <c r="A134" s="1"/>
       <c r="B134">
         <v>0</v>
@@ -17906,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:40">
+    <row r="135" spans="1:41">
       <c r="A135" s="1"/>
       <c r="B135">
         <v>0</v>
@@ -18026,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:40">
+    <row r="136" spans="1:41">
       <c r="A136" s="1"/>
       <c r="B136">
         <v>0</v>
@@ -18146,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:40">
+    <row r="137" spans="1:41">
       <c r="A137" s="1"/>
       <c r="B137">
         <v>0</v>
@@ -18266,7 +18276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:40">
+    <row r="138" spans="1:41">
       <c r="A138" s="1"/>
       <c r="B138">
         <v>0</v>
@@ -18386,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:40">
+    <row r="139" spans="1:41">
       <c r="A139" s="1"/>
       <c r="B139">
         <v>0</v>
@@ -18506,7 +18516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40">
+    <row r="140" spans="1:41">
       <c r="A140" s="1"/>
       <c r="B140">
         <v>0</v>
@@ -18626,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:40">
+    <row r="141" spans="1:41">
       <c r="B141">
         <v>0</v>
       </c>
@@ -18745,14 +18755,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:40">
+    <row r="142" spans="1:41">
       <c r="B142">
         <f>SUM(B2:B141)</f>
-        <v>9482</v>
+        <v>9741</v>
       </c>
       <c r="C142">
         <f t="shared" ref="C142:AN142" si="2">SUM(C2:C141)</f>
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="D142">
         <f t="shared" si="2"/>
@@ -18760,19 +18770,19 @@
       </c>
       <c r="E142">
         <f t="shared" si="2"/>
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="F142">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G142">
         <f t="shared" si="2"/>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="I142">
         <f t="shared" si="2"/>
@@ -18780,11 +18790,11 @@
       </c>
       <c r="J142">
         <f t="shared" si="2"/>
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="K142">
         <f t="shared" si="2"/>
-        <v>1188</v>
+        <v>1264</v>
       </c>
       <c r="L142">
         <f t="shared" si="2"/>
@@ -18796,27 +18806,27 @@
       </c>
       <c r="N142">
         <f t="shared" si="2"/>
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="O142">
         <f t="shared" si="2"/>
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="P142">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q142">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="R142">
         <f t="shared" si="2"/>
-        <v>715</v>
+        <v>781</v>
       </c>
       <c r="S142">
         <f t="shared" si="2"/>
-        <v>936</v>
+        <v>982</v>
       </c>
       <c r="T142">
         <f t="shared" si="2"/>
@@ -18832,7 +18842,7 @@
       </c>
       <c r="W142">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="X142">
         <f t="shared" si="2"/>
@@ -18848,7 +18858,7 @@
       </c>
       <c r="AA142">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB142">
         <f t="shared" si="2"/>
@@ -18856,11 +18866,11 @@
       </c>
       <c r="AC142">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AD142">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE142">
         <f t="shared" si="2"/>
@@ -18888,7 +18898,7 @@
       </c>
       <c r="AK142">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AL142">
         <f t="shared" si="2"/>
@@ -18896,17 +18906,17 @@
       </c>
       <c r="AM142">
         <f t="shared" si="2"/>
-        <v>7822</v>
+        <v>8253</v>
       </c>
       <c r="AN142">
         <f t="shared" si="2"/>
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145">
-        <f>SUM(AO2:AO128)</f>
-        <v>22615</v>
+        <f>SUM(AO2:AO129)</f>
+        <v>23299</v>
       </c>
     </row>
   </sheetData>
@@ -18923,11 +18933,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN128"/>
+  <dimension ref="A1:AN129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <selection pane="bottomLeft" activeCell="Z131" sqref="Z131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -34549,6 +34559,128 @@
       </c>
       <c r="AN128">
         <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:40">
+      <c r="A129" s="1">
+        <v>44008.659884259258</v>
+      </c>
+      <c r="B129">
+        <v>259</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>23</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>69</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>22</v>
+      </c>
+      <c r="K129">
+        <v>76</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>16</v>
+      </c>
+      <c r="P129">
+        <v>2</v>
+      </c>
+      <c r="Q129">
+        <v>10</v>
+      </c>
+      <c r="R129">
+        <v>66</v>
+      </c>
+      <c r="S129">
+        <v>46</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>9</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>1</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>4</v>
+      </c>
+      <c r="AD129">
+        <v>9</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>21</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>431</v>
+      </c>
+      <c r="AN129">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="940" yWindow="420" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Dates</t>
   </si>
@@ -460,8 +460,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -595,7 +637,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -659,6 +701,27 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -722,6 +785,27 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1051,11 +1135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP145"/>
+  <dimension ref="A1:AP155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148:AO148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9500,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO129" si="1">SUM(B67:AL67)</f>
+        <f t="shared" ref="AO67:AO148" si="1">SUM(B67:AL67)</f>
         <v>87</v>
       </c>
     </row>
@@ -17317,36 +17401,38 @@
       </c>
     </row>
     <row r="130" spans="1:41">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>44009.654710648145</v>
+      </c>
       <c r="B130">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -17358,37 +17444,37 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R130">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S130">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="T130">
         <v>0</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="V130">
         <v>0</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X130">
         <v>0</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z130">
         <v>0</v>
@@ -17403,79 +17489,85 @@
         <v>0</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF130">
         <v>0</v>
       </c>
       <c r="AG130">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH130">
         <v>0</v>
       </c>
       <c r="AI130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ130">
         <v>0</v>
       </c>
       <c r="AK130">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL130">
         <v>0</v>
       </c>
       <c r="AM130">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AN130">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO130">
+        <f t="shared" si="1"/>
+        <v>779</v>
       </c>
     </row>
     <row r="131" spans="1:41">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>44010.644861111112</v>
+      </c>
       <c r="B131">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -17484,19 +17576,19 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R131">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S131">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T131">
         <v>0</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -17517,19 +17609,19 @@
         <v>0</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC131">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AD131">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE131">
         <v>0</v>
       </c>
       <c r="AF131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG131">
         <v>0</v>
@@ -17541,52 +17633,58 @@
         <v>0</v>
       </c>
       <c r="AJ131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK131">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AL131">
         <v>0</v>
       </c>
       <c r="AM131">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="AN131">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO131">
+        <f t="shared" si="1"/>
+        <v>490</v>
       </c>
     </row>
     <row r="132" spans="1:41">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>44011.641377314816</v>
+      </c>
       <c r="B132">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -17598,16 +17696,16 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P132">
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R132">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -17631,19 +17729,19 @@
         <v>0</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB132">
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AD132">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE132">
         <v>0</v>
@@ -17652,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="AG132">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH132">
         <v>0</v>
@@ -17661,52 +17759,58 @@
         <v>0</v>
       </c>
       <c r="AJ132">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK132">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AL132">
         <v>0</v>
       </c>
       <c r="AM132">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="AN132">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO132">
+        <f t="shared" si="1"/>
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:41">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>44012.659953703704</v>
+      </c>
       <c r="B133">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -17715,16 +17819,16 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P133">
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R133">
         <v>0</v>
@@ -17733,16 +17837,16 @@
         <v>0</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133">
         <v>0</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X133">
         <v>0</v>
@@ -17760,13 +17864,13 @@
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF133">
         <v>0</v>
@@ -17781,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="AJ133">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK133">
         <v>0</v>
@@ -17790,79 +17894,85 @@
         <v>0</v>
       </c>
       <c r="AM133">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="AN133">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AO133">
+        <f t="shared" si="1"/>
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:41">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>44013.662534722222</v>
+      </c>
       <c r="B134">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="P134">
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R134">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="S134">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T134">
         <v>0</v>
       </c>
       <c r="U134">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="V134">
         <v>0</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X134">
         <v>0</v>
@@ -17871,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA134">
         <v>0</v>
@@ -17883,10 +17993,10 @@
         <v>0</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF134">
         <v>0</v>
@@ -17898,10 +18008,10 @@
         <v>0</v>
       </c>
       <c r="AI134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ134">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK134">
         <v>0</v>
@@ -17910,85 +18020,91 @@
         <v>0</v>
       </c>
       <c r="AM134">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AN134">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AO134">
+        <f t="shared" si="1"/>
+        <v>790</v>
       </c>
     </row>
     <row r="135" spans="1:41">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>44014.661319444444</v>
+      </c>
       <c r="B135">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P135">
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R135">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S135">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T135">
         <v>0</v>
       </c>
       <c r="U135">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V135">
         <v>0</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X135">
         <v>0</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z135">
         <v>0</v>
@@ -17997,10 +18113,10 @@
         <v>0</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC135">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD135">
         <v>0</v>
@@ -18030,43 +18146,49 @@
         <v>0</v>
       </c>
       <c r="AM135">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="AN135">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AO135">
+        <f t="shared" si="1"/>
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:41">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>44015.661307870374</v>
+      </c>
       <c r="B136">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -18075,19 +18197,19 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P136">
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="R136">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -18096,13 +18218,13 @@
         <v>0</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V136">
         <v>0</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X136">
         <v>0</v>
@@ -18111,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA136">
         <v>0</v>
@@ -18120,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD136">
         <v>0</v>
@@ -18129,10 +18251,10 @@
         <v>0</v>
       </c>
       <c r="AF136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG136">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH136">
         <v>0</v>
@@ -18150,28 +18272,34 @@
         <v>0</v>
       </c>
       <c r="AM136">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="AN136">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO136">
+        <f t="shared" si="1"/>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:41">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>44016.649699074071</v>
+      </c>
       <c r="B137">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -18180,13 +18308,13 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -18198,37 +18326,37 @@
         <v>0</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P137">
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R137">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="S137">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="T137">
         <v>0</v>
       </c>
       <c r="U137">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V137">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X137">
         <v>0</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z137">
         <v>0</v>
@@ -18240,19 +18368,19 @@
         <v>0</v>
       </c>
       <c r="AC137">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD137">
         <v>0</v>
       </c>
       <c r="AE137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF137">
         <v>0</v>
       </c>
       <c r="AG137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH137">
         <v>0</v>
@@ -18270,67 +18398,73 @@
         <v>0</v>
       </c>
       <c r="AM137">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="AN137">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO137">
+        <f t="shared" si="1"/>
+        <v>603</v>
       </c>
     </row>
     <row r="138" spans="1:41">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>44017.650497685187</v>
+      </c>
       <c r="B138">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N138">
         <v>0</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R138">
         <v>0</v>
       </c>
       <c r="S138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -18342,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X138">
         <v>0</v>
@@ -18357,10 +18491,10 @@
         <v>0</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC138">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD138">
         <v>0</v>
@@ -18375,61 +18509,67 @@
         <v>0</v>
       </c>
       <c r="AH138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI138">
         <v>0</v>
       </c>
       <c r="AJ138">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK138">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL138">
         <v>0</v>
       </c>
       <c r="AM138">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="AN138">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AO138">
+        <f t="shared" si="1"/>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:41">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>44018.64875</v>
+      </c>
       <c r="B139">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -18438,31 +18578,31 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R139">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="S139">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T139">
         <v>0</v>
       </c>
       <c r="U139">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V139">
         <v>0</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X139">
         <v>0</v>
@@ -18480,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="AC139">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD139">
         <v>0</v>
@@ -18492,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="AG139">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH139">
         <v>0</v>
@@ -18501,55 +18641,61 @@
         <v>0</v>
       </c>
       <c r="AJ139">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK139">
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM139">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="AN139">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO139">
+        <f t="shared" si="1"/>
+        <v>575</v>
       </c>
     </row>
     <row r="140" spans="1:41">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>44019.6483912037</v>
+      </c>
       <c r="B140">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -18558,31 +18704,31 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P140">
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R140">
         <v>0</v>
       </c>
       <c r="S140">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T140">
         <v>0</v>
       </c>
       <c r="U140">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="V140">
         <v>0</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X140">
         <v>0</v>
@@ -18591,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA140">
         <v>0</v>
@@ -18600,28 +18746,28 @@
         <v>0</v>
       </c>
       <c r="AC140">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD140">
         <v>0</v>
       </c>
       <c r="AE140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF140">
         <v>0</v>
       </c>
       <c r="AG140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI140">
         <v>0</v>
       </c>
       <c r="AJ140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK140">
         <v>0</v>
@@ -18630,54 +18776,61 @@
         <v>0</v>
       </c>
       <c r="AM140">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN140">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AO140">
+        <f t="shared" si="1"/>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:41">
+      <c r="A141" s="1">
+        <v>44020.661886574075</v>
+      </c>
       <c r="B141">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -18686,19 +18839,19 @@
         <v>0</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="S141">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="T141">
         <v>0</v>
       </c>
       <c r="U141">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -18713,16 +18866,16 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE141">
         <v>0</v>
@@ -18740,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="AJ141">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK141">
         <v>0</v>
@@ -18749,174 +18902,1419 @@
         <v>0</v>
       </c>
       <c r="AM141">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="AN141">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AO141">
+        <f t="shared" si="1"/>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="1:41">
+      <c r="A142" s="1">
+        <v>44021.646481481483</v>
+      </c>
       <c r="B142">
-        <f>SUM(B2:B141)</f>
-        <v>9741</v>
+        <v>157</v>
       </c>
       <c r="C142">
-        <f t="shared" ref="C142:AN142" si="2">SUM(C2:C141)</f>
-        <v>1676</v>
+        <v>17</v>
       </c>
       <c r="D142">
+        <v>11</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>18</v>
+      </c>
+      <c r="I142">
+        <v>21</v>
+      </c>
+      <c r="J142">
+        <v>59</v>
+      </c>
+      <c r="K142">
+        <v>31</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>22</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>18</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>56</v>
+      </c>
+      <c r="R142">
+        <v>14</v>
+      </c>
+      <c r="S142">
+        <v>10</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>8</v>
+      </c>
+      <c r="V142">
+        <v>1</v>
+      </c>
+      <c r="W142">
+        <v>1</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>19</v>
+      </c>
+      <c r="AD142">
+        <v>3</v>
+      </c>
+      <c r="AE142">
+        <v>0</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>2</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>1</v>
+      </c>
+      <c r="AJ142">
+        <v>17</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>173</v>
+      </c>
+      <c r="AN142">
+        <v>5</v>
+      </c>
+      <c r="AO142">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:41">
+      <c r="A143" s="1">
+        <v>44022.65519675926</v>
+      </c>
+      <c r="B143">
+        <v>224</v>
+      </c>
+      <c r="C143">
+        <v>68</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
+        <v>9</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>31</v>
+      </c>
+      <c r="K143">
+        <v>85</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>39</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>11</v>
+      </c>
+      <c r="S143">
+        <v>49</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
+        <v>30</v>
+      </c>
+      <c r="V143">
+        <v>10</v>
+      </c>
+      <c r="W143">
+        <v>1</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>2</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>2</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>5</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>249</v>
+      </c>
+      <c r="AN143">
+        <v>20</v>
+      </c>
+      <c r="AO143">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="144" spans="1:41">
+      <c r="A144" s="1">
+        <v>44023.657442129632</v>
+      </c>
+      <c r="B144">
+        <v>224</v>
+      </c>
+      <c r="C144">
+        <v>105</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>17</v>
+      </c>
+      <c r="F144">
+        <v>19</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>85</v>
+      </c>
+      <c r="K144">
+        <v>17</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>32</v>
+      </c>
+      <c r="P144">
+        <v>3</v>
+      </c>
+      <c r="Q144">
+        <v>64</v>
+      </c>
+      <c r="R144">
+        <v>11</v>
+      </c>
+      <c r="S144">
+        <v>14</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>7</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>3</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>10</v>
+      </c>
+      <c r="AC144">
+        <v>17</v>
+      </c>
+      <c r="AD144">
+        <v>27</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>6</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>0</v>
+      </c>
+      <c r="AM144">
+        <v>308</v>
+      </c>
+      <c r="AN144">
+        <v>15</v>
+      </c>
+      <c r="AO144">
+        <f t="shared" si="1"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="145" spans="1:42">
+      <c r="A145" s="1">
+        <v>44024.639641203707</v>
+      </c>
+      <c r="B145">
+        <v>152</v>
+      </c>
+      <c r="C145">
+        <v>38</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>7</v>
+      </c>
+      <c r="F145">
+        <v>14</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>14</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>53</v>
+      </c>
+      <c r="K145">
+        <v>20</v>
+      </c>
+      <c r="L145">
+        <v>19</v>
+      </c>
+      <c r="M145">
+        <v>11</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>11</v>
+      </c>
+      <c r="P145">
+        <v>14</v>
+      </c>
+      <c r="Q145">
+        <v>46</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>10</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>17</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>14</v>
+      </c>
+      <c r="AK145">
+        <v>108</v>
+      </c>
+      <c r="AL145">
+        <v>4</v>
+      </c>
+      <c r="AM145">
+        <v>344</v>
+      </c>
+      <c r="AN145">
+        <v>16</v>
+      </c>
+      <c r="AO145">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="146" spans="1:42">
+      <c r="A146" s="1">
+        <v>44025.65216435185</v>
+      </c>
+      <c r="B146">
+        <v>156</v>
+      </c>
+      <c r="C146">
+        <v>99</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <v>47</v>
+      </c>
+      <c r="K146">
+        <v>141</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>27</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>22</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>20</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>5</v>
+      </c>
+      <c r="AA146">
+        <v>8</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>10</v>
+      </c>
+      <c r="AD146">
+        <v>13</v>
+      </c>
+      <c r="AE146">
+        <v>1</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>8</v>
+      </c>
+      <c r="AH146">
+        <v>3</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
+        <v>224</v>
+      </c>
+      <c r="AN146">
+        <v>4</v>
+      </c>
+      <c r="AO146">
+        <f t="shared" si="1"/>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="1:42">
+      <c r="A147" s="1">
+        <v>44026.651354166665</v>
+      </c>
+      <c r="B147">
+        <v>128</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
+      </c>
+      <c r="F147">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>29</v>
+      </c>
+      <c r="K147">
+        <v>15</v>
+      </c>
+      <c r="L147">
+        <v>92</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>23</v>
+      </c>
+      <c r="P147">
+        <v>3</v>
+      </c>
+      <c r="Q147">
+        <v>9</v>
+      </c>
+      <c r="R147">
+        <v>33</v>
+      </c>
+      <c r="S147">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>39</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>8</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>28</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>5</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>121</v>
+      </c>
+      <c r="AN147">
+        <v>10</v>
+      </c>
+      <c r="AO147">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:42">
+      <c r="A148" s="1">
+        <v>44027.705127314817</v>
+      </c>
+      <c r="B148">
+        <v>230</v>
+      </c>
+      <c r="C148">
+        <v>51</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <v>35</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>43</v>
+      </c>
+      <c r="K148">
+        <v>69</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>28</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>23</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>30</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>16</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>17</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>20</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>2</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>30</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>207</v>
+      </c>
+      <c r="AN148">
+        <v>6</v>
+      </c>
+      <c r="AO148">
+        <f t="shared" si="1"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="149" spans="1:42">
+      <c r="A149" s="1"/>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:42">
+      <c r="A150" s="1"/>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:42">
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:42">
+      <c r="B152">
+        <f>SUM(B2:B151)</f>
+        <v>12941</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ref="C152:AN152" si="2">SUM(C2:C151)</f>
+        <v>2738</v>
+      </c>
+      <c r="D152">
         <f t="shared" si="2"/>
-        <v>1191</v>
-      </c>
-      <c r="E142">
+        <v>1318</v>
+      </c>
+      <c r="E152">
         <f t="shared" si="2"/>
-        <v>756</v>
-      </c>
-      <c r="F142">
+        <v>1132</v>
+      </c>
+      <c r="F152">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="G142">
+        <v>311</v>
+      </c>
+      <c r="G152">
         <f t="shared" si="2"/>
-        <v>487</v>
-      </c>
-      <c r="H142">
+        <v>533</v>
+      </c>
+      <c r="H152">
         <f t="shared" si="2"/>
-        <v>528</v>
-      </c>
-      <c r="I142">
+        <v>669</v>
+      </c>
+      <c r="I152">
         <f t="shared" si="2"/>
-        <v>477</v>
-      </c>
-      <c r="J142">
+        <v>593</v>
+      </c>
+      <c r="J152">
         <f t="shared" si="2"/>
-        <v>873</v>
-      </c>
-      <c r="K142">
+        <v>1850</v>
+      </c>
+      <c r="K152">
         <f t="shared" si="2"/>
-        <v>1264</v>
-      </c>
-      <c r="L142">
+        <v>1951</v>
+      </c>
+      <c r="L152">
         <f t="shared" si="2"/>
-        <v>217</v>
-      </c>
-      <c r="M142">
+        <v>422</v>
+      </c>
+      <c r="M152">
         <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="N142">
+        <v>145</v>
+      </c>
+      <c r="N152">
         <f t="shared" si="2"/>
-        <v>497</v>
-      </c>
-      <c r="O142">
+        <v>521</v>
+      </c>
+      <c r="O152">
         <f t="shared" si="2"/>
-        <v>684</v>
-      </c>
-      <c r="P142">
+        <v>1067</v>
+      </c>
+      <c r="P152">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="Q142">
+        <v>67</v>
+      </c>
+      <c r="Q152">
         <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="R142">
+        <v>770</v>
+      </c>
+      <c r="R152">
         <f t="shared" si="2"/>
-        <v>781</v>
-      </c>
-      <c r="S142">
+        <v>1398</v>
+      </c>
+      <c r="S152">
         <f t="shared" si="2"/>
-        <v>982</v>
-      </c>
-      <c r="T142">
+        <v>1427</v>
+      </c>
+      <c r="T152">
         <f t="shared" si="2"/>
-        <v>317</v>
-      </c>
-      <c r="U142">
+        <v>321</v>
+      </c>
+      <c r="U152">
         <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="V142">
+        <v>531</v>
+      </c>
+      <c r="V152">
         <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="W142">
+        <v>145</v>
+      </c>
+      <c r="W152">
         <f t="shared" si="2"/>
-        <v>297</v>
-      </c>
-      <c r="X142">
+        <v>413</v>
+      </c>
+      <c r="X152">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="Y142">
+      <c r="Y152">
         <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="Z142">
+        <v>154</v>
+      </c>
+      <c r="Z152">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AA142">
+        <v>143</v>
+      </c>
+      <c r="AA152">
         <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="AB142">
+        <v>101</v>
+      </c>
+      <c r="AB152">
         <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="AC142">
+        <v>110</v>
+      </c>
+      <c r="AC152">
         <f t="shared" si="2"/>
-        <v>298</v>
-      </c>
-      <c r="AD142">
+        <v>591</v>
+      </c>
+      <c r="AD152">
         <f t="shared" si="2"/>
-        <v>278</v>
-      </c>
-      <c r="AE142">
+        <v>409</v>
+      </c>
+      <c r="AE152">
         <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="AF142">
+        <v>88</v>
+      </c>
+      <c r="AF152">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AG142">
+        <v>5</v>
+      </c>
+      <c r="AG152">
         <f t="shared" si="2"/>
-        <v>198</v>
-      </c>
-      <c r="AH142">
+        <v>254</v>
+      </c>
+      <c r="AH152">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AI142">
+        <v>30</v>
+      </c>
+      <c r="AI152">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="AJ142">
+        <v>62</v>
+      </c>
+      <c r="AJ152">
         <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="AK142">
+        <v>318</v>
+      </c>
+      <c r="AK152">
         <f t="shared" si="2"/>
-        <v>285</v>
-      </c>
-      <c r="AL142">
+        <v>646</v>
+      </c>
+      <c r="AL152">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM142">
+        <v>10</v>
+      </c>
+      <c r="AM152">
         <f t="shared" si="2"/>
-        <v>8253</v>
-      </c>
-      <c r="AN142">
+        <v>13999</v>
+      </c>
+      <c r="AN152">
         <f t="shared" si="2"/>
-        <v>554</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="145" spans="42:42">
-      <c r="AP145">
-        <f>SUM(AO2:AO129)</f>
-        <v>23299</v>
+    <row r="155" spans="1:42">
+      <c r="AP155">
+        <f>SUM(AO2:AO148)</f>
+        <v>34260</v>
       </c>
     </row>
   </sheetData>
@@ -18933,11 +20331,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN129"/>
+  <dimension ref="A1:AO129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z131" sqref="Z131"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18945,7 +20343,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19066,8 +20464,11 @@
       <c r="AN1" t="s">
         <v>37</v>
       </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>43888.653217592589</v>
       </c>
@@ -19188,8 +20589,11 @@
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>43889.042083333334</v>
       </c>
@@ -19310,8 +20714,11 @@
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>43890.101990740739</v>
       </c>
@@ -19432,8 +20839,11 @@
       <c r="AN4">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>43891.947314814817</v>
       </c>
@@ -19554,8 +20964,11 @@
       <c r="AN5">
         <v>0</v>
       </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>43892.495162037034</v>
       </c>
@@ -19676,8 +21089,11 @@
       <c r="AN6">
         <v>0</v>
       </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>43893.573935185188</v>
       </c>
@@ -19798,8 +21214,11 @@
       <c r="AN7">
         <v>0</v>
       </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>43894.98841435185</v>
       </c>
@@ -19920,8 +21339,11 @@
       <c r="AN8">
         <v>0</v>
       </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>43895.455000000002</v>
       </c>
@@ -20042,8 +21464,11 @@
       <c r="AN9">
         <v>0</v>
       </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="1">
         <v>43896.191331018519</v>
       </c>
@@ -20164,8 +21589,11 @@
       <c r="AN10">
         <v>0</v>
       </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" s="1">
         <v>43897.299085648148</v>
       </c>
@@ -20286,8 +21714,11 @@
       <c r="AN11">
         <v>0</v>
       </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" s="1">
         <v>43898.433333333334</v>
       </c>
@@ -20408,8 +21839,11 @@
       <c r="AN12">
         <v>0</v>
       </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:41">
       <c r="A13" s="1">
         <v>43899.12159722222</v>
       </c>
@@ -20530,8 +21964,11 @@
       <c r="AN13">
         <v>0</v>
       </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:41">
       <c r="A14" s="1">
         <v>43900.040821759256</v>
       </c>
@@ -20652,8 +22089,11 @@
       <c r="AN14">
         <v>0</v>
       </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:41">
       <c r="A15" s="1">
         <v>43901.979224537034</v>
       </c>
@@ -20774,8 +22214,11 @@
       <c r="AN15">
         <v>0</v>
       </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:41">
       <c r="A16" s="1">
         <v>43902.444004629629</v>
       </c>
@@ -20896,8 +22339,11 @@
       <c r="AN16">
         <v>0</v>
       </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:41">
       <c r="A17" s="1">
         <v>43903.627766203703</v>
       </c>
@@ -21018,8 +22464,11 @@
       <c r="AN17">
         <v>0</v>
       </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:41">
       <c r="A18" s="1">
         <v>43904.682037037041</v>
       </c>
@@ -21140,8 +22589,11 @@
       <c r="AN18">
         <v>0</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:41">
       <c r="A19" s="1">
         <v>43905.982592592591</v>
       </c>
@@ -21262,8 +22714,11 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:41">
       <c r="A20" s="1">
         <v>43906.245150462964</v>
       </c>
@@ -21384,8 +22839,11 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:41">
       <c r="A21" s="1">
         <v>43907.109988425924</v>
       </c>
@@ -21506,8 +22964,11 @@
       <c r="AN21">
         <v>0</v>
       </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:41">
       <c r="A22" s="1">
         <v>43908.359942129631</v>
       </c>
@@ -21628,8 +23089,11 @@
       <c r="AN22">
         <v>0</v>
       </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:41">
       <c r="A23" s="1">
         <v>43909.612037037034</v>
       </c>
@@ -21750,8 +23214,11 @@
       <c r="AN23">
         <v>0</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:41">
       <c r="A24" s="1">
         <v>43910.305115740739</v>
       </c>
@@ -21872,8 +23339,11 @@
       <c r="AN24">
         <v>0</v>
       </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:41">
       <c r="A25" s="1">
         <v>43911.948449074072</v>
       </c>
@@ -21994,8 +23464,11 @@
       <c r="AN25">
         <v>0</v>
       </c>
+      <c r="AO25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:41">
       <c r="A26" s="1">
         <v>43912.011678240742</v>
       </c>
@@ -22116,8 +23589,11 @@
       <c r="AN26">
         <v>0</v>
       </c>
+      <c r="AO26">
+        <v>21</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:41">
       <c r="A27" s="1">
         <v>43913.073622685188</v>
       </c>
@@ -22238,8 +23714,11 @@
       <c r="AN27">
         <v>1</v>
       </c>
+      <c r="AO27">
+        <v>12</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:41">
       <c r="A28" s="1">
         <v>43914.210648148146</v>
       </c>
@@ -22360,8 +23839,11 @@
       <c r="AN28">
         <v>0</v>
       </c>
+      <c r="AO28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:41">
       <c r="A29" s="1">
         <v>43914.958784722221</v>
       </c>
@@ -22482,8 +23964,11 @@
       <c r="AN29">
         <v>0</v>
       </c>
+      <c r="AO29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:41">
       <c r="A30" s="1">
         <v>43915.643657407411</v>
       </c>
@@ -22604,8 +24089,11 @@
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30">
+        <v>5</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:41">
       <c r="A31" s="1">
         <v>43916.52484953704</v>
       </c>
@@ -22726,8 +24214,11 @@
       <c r="AN31">
         <v>0</v>
       </c>
+      <c r="AO31">
+        <v>14</v>
+      </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:41">
       <c r="A32" s="1">
         <v>43917.500486111108</v>
       </c>
@@ -22848,8 +24339,11 @@
       <c r="AN32">
         <v>0</v>
       </c>
+      <c r="AO32">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:41">
       <c r="A33" s="1">
         <v>43917.663784722223</v>
       </c>
@@ -22970,8 +24464,11 @@
       <c r="AN33">
         <v>0</v>
       </c>
+      <c r="AO33">
+        <v>11</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:41">
       <c r="A34" s="1">
         <v>43918.341932870368</v>
       </c>
@@ -23092,8 +24589,11 @@
       <c r="AN34">
         <v>0</v>
       </c>
+      <c r="AO34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:41">
       <c r="A35" s="1">
         <v>43918.611828703702</v>
       </c>
@@ -23214,8 +24714,11 @@
       <c r="AN35">
         <v>0</v>
       </c>
+      <c r="AO35">
+        <v>8</v>
+      </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:41">
       <c r="A36" s="1">
         <v>43919.569398148145</v>
       </c>
@@ -23336,8 +24839,11 @@
       <c r="AN36">
         <v>0</v>
       </c>
+      <c r="AO36">
+        <v>14</v>
+      </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:41">
       <c r="A37" s="1">
         <v>43920.541979166665</v>
       </c>
@@ -23458,8 +24964,11 @@
       <c r="AN37">
         <v>1</v>
       </c>
+      <c r="AO37">
+        <v>20</v>
+      </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:41">
       <c r="A38" s="1">
         <v>43921.137361111112</v>
       </c>
@@ -23580,8 +25089,11 @@
       <c r="AN38">
         <v>0</v>
       </c>
+      <c r="AO38">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:41">
       <c r="A39" s="1">
         <v>43921.500358796293</v>
       </c>
@@ -23702,8 +25214,11 @@
       <c r="AN39">
         <v>0</v>
       </c>
+      <c r="AO39">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:41">
       <c r="A40" s="1">
         <v>43922.187604166669</v>
       </c>
@@ -23824,8 +25339,11 @@
       <c r="AN40">
         <v>0</v>
       </c>
+      <c r="AO40">
+        <v>12</v>
+      </c>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:41">
       <c r="A41" s="1">
         <v>43922.500208333331</v>
       </c>
@@ -23946,8 +25464,11 @@
       <c r="AN41">
         <v>0</v>
       </c>
+      <c r="AO41">
+        <v>23</v>
+      </c>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:41">
       <c r="A42" s="1">
         <v>43923.500648148147</v>
       </c>
@@ -24068,8 +25589,11 @@
       <c r="AN42">
         <v>0</v>
       </c>
+      <c r="AO42">
+        <v>10</v>
+      </c>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:41">
       <c r="A43" s="1">
         <v>43924.126400462963</v>
       </c>
@@ -24190,8 +25714,11 @@
       <c r="AN43">
         <v>0</v>
       </c>
+      <c r="AO43">
+        <v>6</v>
+      </c>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:41">
       <c r="A44" s="1">
         <v>43925.590798611112</v>
       </c>
@@ -24312,8 +25839,11 @@
       <c r="AN44">
         <v>2</v>
       </c>
+      <c r="AO44">
+        <v>24</v>
+      </c>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:41">
       <c r="A45" s="1">
         <v>43926.142210648148</v>
       </c>
@@ -24434,8 +25964,11 @@
       <c r="AN45">
         <v>1</v>
       </c>
+      <c r="AO45">
+        <v>10</v>
+      </c>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:41">
       <c r="A46" s="1">
         <v>43926.564062500001</v>
       </c>
@@ -24556,8 +26089,11 @@
       <c r="AN46">
         <v>0</v>
       </c>
+      <c r="AO46">
+        <v>8</v>
+      </c>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:41">
       <c r="A47" s="1">
         <v>43927.56287037037</v>
       </c>
@@ -24678,8 +26214,11 @@
       <c r="AN47">
         <v>0</v>
       </c>
+      <c r="AO47">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:41">
       <c r="A48" s="1">
         <v>43928.563379629632</v>
       </c>
@@ -24800,8 +26339,11 @@
       <c r="AN48">
         <v>1</v>
       </c>
+      <c r="AO48">
+        <v>16</v>
+      </c>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:41">
       <c r="A49" s="1">
         <v>43929.542685185188</v>
       </c>
@@ -24922,8 +26464,11 @@
       <c r="AN49">
         <v>0</v>
       </c>
+      <c r="AO49">
+        <v>22</v>
+      </c>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:41">
       <c r="A50" s="1">
         <v>43930.563101851854</v>
       </c>
@@ -25044,8 +26589,11 @@
       <c r="AN50">
         <v>1</v>
       </c>
+      <c r="AO50">
+        <v>14</v>
+      </c>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" spans="1:41">
       <c r="A51" s="1">
         <v>43931.568472222221</v>
       </c>
@@ -25166,8 +26714,11 @@
       <c r="AN51">
         <v>0</v>
       </c>
+      <c r="AO51">
+        <v>17</v>
+      </c>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:41">
       <c r="A52" s="1">
         <v>43932.562881944446</v>
       </c>
@@ -25288,8 +26839,11 @@
       <c r="AN52">
         <v>3</v>
       </c>
+      <c r="AO52">
+        <v>13</v>
+      </c>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:41">
       <c r="A53" s="1">
         <v>43933.549942129626</v>
       </c>
@@ -25410,8 +26964,11 @@
       <c r="AN53">
         <v>0</v>
       </c>
+      <c r="AO53">
+        <v>5</v>
+      </c>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" spans="1:41">
       <c r="A54" s="1">
         <v>43934.576504629629</v>
       </c>
@@ -25532,8 +27089,11 @@
       <c r="AN54">
         <v>0</v>
       </c>
+      <c r="AO54">
+        <v>20</v>
+      </c>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:41">
       <c r="A55" s="1">
         <v>43935.556701388887</v>
       </c>
@@ -25654,8 +27214,11 @@
       <c r="AN55">
         <v>0</v>
       </c>
+      <c r="AO55">
+        <v>19</v>
+      </c>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" spans="1:41">
       <c r="A56" s="1">
         <v>43935.62605324074</v>
       </c>
@@ -25776,8 +27339,11 @@
       <c r="AN56">
         <v>1</v>
       </c>
+      <c r="AO56">
+        <v>11</v>
+      </c>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" spans="1:41">
       <c r="A57" s="1">
         <v>43936.641458333332</v>
       </c>
@@ -25898,8 +27464,11 @@
       <c r="AN57">
         <v>1</v>
       </c>
+      <c r="AO57">
+        <v>34</v>
+      </c>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:41">
       <c r="A58" s="1">
         <v>43937.597881944443</v>
       </c>
@@ -26020,8 +27589,11 @@
       <c r="AN58">
         <v>1</v>
       </c>
+      <c r="AO58">
+        <v>35</v>
+      </c>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:41">
       <c r="A59" s="1">
         <v>43938.590497685182</v>
       </c>
@@ -26142,8 +27714,11 @@
       <c r="AN59">
         <v>5</v>
       </c>
+      <c r="AO59">
+        <v>51</v>
+      </c>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" spans="1:41">
       <c r="A60" s="1">
         <v>43939.615011574075</v>
       </c>
@@ -26264,8 +27839,11 @@
       <c r="AN60">
         <v>2</v>
       </c>
+      <c r="AO60">
+        <v>49</v>
+      </c>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:41">
       <c r="A61" s="1">
         <v>43940.66679398148</v>
       </c>
@@ -26386,8 +27964,11 @@
       <c r="AN61">
         <v>2</v>
       </c>
+      <c r="AO61">
+        <v>86</v>
+      </c>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:41">
       <c r="A62" s="1">
         <v>43941.634942129633</v>
       </c>
@@ -26508,8 +28089,11 @@
       <c r="AN62">
         <v>1</v>
       </c>
+      <c r="AO62">
+        <v>38</v>
+      </c>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:41">
       <c r="A63" s="1">
         <v>43942.651956018519</v>
       </c>
@@ -26630,8 +28214,11 @@
       <c r="AN63">
         <v>3</v>
       </c>
+      <c r="AO63">
+        <v>117</v>
+      </c>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" spans="1:41">
       <c r="A64" s="1">
         <v>43943.643599537034</v>
       </c>
@@ -26752,8 +28339,11 @@
       <c r="AN64">
         <v>3</v>
       </c>
+      <c r="AO64">
+        <v>91</v>
+      </c>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:41">
       <c r="A65" s="1">
         <v>43944.657534722224</v>
       </c>
@@ -26874,8 +28464,11 @@
       <c r="AN65">
         <v>3</v>
       </c>
+      <c r="AO65">
+        <v>108</v>
+      </c>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:41">
       <c r="A66" s="1">
         <v>43945.662118055552</v>
       </c>
@@ -26996,8 +28589,11 @@
       <c r="AN66">
         <v>1</v>
       </c>
+      <c r="AO66">
+        <v>114</v>
+      </c>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:41">
       <c r="A67" s="1">
         <v>43946.66646990741</v>
       </c>
@@ -27118,8 +28714,11 @@
       <c r="AN67">
         <v>2</v>
       </c>
+      <c r="AO67">
+        <v>87</v>
+      </c>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:41">
       <c r="A68" s="1">
         <v>43947.675543981481</v>
       </c>
@@ -27240,8 +28839,11 @@
       <c r="AN68">
         <v>5</v>
       </c>
+      <c r="AO68">
+        <v>86</v>
+      </c>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" spans="1:41">
       <c r="A69" s="1">
         <v>43948.650833333333</v>
       </c>
@@ -27362,8 +28964,11 @@
       <c r="AN69">
         <v>0</v>
       </c>
+      <c r="AO69">
+        <v>65</v>
+      </c>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" spans="1:41">
       <c r="A70" s="1">
         <v>43949.669594907406</v>
       </c>
@@ -27484,8 +29089,11 @@
       <c r="AN70">
         <v>4</v>
       </c>
+      <c r="AO70">
+        <v>195</v>
+      </c>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" spans="1:41">
       <c r="A71" s="1">
         <v>43950.665775462963</v>
       </c>
@@ -27606,8 +29214,11 @@
       <c r="AN71">
         <v>7</v>
       </c>
+      <c r="AO71">
+        <v>196</v>
+      </c>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:41">
       <c r="A72" s="1">
         <v>43951.661261574074</v>
       </c>
@@ -27728,8 +29339,11 @@
       <c r="AN72">
         <v>7</v>
       </c>
+      <c r="AO72">
+        <v>204</v>
+      </c>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:41">
       <c r="A73" s="1">
         <v>43952.629270833335</v>
       </c>
@@ -27850,8 +29464,11 @@
       <c r="AN73">
         <v>10</v>
       </c>
+      <c r="AO73">
+        <v>238</v>
+      </c>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:41">
       <c r="A74" s="1">
         <v>43953.663969907408</v>
       </c>
@@ -27972,8 +29589,11 @@
       <c r="AN74">
         <v>17</v>
       </c>
+      <c r="AO74">
+        <v>220</v>
+      </c>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:41">
       <c r="A75" s="1">
         <v>43954.667430555557</v>
       </c>
@@ -28094,8 +29714,11 @@
       <c r="AN75">
         <v>2</v>
       </c>
+      <c r="AO75">
+        <v>169</v>
+      </c>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" spans="1:41">
       <c r="A76" s="1">
         <v>43955.657326388886</v>
       </c>
@@ -28216,8 +29839,11 @@
       <c r="AN76">
         <v>6</v>
       </c>
+      <c r="AO76">
+        <v>245</v>
+      </c>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" spans="1:41">
       <c r="A77" s="1">
         <v>43956.6565162037</v>
       </c>
@@ -28338,8 +29964,11 @@
       <c r="AN77">
         <v>5</v>
       </c>
+      <c r="AO77">
+        <v>148</v>
+      </c>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" spans="1:41">
       <c r="A78" s="1">
         <v>43957.667824074073</v>
       </c>
@@ -28460,8 +30089,11 @@
       <c r="AN78">
         <v>5</v>
       </c>
+      <c r="AO78">
+        <v>195</v>
+      </c>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:41">
       <c r="A79" s="1">
         <v>43958.639444444445</v>
       </c>
@@ -28582,8 +30214,11 @@
       <c r="AN79">
         <v>4</v>
       </c>
+      <c r="AO79">
+        <v>380</v>
+      </c>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:41">
       <c r="A80" s="1">
         <v>43959.649583333332</v>
       </c>
@@ -28704,8 +30339,11 @@
       <c r="AN80">
         <v>10</v>
       </c>
+      <c r="AO80">
+        <v>386</v>
+      </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:41">
       <c r="A81" s="1">
         <v>43960.633877314816</v>
       </c>
@@ -28826,8 +30464,11 @@
       <c r="AN81">
         <v>11</v>
       </c>
+      <c r="AO81">
+        <v>239</v>
+      </c>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:41">
       <c r="A82" s="1">
         <v>43961.656747685185</v>
       </c>
@@ -28948,8 +30589,11 @@
       <c r="AN82">
         <v>15</v>
       </c>
+      <c r="AO82">
+        <v>248</v>
+      </c>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:41">
       <c r="A83" s="1">
         <v>43962.656817129631</v>
       </c>
@@ -29070,8 +30714,11 @@
       <c r="AN83">
         <v>7</v>
       </c>
+      <c r="AO83">
+        <v>242</v>
+      </c>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" spans="1:41">
       <c r="A84" s="1">
         <v>43963.662939814814</v>
       </c>
@@ -29192,8 +30839,11 @@
       <c r="AN84">
         <v>8</v>
       </c>
+      <c r="AO84">
+        <v>146</v>
+      </c>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" spans="1:41">
       <c r="A85" s="1">
         <v>43964.645231481481</v>
       </c>
@@ -29314,8 +30964,11 @@
       <c r="AN85">
         <v>6</v>
       </c>
+      <c r="AO85">
+        <v>182</v>
+      </c>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:41">
       <c r="A86" s="1">
         <v>43965.666458333333</v>
       </c>
@@ -29436,8 +31089,11 @@
       <c r="AN86">
         <v>3</v>
       </c>
+      <c r="AO86">
+        <v>189</v>
+      </c>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:41">
       <c r="A87" s="1">
         <v>43966.657893518517</v>
       </c>
@@ -29558,8 +31214,11 @@
       <c r="AN87">
         <v>4</v>
       </c>
+      <c r="AO87">
+        <v>288</v>
+      </c>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:41">
       <c r="A88" s="1">
         <v>43967.664201388892</v>
       </c>
@@ -29680,8 +31339,11 @@
       <c r="AN88">
         <v>5</v>
       </c>
+      <c r="AO88">
+        <v>176</v>
+      </c>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:41">
       <c r="A89" s="1">
         <v>43968.632280092592</v>
       </c>
@@ -29802,8 +31464,11 @@
       <c r="AN89">
         <v>6</v>
       </c>
+      <c r="AO89">
+        <v>338</v>
+      </c>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:41">
       <c r="A90" s="1">
         <v>43969.662060185183</v>
       </c>
@@ -29924,8 +31589,11 @@
       <c r="AN90">
         <v>9</v>
       </c>
+      <c r="AO90">
+        <v>208</v>
+      </c>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:41">
       <c r="A91" s="1">
         <v>43970.65216435185</v>
       </c>
@@ -30046,8 +31714,11 @@
       <c r="AN91">
         <v>1</v>
       </c>
+      <c r="AO91">
+        <v>226</v>
+      </c>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:41">
       <c r="A92" s="1">
         <v>43971.639363425929</v>
       </c>
@@ -30168,8 +31839,11 @@
       <c r="AN92">
         <v>8</v>
       </c>
+      <c r="AO92">
+        <v>284</v>
+      </c>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:41">
       <c r="A93" s="1">
         <v>43972.658599537041</v>
       </c>
@@ -30290,8 +31964,11 @@
       <c r="AN93">
         <v>11</v>
       </c>
+      <c r="AO93">
+        <v>339</v>
+      </c>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:41">
       <c r="A94" s="1">
         <v>43973.649317129632</v>
       </c>
@@ -30412,8 +32089,11 @@
       <c r="AN94">
         <v>10</v>
       </c>
+      <c r="AO94">
+        <v>245</v>
+      </c>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" spans="1:41">
       <c r="A95" s="1">
         <v>43974.66070601852</v>
       </c>
@@ -30534,8 +32214,11 @@
       <c r="AN95">
         <v>0</v>
       </c>
+      <c r="AO95">
+        <v>265</v>
+      </c>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:41">
       <c r="A96" s="1">
         <v>43975.632037037038</v>
       </c>
@@ -30656,8 +32339,11 @@
       <c r="AN96">
         <v>5</v>
       </c>
+      <c r="AO96">
+        <v>313</v>
+      </c>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" spans="1:41">
       <c r="A97" s="1">
         <v>43976.648993055554</v>
       </c>
@@ -30778,8 +32464,11 @@
       <c r="AN97">
         <v>7</v>
       </c>
+      <c r="AO97">
+        <v>229</v>
+      </c>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" spans="1:41">
       <c r="A98" s="1">
         <v>43977.646331018521</v>
       </c>
@@ -30900,8 +32589,11 @@
       <c r="AN98">
         <v>16</v>
       </c>
+      <c r="AO98">
+        <v>276</v>
+      </c>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" spans="1:41">
       <c r="A99" s="1">
         <v>43978.655694444446</v>
       </c>
@@ -31022,8 +32714,11 @@
       <c r="AN99">
         <v>5</v>
       </c>
+      <c r="AO99">
+        <v>389</v>
+      </c>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:41">
       <c r="A100" s="1">
         <v>43979.643958333334</v>
       </c>
@@ -31144,8 +32839,11 @@
       <c r="AN100">
         <v>5</v>
       </c>
+      <c r="AO100">
+        <v>182</v>
+      </c>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:41">
       <c r="A101" s="1">
         <v>43980.656956018516</v>
       </c>
@@ -31266,8 +32964,11 @@
       <c r="AN101">
         <v>2</v>
       </c>
+      <c r="AO101">
+        <v>387</v>
+      </c>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:41">
       <c r="A102" s="1">
         <v>43981.663819444446</v>
       </c>
@@ -31388,8 +33089,11 @@
       <c r="AN102">
         <v>12</v>
       </c>
+      <c r="AO102">
+        <v>553</v>
+      </c>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:41">
       <c r="A103" s="1">
         <v>43982.643483796295</v>
       </c>
@@ -31510,8 +33214,11 @@
       <c r="AN103">
         <v>14</v>
       </c>
+      <c r="AO103">
+        <v>307</v>
+      </c>
     </row>
-    <row r="104" spans="1:40">
+    <row r="104" spans="1:41">
       <c r="A104" s="1">
         <v>43983.661226851851</v>
       </c>
@@ -31632,8 +33339,11 @@
       <c r="AN104">
         <v>12</v>
       </c>
+      <c r="AO104">
+        <v>416</v>
+      </c>
     </row>
-    <row r="105" spans="1:40">
+    <row r="105" spans="1:41">
       <c r="A105" s="1">
         <v>43984.658182870371</v>
       </c>
@@ -31754,8 +33464,11 @@
       <c r="AN105">
         <v>15</v>
       </c>
+      <c r="AO105">
+        <v>241</v>
+      </c>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" spans="1:41">
       <c r="A106" s="1">
         <v>43985.658182870371</v>
       </c>
@@ -31876,8 +33589,11 @@
       <c r="AN106">
         <v>1</v>
       </c>
+      <c r="AO106">
+        <v>348</v>
+      </c>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" spans="1:41">
       <c r="A107" s="1">
         <v>43986.655428240738</v>
       </c>
@@ -31998,8 +33714,11 @@
       <c r="AN107">
         <v>8</v>
       </c>
+      <c r="AO107">
+        <v>350</v>
+      </c>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" spans="1:41">
       <c r="A108" s="1">
         <v>43987.654479166667</v>
       </c>
@@ -32120,8 +33839,11 @@
       <c r="AN108">
         <v>10</v>
       </c>
+      <c r="AO108">
+        <v>328</v>
+      </c>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:41">
       <c r="A109" s="1">
         <v>43988.651643518519</v>
       </c>
@@ -32242,8 +33964,11 @@
       <c r="AN109">
         <v>9</v>
       </c>
+      <c r="AO109">
+        <v>382</v>
+      </c>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:41">
       <c r="A110" s="2">
         <v>43989.65902777778</v>
       </c>
@@ -32364,8 +34089,11 @@
       <c r="AN110" s="3">
         <v>12</v>
       </c>
+      <c r="AO110">
+        <v>260</v>
+      </c>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:41">
       <c r="A111" s="1">
         <v>43990.653969907406</v>
       </c>
@@ -32486,8 +34214,11 @@
       <c r="AN111">
         <v>7</v>
       </c>
+      <c r="AO111">
+        <v>315</v>
+      </c>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:41">
       <c r="A112" s="1">
         <v>43991.6565162037</v>
       </c>
@@ -32608,8 +34339,11 @@
       <c r="AN112">
         <v>4</v>
       </c>
+      <c r="AO112">
+        <v>663</v>
+      </c>
     </row>
-    <row r="113" spans="1:40">
+    <row r="113" spans="1:41">
       <c r="A113" s="1">
         <v>43992.661678240744</v>
       </c>
@@ -32730,8 +34464,11 @@
       <c r="AN113">
         <v>17</v>
       </c>
+      <c r="AO113">
+        <v>409</v>
+      </c>
     </row>
-    <row r="114" spans="1:40">
+    <row r="114" spans="1:41">
       <c r="A114" s="1">
         <v>43993.65861111111</v>
       </c>
@@ -32852,8 +34589,11 @@
       <c r="AN114">
         <v>5</v>
       </c>
+      <c r="AO114">
+        <v>681</v>
+      </c>
     </row>
-    <row r="115" spans="1:40">
+    <row r="115" spans="1:41">
       <c r="A115" s="1">
         <v>43994.655590277776</v>
       </c>
@@ -32974,8 +34714,11 @@
       <c r="AN115">
         <v>12</v>
       </c>
+      <c r="AO115">
+        <v>627</v>
+      </c>
     </row>
-    <row r="116" spans="1:40">
+    <row r="116" spans="1:41">
       <c r="A116" s="1">
         <v>43995.654722222222</v>
       </c>
@@ -33096,8 +34839,11 @@
       <c r="AN116">
         <v>8</v>
       </c>
+      <c r="AO116">
+        <v>501</v>
+      </c>
     </row>
-    <row r="117" spans="1:40">
+    <row r="117" spans="1:41">
       <c r="A117" s="1">
         <v>43996.655335648145</v>
       </c>
@@ -33218,8 +34964,11 @@
       <c r="AN117">
         <v>13</v>
       </c>
+      <c r="AO117">
+        <v>403</v>
+      </c>
     </row>
-    <row r="118" spans="1:40">
+    <row r="118" spans="1:41">
       <c r="A118" s="1">
         <v>43997.66034722222</v>
       </c>
@@ -33340,8 +35089,11 @@
       <c r="AN118">
         <v>4</v>
       </c>
+      <c r="AO118">
+        <v>573</v>
+      </c>
     </row>
-    <row r="119" spans="1:40">
+    <row r="119" spans="1:41">
       <c r="A119" s="1">
         <v>43998.66715277778</v>
       </c>
@@ -33462,8 +35214,11 @@
       <c r="AN119">
         <v>31</v>
       </c>
+      <c r="AO119">
+        <v>490</v>
+      </c>
     </row>
-    <row r="120" spans="1:40">
+    <row r="120" spans="1:41">
       <c r="A120" s="1">
         <v>43999.637974537036</v>
       </c>
@@ -33584,8 +35339,11 @@
       <c r="AN120">
         <v>14</v>
       </c>
+      <c r="AO120">
+        <v>587</v>
+      </c>
     </row>
-    <row r="121" spans="1:40">
+    <row r="121" spans="1:41">
       <c r="A121" s="1">
         <v>44000.655023148145</v>
       </c>
@@ -33706,8 +35464,11 @@
       <c r="AN121">
         <v>6</v>
       </c>
+      <c r="AO121">
+        <v>745</v>
+      </c>
     </row>
-    <row r="122" spans="1:40">
+    <row r="122" spans="1:41">
       <c r="A122" s="1">
         <v>44001.628831018519</v>
       </c>
@@ -33828,8 +35589,11 @@
       <c r="AN122">
         <v>12</v>
       </c>
+      <c r="AO122">
+        <v>667</v>
+      </c>
     </row>
-    <row r="123" spans="1:40">
+    <row r="123" spans="1:41">
       <c r="A123" s="1">
         <v>44002.645497685182</v>
       </c>
@@ -33950,8 +35714,11 @@
       <c r="AN123">
         <v>19</v>
       </c>
+      <c r="AO123">
+        <v>661</v>
+      </c>
     </row>
-    <row r="124" spans="1:40">
+    <row r="124" spans="1:41">
       <c r="A124" s="1">
         <v>44003.648101851853</v>
       </c>
@@ -34072,8 +35839,11 @@
       <c r="AN124">
         <v>12</v>
       </c>
+      <c r="AO124">
+        <v>436</v>
+      </c>
     </row>
-    <row r="125" spans="1:40">
+    <row r="125" spans="1:41">
       <c r="A125" s="1">
         <v>44004.63486111111</v>
       </c>
@@ -34194,8 +35964,11 @@
       <c r="AN125">
         <v>7</v>
       </c>
+      <c r="AO125">
+        <v>675</v>
+      </c>
     </row>
-    <row r="126" spans="1:40">
+    <row r="126" spans="1:41">
       <c r="A126" s="1">
         <v>44005.646134259259</v>
       </c>
@@ -34316,8 +36089,11 @@
       <c r="AN126">
         <v>8</v>
       </c>
+      <c r="AO126">
+        <v>452</v>
+      </c>
     </row>
-    <row r="127" spans="1:40">
+    <row r="127" spans="1:41">
       <c r="A127" s="1">
         <v>44006.641284722224</v>
       </c>
@@ -34438,8 +36214,11 @@
       <c r="AN127">
         <v>9</v>
       </c>
+      <c r="AO127">
+        <v>649</v>
+      </c>
     </row>
-    <row r="128" spans="1:40">
+    <row r="128" spans="1:41">
       <c r="A128" s="1">
         <v>44007.658310185187</v>
       </c>
@@ -34560,8 +36339,11 @@
       <c r="AN128">
         <v>7</v>
       </c>
+      <c r="AO128">
+        <v>594</v>
+      </c>
     </row>
-    <row r="129" spans="1:40">
+    <row r="129" spans="1:41">
       <c r="A129" s="1">
         <v>44008.659884259258</v>
       </c>
@@ -34681,6 +36463,9 @@
       </c>
       <c r="AN129">
         <v>5</v>
+      </c>
+      <c r="AO129">
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -460,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -677,7 +679,7 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="211">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -782,6 +784,7 @@
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -886,6 +889,7 @@
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1217,9 +1221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI178" sqref="AI178"/>
+      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20500,7 +20504,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO165" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO166" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -22017,24 +22021,26 @@
       </c>
     </row>
     <row r="166" spans="1:41">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>44045.643576388888</v>
+      </c>
       <c r="B166">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -22043,7 +22049,7 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -22058,19 +22064,19 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P166">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R166">
         <v>0</v>
       </c>
       <c r="S166">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T166">
         <v>0</v>
@@ -22082,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="W166">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X166">
         <v>0</v>
@@ -22091,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA166">
         <v>0</v>
@@ -22100,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="AC166">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD166">
         <v>0</v>
@@ -22112,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="AG166">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH166">
         <v>0</v>
@@ -22124,16 +22130,20 @@
         <v>0</v>
       </c>
       <c r="AK166">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL166">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM166">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AN166">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO166">
+        <f t="shared" si="2"/>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:41">
@@ -22978,11 +22988,11 @@
     <row r="174" spans="1:41">
       <c r="B174">
         <f>SUM(B2:B173)</f>
-        <v>15186</v>
+        <v>15267</v>
       </c>
       <c r="C174">
         <f t="shared" ref="C174:AN174" si="3">SUM(C2:C173)</f>
-        <v>3933</v>
+        <v>3972</v>
       </c>
       <c r="D174">
         <f t="shared" si="3"/>
@@ -22990,7 +23000,7 @@
       </c>
       <c r="E174">
         <f t="shared" si="3"/>
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="F174">
         <f t="shared" si="3"/>
@@ -22998,7 +23008,7 @@
       </c>
       <c r="G174">
         <f t="shared" si="3"/>
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H174">
         <f t="shared" si="3"/>
@@ -23010,7 +23020,7 @@
       </c>
       <c r="J174">
         <f t="shared" si="3"/>
-        <v>2300</v>
+        <v>2311</v>
       </c>
       <c r="K174">
         <f t="shared" si="3"/>
@@ -23030,15 +23040,15 @@
       </c>
       <c r="O174">
         <f t="shared" si="3"/>
-        <v>1457</v>
+        <v>1481</v>
       </c>
       <c r="P174">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Q174">
         <f t="shared" si="3"/>
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="R174">
         <f t="shared" si="3"/>
@@ -23046,7 +23056,7 @@
       </c>
       <c r="S174">
         <f t="shared" si="3"/>
-        <v>1806</v>
+        <v>1829</v>
       </c>
       <c r="T174">
         <f t="shared" si="3"/>
@@ -23062,7 +23072,7 @@
       </c>
       <c r="W174">
         <f t="shared" si="3"/>
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="X174">
         <f t="shared" si="3"/>
@@ -23074,7 +23084,7 @@
       </c>
       <c r="Z174">
         <f t="shared" si="3"/>
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AA174">
         <f t="shared" si="3"/>
@@ -23086,7 +23096,7 @@
       </c>
       <c r="AC174">
         <f t="shared" si="3"/>
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="AD174">
         <f t="shared" si="3"/>
@@ -23102,7 +23112,7 @@
       </c>
       <c r="AG174">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AH174">
         <f t="shared" si="3"/>
@@ -23118,25 +23128,25 @@
       </c>
       <c r="AK174">
         <f t="shared" si="3"/>
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="AL174">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AM174">
         <f t="shared" si="3"/>
-        <v>20087</v>
+        <v>20308</v>
       </c>
       <c r="AN174">
         <f t="shared" si="3"/>
-        <v>883</v>
+        <v>888</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177">
-        <f>SUM(AO2:AO165)</f>
-        <v>43544</v>
+        <f>SUM(AO2:AO166)</f>
+        <v>43848</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE4A4E-F7AA-1E41-9A5A-8C173D8C6CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1840" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="620" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
     <sheet name="experimentation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hedgar Ajakaiye</author>
   </authors>
   <commentList>
-    <comment ref="G69" authorId="0">
+    <comment ref="G69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="0">
+    <comment ref="I69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M79" authorId="0">
+    <comment ref="M79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O85" authorId="0">
+    <comment ref="O85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC86" authorId="0">
+    <comment ref="AC86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X90" authorId="0">
+    <comment ref="X90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T109" authorId="0">
+    <comment ref="T109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -209,12 +223,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hedgar Ajakaiye</author>
   </authors>
   <commentList>
-    <comment ref="G69" authorId="0">
+    <comment ref="G69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="0">
+    <comment ref="I69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -894,6 +908,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1218,20 +1240,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A178" sqref="A178:AO178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43888.653217592589</v>
       </c>
@@ -1482,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43889.042083333334</v>
       </c>
@@ -1608,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43890.101990740739</v>
       </c>
@@ -1734,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43891.947314814817</v>
       </c>
@@ -1860,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43892.495162037034</v>
       </c>
@@ -1986,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43893.573935185188</v>
       </c>
@@ -2112,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43894.98841435185</v>
       </c>
@@ -2238,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43895.455000000002</v>
       </c>
@@ -2364,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43896.191331018519</v>
       </c>
@@ -2490,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43897.299085648148</v>
       </c>
@@ -2616,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43898.433333333334</v>
       </c>
@@ -2742,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43899.12159722222</v>
       </c>
@@ -2868,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43900.040821759256</v>
       </c>
@@ -2994,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43901.979224537034</v>
       </c>
@@ -3120,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43902.444004629629</v>
       </c>
@@ -3246,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43903.627766203703</v>
       </c>
@@ -3372,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43904.682037037041</v>
       </c>
@@ -3498,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43905.982592592591</v>
       </c>
@@ -3624,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43906.245150462964</v>
       </c>
@@ -3750,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43907.109988425924</v>
       </c>
@@ -3876,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43908.359942129631</v>
       </c>
@@ -4002,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43909.612037037034</v>
       </c>
@@ -4128,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43910.305115740739</v>
       </c>
@@ -4254,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43911.948449074072</v>
       </c>
@@ -4380,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43912.011678240742</v>
       </c>
@@ -4506,7 +4528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43913.073622685188</v>
       </c>
@@ -4632,7 +4654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43914.210648148146</v>
       </c>
@@ -4758,7 +4780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43914.958784722221</v>
       </c>
@@ -4884,7 +4906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43915.643657407411</v>
       </c>
@@ -5010,7 +5032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43916.52484953704</v>
       </c>
@@ -5136,7 +5158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43917.500486111108</v>
       </c>
@@ -5262,7 +5284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43917.663784722223</v>
       </c>
@@ -5388,7 +5410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43918.341932870368</v>
       </c>
@@ -5514,7 +5536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918.611828703702</v>
       </c>
@@ -5640,7 +5662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919.569398148145</v>
       </c>
@@ -5766,7 +5788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920.541979166665</v>
       </c>
@@ -5892,7 +5914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921.137361111112</v>
       </c>
@@ -6018,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43921.500358796293</v>
       </c>
@@ -6144,7 +6166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43922.187604166669</v>
       </c>
@@ -6270,7 +6292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43922.500208333331</v>
       </c>
@@ -6396,7 +6418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43923.500648148147</v>
       </c>
@@ -6522,7 +6544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43924.126400462963</v>
       </c>
@@ -6648,7 +6670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43925.590798611112</v>
       </c>
@@ -6774,7 +6796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43926.142210648148</v>
       </c>
@@ -6900,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43926.564062500001</v>
       </c>
@@ -7026,7 +7048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43927.56287037037</v>
       </c>
@@ -7152,7 +7174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43928.563379629632</v>
       </c>
@@ -7278,7 +7300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43929.542685185188</v>
       </c>
@@ -7404,7 +7426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43930.563101851854</v>
       </c>
@@ -7530,7 +7552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43931.568472222221</v>
       </c>
@@ -7656,7 +7678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43932.562881944446</v>
       </c>
@@ -7782,7 +7804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43933.549942129626</v>
       </c>
@@ -7908,7 +7930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43934.576504629629</v>
       </c>
@@ -8034,7 +8056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43935.556701388887</v>
       </c>
@@ -8160,7 +8182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43935.62605324074</v>
       </c>
@@ -8286,7 +8308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43936.641458333332</v>
       </c>
@@ -8412,7 +8434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43937.597881944443</v>
       </c>
@@ -8538,7 +8560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43938.590497685182</v>
       </c>
@@ -8664,7 +8686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43939.615011574075</v>
       </c>
@@ -8790,7 +8812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43940.66679398148</v>
       </c>
@@ -8916,7 +8938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43941.634942129633</v>
       </c>
@@ -9042,7 +9064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43942.651956018519</v>
       </c>
@@ -9168,7 +9190,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43943.643599537034</v>
       </c>
@@ -9294,7 +9316,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43944.657534722224</v>
       </c>
@@ -9420,7 +9442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43945.662118055552</v>
       </c>
@@ -9546,7 +9568,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43946.66646990741</v>
       </c>
@@ -9672,7 +9694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43947.675543981481</v>
       </c>
@@ -9798,7 +9820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43948.650833333333</v>
       </c>
@@ -9924,7 +9946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43949.669594907406</v>
       </c>
@@ -10050,7 +10072,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43950.665775462963</v>
       </c>
@@ -10176,7 +10198,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43951.661261574074</v>
       </c>
@@ -10302,7 +10324,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43952.629270833335</v>
       </c>
@@ -10428,7 +10450,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43953.663969907408</v>
       </c>
@@ -10554,7 +10576,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43954.667430555557</v>
       </c>
@@ -10680,7 +10702,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43955.657326388886</v>
       </c>
@@ -10806,7 +10828,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43956.6565162037</v>
       </c>
@@ -10932,7 +10954,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43957.667824074073</v>
       </c>
@@ -11058,7 +11080,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43958.639444444445</v>
       </c>
@@ -11184,7 +11206,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43959.649583333332</v>
       </c>
@@ -11310,7 +11332,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43960.633877314816</v>
       </c>
@@ -11436,7 +11458,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43961.656747685185</v>
       </c>
@@ -11562,7 +11584,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43962.656817129631</v>
       </c>
@@ -11688,7 +11710,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43963.662939814814</v>
       </c>
@@ -11814,7 +11836,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43964.645231481481</v>
       </c>
@@ -11940,7 +11962,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43965.666458333333</v>
       </c>
@@ -12066,7 +12088,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43966.657893518517</v>
       </c>
@@ -12192,7 +12214,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43967.664201388892</v>
       </c>
@@ -12318,7 +12340,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43968.632280092592</v>
       </c>
@@ -12444,7 +12466,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43969.662060185183</v>
       </c>
@@ -12570,7 +12592,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43970.65216435185</v>
       </c>
@@ -12696,7 +12718,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43971.639363425929</v>
       </c>
@@ -12822,7 +12844,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43972.658599537041</v>
       </c>
@@ -12948,7 +12970,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43973.649317129632</v>
       </c>
@@ -13074,7 +13096,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43974.66070601852</v>
       </c>
@@ -13200,7 +13222,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43975.632037037038</v>
       </c>
@@ -13326,7 +13348,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43976.648993055554</v>
       </c>
@@ -13452,7 +13474,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43977.646331018521</v>
       </c>
@@ -13578,7 +13600,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43978.655694444446</v>
       </c>
@@ -13704,7 +13726,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43979.643958333334</v>
       </c>
@@ -13830,7 +13852,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43980.656956018516</v>
       </c>
@@ -13956,7 +13978,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43981.663819444446</v>
       </c>
@@ -14082,7 +14104,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43982.643483796295</v>
       </c>
@@ -14208,7 +14230,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43983.661226851851</v>
       </c>
@@ -14334,7 +14356,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43984.658182870371</v>
       </c>
@@ -14460,7 +14482,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43985.658182870371</v>
       </c>
@@ -14586,7 +14608,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43986.655428240738</v>
       </c>
@@ -14712,7 +14734,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43987.654479166667</v>
       </c>
@@ -14838,7 +14860,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43988.651643518519</v>
       </c>
@@ -14964,7 +14986,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43989.659513888888</v>
       </c>
@@ -15090,7 +15112,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43990.653969907406</v>
       </c>
@@ -15216,7 +15238,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43991.6565162037</v>
       </c>
@@ -15342,7 +15364,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43992.661678240744</v>
       </c>
@@ -15468,7 +15490,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43993.65861111111</v>
       </c>
@@ -15594,7 +15616,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43994.655590277776</v>
       </c>
@@ -15720,7 +15742,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43995.654722222222</v>
       </c>
@@ -15846,7 +15868,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43996.655335648145</v>
       </c>
@@ -15972,7 +15994,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43997.66034722222</v>
       </c>
@@ -16098,7 +16120,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43998.66715277778</v>
       </c>
@@ -16224,7 +16246,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43999.637974537036</v>
       </c>
@@ -16350,7 +16372,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44000.655023148145</v>
       </c>
@@ -16476,7 +16498,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44001.628831018519</v>
       </c>
@@ -16602,7 +16624,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44002.645497685182</v>
       </c>
@@ -16728,7 +16750,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44003.648101851853</v>
       </c>
@@ -16854,7 +16876,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44004.63486111111</v>
       </c>
@@ -16980,7 +17002,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44005.646134259259</v>
       </c>
@@ -17106,7 +17128,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44006.641284722224</v>
       </c>
@@ -17232,7 +17254,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44007.658310185187</v>
       </c>
@@ -17358,7 +17380,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44008.659884259258</v>
       </c>
@@ -17484,7 +17506,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44009.654710648145</v>
       </c>
@@ -17610,7 +17632,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44010.644861111112</v>
       </c>
@@ -17736,7 +17758,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44011.641377314816</v>
       </c>
@@ -17862,7 +17884,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44012.659953703704</v>
       </c>
@@ -17988,7 +18010,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44013.662534722222</v>
       </c>
@@ -18114,7 +18136,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44014.661319444444</v>
       </c>
@@ -18240,7 +18262,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44015.661307870374</v>
       </c>
@@ -18366,7 +18388,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44016.649699074071</v>
       </c>
@@ -18492,7 +18514,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44017.650497685187</v>
       </c>
@@ -18618,7 +18640,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44018.64875</v>
       </c>
@@ -18744,7 +18766,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44019.6483912037</v>
       </c>
@@ -18870,7 +18892,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44020.661886574075</v>
       </c>
@@ -18996,7 +19018,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44021.646481481483</v>
       </c>
@@ -19122,7 +19144,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44022.65519675926</v>
       </c>
@@ -19248,7 +19270,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44023.657442129632</v>
       </c>
@@ -19374,7 +19396,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44024.639641203707</v>
       </c>
@@ -19500,7 +19522,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44025.65216435185</v>
       </c>
@@ -19626,7 +19648,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44026.651354166665</v>
       </c>
@@ -19752,7 +19774,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44027.705127314817</v>
       </c>
@@ -19878,7 +19900,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44028.662210648145</v>
       </c>
@@ -20004,7 +20026,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44029.658437500002</v>
       </c>
@@ -20102,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="AG150">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH150">
         <v>0</v>
@@ -20127,10 +20149,10 @@
       </c>
       <c r="AO150">
         <f t="shared" si="1"/>
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44030.641412037039</v>
       </c>
@@ -20256,7 +20278,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44031.646354166667</v>
       </c>
@@ -20382,7 +20404,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44032.649618055555</v>
       </c>
@@ -20504,11 +20526,11 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO166" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO178" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44033.663738425923</v>
       </c>
@@ -20634,7 +20656,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44034.635983796295</v>
       </c>
@@ -20760,7 +20782,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44035.648530092592</v>
       </c>
@@ -20886,7 +20908,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44036.643148148149</v>
       </c>
@@ -21012,7 +21034,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44037.664004629631</v>
       </c>
@@ -21138,7 +21160,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44038.617106481484</v>
       </c>
@@ -21264,7 +21286,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44039.647777777776</v>
       </c>
@@ -21390,7 +21412,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44040.645694444444</v>
       </c>
@@ -21516,7 +21538,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44041.636493055557</v>
       </c>
@@ -21642,7 +21664,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44042.638819444444</v>
       </c>
@@ -21768,7 +21790,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44043.644317129627</v>
       </c>
@@ -21894,7 +21916,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44044.644907407404</v>
       </c>
@@ -22020,7 +22042,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44045.643576388888</v>
       </c>
@@ -22146,28 +22168,30 @@
         <v>304</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
-      <c r="A167" s="1"/>
+    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44046.647048611114</v>
+      </c>
       <c r="B167">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -22176,19 +22200,19 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L167">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M167">
         <v>0</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O167">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -22197,22 +22221,22 @@
         <v>0</v>
       </c>
       <c r="R167">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S167">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T167">
         <v>0</v>
       </c>
       <c r="U167">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V167">
         <v>0</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X167">
         <v>0</v>
@@ -22230,7 +22254,7 @@
         <v>0</v>
       </c>
       <c r="AC167">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD167">
         <v>0</v>
@@ -22260,28 +22284,34 @@
         <v>0</v>
       </c>
       <c r="AM167">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="AN167">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO167">
+        <f t="shared" si="2"/>
+        <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
-      <c r="A168" s="1"/>
+    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44047.65587962963</v>
+      </c>
       <c r="B168">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -22290,22 +22320,22 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M168">
         <v>0</v>
       </c>
       <c r="N168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -22314,13 +22344,13 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R168">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S168">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -22329,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="V168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -22347,10 +22377,10 @@
         <v>0</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD168">
         <v>0</v>
@@ -22362,16 +22392,16 @@
         <v>0</v>
       </c>
       <c r="AG168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH168">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI168">
         <v>0</v>
       </c>
       <c r="AJ168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK168">
         <v>0</v>
@@ -22380,28 +22410,34 @@
         <v>0</v>
       </c>
       <c r="AM168">
-        <v>0</v>
+        <v>11188</v>
       </c>
       <c r="AN168">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AO168">
+        <f t="shared" si="2"/>
+        <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
-      <c r="A169" s="1"/>
+    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44048.636238425926</v>
+      </c>
       <c r="B169">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -22413,46 +22449,46 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
       <c r="N169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O169">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q169">
         <v>0</v>
       </c>
       <c r="R169">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S169">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T169">
         <v>0</v>
       </c>
       <c r="U169">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="V169">
         <v>0</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X169">
         <v>0</v>
@@ -22464,16 +22500,16 @@
         <v>0</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB169">
         <v>0</v>
       </c>
       <c r="AC169">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE169">
         <v>0</v>
@@ -22482,7 +22518,7 @@
         <v>0</v>
       </c>
       <c r="AG169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH169">
         <v>0</v>
@@ -22494,31 +22530,37 @@
         <v>0</v>
       </c>
       <c r="AK169">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM169">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="AN169">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AO169">
+        <f t="shared" si="2"/>
+        <v>457</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
-      <c r="A170" s="1"/>
+    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44049.647361111114</v>
+      </c>
       <c r="B170">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -22530,37 +22572,37 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M170">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N170">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O170">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P170">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q170">
         <v>0</v>
       </c>
       <c r="R170">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S170">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T170">
         <v>0</v>
@@ -22590,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="AC170">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD170">
         <v>0</v>
@@ -22602,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="AG170">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH170">
         <v>0</v>
@@ -22614,73 +22656,79 @@
         <v>0</v>
       </c>
       <c r="AK170">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL170">
         <v>0</v>
       </c>
       <c r="AM170">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="AN170">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO170">
+        <f t="shared" si="2"/>
+        <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
-      <c r="A171" s="1"/>
+    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44050.642928240741</v>
+      </c>
       <c r="B171">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L171">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M171">
         <v>0</v>
       </c>
       <c r="N171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O171">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P171">
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R171">
         <v>0</v>
       </c>
       <c r="S171">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T171">
         <v>0</v>
@@ -22707,13 +22755,13 @@
         <v>0</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC171">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AD171">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE171">
         <v>0</v>
@@ -22722,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="AG171">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH171">
         <v>0</v>
@@ -22731,7 +22779,7 @@
         <v>0</v>
       </c>
       <c r="AJ171">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK171">
         <v>0</v>
@@ -22740,79 +22788,85 @@
         <v>0</v>
       </c>
       <c r="AM171">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="AN171">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO171">
+        <f t="shared" si="2"/>
+        <v>443</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
-      <c r="A172" s="1"/>
+    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44051.640046296299</v>
+      </c>
       <c r="B172">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N172">
         <v>0</v>
       </c>
       <c r="O172">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R172">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="S172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T172">
         <v>0</v>
       </c>
       <c r="U172">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V172">
         <v>0</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X172">
         <v>0</v>
@@ -22821,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AA172">
         <v>0</v>
@@ -22830,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="AC172">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD172">
         <v>0</v>
@@ -22854,63 +22908,70 @@
         <v>0</v>
       </c>
       <c r="AK172">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL172">
         <v>0</v>
       </c>
       <c r="AM172">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="AN172">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO172">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44052.637326388889</v>
+      </c>
       <c r="B173">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M173">
         <v>0</v>
       </c>
       <c r="N173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O173">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -22949,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="AC173">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AD173">
         <v>0</v>
@@ -22961,10 +23022,10 @@
         <v>0</v>
       </c>
       <c r="AG173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI173">
         <v>0</v>
@@ -22973,180 +23034,1413 @@
         <v>0</v>
       </c>
       <c r="AK173">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL173">
         <v>0</v>
       </c>
       <c r="AM173">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AN173">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO173">
+        <f t="shared" si="2"/>
+        <v>437</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44053.63958333333</v>
+      </c>
       <c r="B174">
-        <f>SUM(B2:B173)</f>
-        <v>15267</v>
+        <v>82</v>
       </c>
       <c r="C174">
-        <f t="shared" ref="C174:AN174" si="3">SUM(C2:C173)</f>
-        <v>3972</v>
+        <v>18</v>
       </c>
       <c r="D174">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <v>9</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>16</v>
+      </c>
+      <c r="K174">
+        <v>19</v>
+      </c>
+      <c r="L174">
+        <v>8</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>15</v>
+      </c>
+      <c r="P174">
+        <v>4</v>
+      </c>
+      <c r="Q174">
+        <v>5</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>9</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <v>82</v>
+      </c>
+      <c r="AD174">
+        <v>3</v>
+      </c>
+      <c r="AE174">
+        <v>0</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>0</v>
+      </c>
+      <c r="AH174">
+        <v>0</v>
+      </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>0</v>
+      </c>
+      <c r="AK174">
+        <v>0</v>
+      </c>
+      <c r="AL174">
+        <v>5</v>
+      </c>
+      <c r="AM174">
+        <v>160</v>
+      </c>
+      <c r="AN174">
+        <v>5</v>
+      </c>
+      <c r="AO174">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44054.63958333333</v>
+      </c>
+      <c r="B175">
+        <v>117</v>
+      </c>
+      <c r="C175">
+        <v>40</v>
+      </c>
+      <c r="D175">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>19</v>
+      </c>
+      <c r="F175">
+        <v>24</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>17</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>15</v>
+      </c>
+      <c r="P175">
+        <v>11</v>
+      </c>
+      <c r="Q175">
+        <v>35</v>
+      </c>
+      <c r="R175">
+        <v>17</v>
+      </c>
+      <c r="S175">
+        <v>28</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <v>19</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>21</v>
+      </c>
+      <c r="AA175">
+        <v>14</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>0</v>
+      </c>
+      <c r="AD175">
+        <v>6</v>
+      </c>
+      <c r="AE175">
+        <v>0</v>
+      </c>
+      <c r="AF175">
+        <v>0</v>
+      </c>
+      <c r="AG175">
+        <v>1</v>
+      </c>
+      <c r="AH175">
+        <v>3</v>
+      </c>
+      <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
+        <v>0</v>
+      </c>
+      <c r="AK175">
+        <v>18</v>
+      </c>
+      <c r="AL175">
+        <v>0</v>
+      </c>
+      <c r="AM175">
+        <v>263</v>
+      </c>
+      <c r="AN175">
+        <v>6</v>
+      </c>
+      <c r="AO175">
+        <f t="shared" si="2"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>44055.63958333333</v>
+      </c>
+      <c r="B176">
+        <v>113</v>
+      </c>
+      <c r="C176">
+        <v>72</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>9</v>
+      </c>
+      <c r="F176">
+        <v>26</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>7</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>5</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>6</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>38</v>
+      </c>
+      <c r="P176">
+        <v>1</v>
+      </c>
+      <c r="Q176">
+        <v>32</v>
+      </c>
+      <c r="R176">
+        <v>8</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>55</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+      <c r="AC176">
+        <v>59</v>
+      </c>
+      <c r="AD176">
+        <v>0</v>
+      </c>
+      <c r="AE176">
+        <v>0</v>
+      </c>
+      <c r="AF176">
+        <v>0</v>
+      </c>
+      <c r="AG176">
+        <v>0</v>
+      </c>
+      <c r="AH176">
+        <v>0</v>
+      </c>
+      <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
+        <v>0</v>
+      </c>
+      <c r="AK176">
+        <v>20</v>
+      </c>
+      <c r="AL176">
+        <v>0</v>
+      </c>
+      <c r="AM176">
+        <v>334</v>
+      </c>
+      <c r="AN176">
+        <v>0</v>
+      </c>
+      <c r="AO176">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>44056.63958333333</v>
+      </c>
+      <c r="B177">
+        <v>69</v>
+      </c>
+      <c r="C177">
+        <v>35</v>
+      </c>
+      <c r="D177">
+        <v>17</v>
+      </c>
+      <c r="E177">
+        <v>15</v>
+      </c>
+      <c r="F177">
+        <v>41</v>
+      </c>
+      <c r="G177">
+        <v>12</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>40</v>
+      </c>
+      <c r="L177">
+        <v>6</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>40</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>17</v>
+      </c>
+      <c r="R177">
+        <v>5</v>
+      </c>
+      <c r="S177">
+        <v>19</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>7</v>
+      </c>
+      <c r="V177">
+        <v>2</v>
+      </c>
+      <c r="W177">
+        <v>14</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>22</v>
+      </c>
+      <c r="AD177">
+        <v>9</v>
+      </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>1</v>
+      </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>366</v>
+      </c>
+      <c r="AN177">
+        <v>10</v>
+      </c>
+      <c r="AO177">
+        <f t="shared" si="2"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>44057.63958333333</v>
+      </c>
+      <c r="B178">
+        <v>113</v>
+      </c>
+      <c r="C178">
+        <v>33</v>
+      </c>
+      <c r="D178">
+        <v>16</v>
+      </c>
+      <c r="E178">
+        <v>14</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <v>15</v>
+      </c>
+      <c r="K178">
+        <v>8</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>5</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>49</v>
+      </c>
+      <c r="P178">
+        <v>6</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>13</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>4</v>
+      </c>
+      <c r="V178">
+        <v>1</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <v>24</v>
+      </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
+      <c r="AE178">
+        <v>0</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>1</v>
+      </c>
+      <c r="AH178">
+        <v>0</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>6</v>
+      </c>
+      <c r="AK178">
+        <v>3</v>
+      </c>
+      <c r="AL178">
+        <v>0</v>
+      </c>
+      <c r="AM178">
+        <v>1689</v>
+      </c>
+      <c r="AN178">
+        <v>7</v>
+      </c>
+      <c r="AO178">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>0</v>
+      </c>
+      <c r="AD179">
+        <v>0</v>
+      </c>
+      <c r="AE179">
+        <v>0</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>0</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>0</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+      <c r="AC180">
+        <v>0</v>
+      </c>
+      <c r="AD180">
+        <v>0</v>
+      </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>0</v>
+      </c>
+      <c r="AH180">
+        <v>0</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>0</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+      <c r="AC181">
+        <v>0</v>
+      </c>
+      <c r="AD181">
+        <v>0</v>
+      </c>
+      <c r="AE181">
+        <v>0</v>
+      </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>0</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <v>0</v>
+      </c>
+      <c r="AD182">
+        <v>0</v>
+      </c>
+      <c r="AE182">
+        <v>0</v>
+      </c>
+      <c r="AF182">
+        <v>0</v>
+      </c>
+      <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>0</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>0</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>0</v>
+      </c>
+      <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AN182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+      <c r="AC183">
+        <v>0</v>
+      </c>
+      <c r="AD183">
+        <v>0</v>
+      </c>
+      <c r="AE183">
+        <v>0</v>
+      </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
+      <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <f>SUM(B2:B183)</f>
+        <v>16369</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ref="C184:AN184" si="3">SUM(C2:C183)</f>
+        <v>4665</v>
+      </c>
+      <c r="D184">
         <f t="shared" si="3"/>
-        <v>1597</v>
-      </c>
-      <c r="E174">
+        <v>1677</v>
+      </c>
+      <c r="E184">
         <f t="shared" si="3"/>
-        <v>1403</v>
-      </c>
-      <c r="F174">
+        <v>1535</v>
+      </c>
+      <c r="F184">
         <f t="shared" si="3"/>
-        <v>553</v>
-      </c>
-      <c r="G174">
+        <v>729</v>
+      </c>
+      <c r="G184">
         <f t="shared" si="3"/>
-        <v>612</v>
-      </c>
-      <c r="H174">
+        <v>648</v>
+      </c>
+      <c r="H184">
         <f t="shared" si="3"/>
-        <v>745</v>
-      </c>
-      <c r="I174">
+        <v>746</v>
+      </c>
+      <c r="I184">
         <f t="shared" si="3"/>
-        <v>613</v>
-      </c>
-      <c r="J174">
+        <v>702</v>
+      </c>
+      <c r="J184">
         <f t="shared" si="3"/>
-        <v>2311</v>
-      </c>
-      <c r="K174">
+        <v>2414</v>
+      </c>
+      <c r="K184">
         <f t="shared" si="3"/>
-        <v>2768</v>
-      </c>
-      <c r="L174">
+        <v>2943</v>
+      </c>
+      <c r="L184">
         <f t="shared" si="3"/>
-        <v>753</v>
-      </c>
-      <c r="M174">
+        <v>888</v>
+      </c>
+      <c r="M184">
         <f t="shared" si="3"/>
-        <v>221</v>
-      </c>
-      <c r="N174">
+        <v>246</v>
+      </c>
+      <c r="N184">
         <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-      <c r="O174">
+        <v>581</v>
+      </c>
+      <c r="O184">
         <f t="shared" si="3"/>
-        <v>1481</v>
-      </c>
-      <c r="P174">
+        <v>1755</v>
+      </c>
+      <c r="P184">
         <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="Q174">
+        <v>200</v>
+      </c>
+      <c r="Q184">
         <f t="shared" si="3"/>
-        <v>1204</v>
-      </c>
-      <c r="R174">
+        <v>1373</v>
+      </c>
+      <c r="R184">
         <f t="shared" si="3"/>
-        <v>1510</v>
-      </c>
-      <c r="S174">
+        <v>1639</v>
+      </c>
+      <c r="S184">
         <f t="shared" si="3"/>
-        <v>1829</v>
-      </c>
-      <c r="T174">
+        <v>1993</v>
+      </c>
+      <c r="T184">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="U174">
+      <c r="U184">
         <f t="shared" si="3"/>
-        <v>821</v>
-      </c>
-      <c r="V174">
+        <v>980</v>
+      </c>
+      <c r="V184">
         <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="W174">
+        <v>229</v>
+      </c>
+      <c r="W184">
         <f t="shared" si="3"/>
-        <v>582</v>
-      </c>
-      <c r="X174">
+        <v>677</v>
+      </c>
+      <c r="X184">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="Y174">
+      <c r="Y184">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="Z174">
+      <c r="Z184">
         <f t="shared" si="3"/>
-        <v>356</v>
-      </c>
-      <c r="AA174">
+        <v>430</v>
+      </c>
+      <c r="AA184">
         <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="AB174">
+        <v>142</v>
+      </c>
+      <c r="AB184">
         <f t="shared" si="3"/>
-        <v>178</v>
-      </c>
-      <c r="AC174">
+        <v>199</v>
+      </c>
+      <c r="AC184">
         <f t="shared" si="3"/>
-        <v>1227</v>
-      </c>
-      <c r="AD174">
+        <v>1689</v>
+      </c>
+      <c r="AD184">
         <f t="shared" si="3"/>
-        <v>469</v>
-      </c>
-      <c r="AE174">
+        <v>494</v>
+      </c>
+      <c r="AE184">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="AF174">
+      <c r="AF184">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AG174">
+      <c r="AG184">
         <f t="shared" si="3"/>
-        <v>345</v>
-      </c>
-      <c r="AH174">
+        <v>373</v>
+      </c>
+      <c r="AH184">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="AI174">
+        <v>78</v>
+      </c>
+      <c r="AI184">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="AJ174">
+      <c r="AJ184">
         <f t="shared" si="3"/>
-        <v>339</v>
-      </c>
-      <c r="AK174">
+        <v>352</v>
+      </c>
+      <c r="AK184">
         <f t="shared" si="3"/>
-        <v>808</v>
-      </c>
-      <c r="AL174">
+        <v>911</v>
+      </c>
+      <c r="AL184">
         <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="AM174">
+        <v>73</v>
+      </c>
+      <c r="AM184">
         <f t="shared" si="3"/>
-        <v>20308</v>
-      </c>
-      <c r="AN174">
+        <v>35998</v>
+      </c>
+      <c r="AN184">
         <f t="shared" si="3"/>
-        <v>888</v>
+        <v>973</v>
       </c>
     </row>
-    <row r="177" spans="42:42">
-      <c r="AP177">
-        <f>SUM(AO2:AO166)</f>
-        <v>43848</v>
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AP187">
+        <f>SUM(AO2:AO178)</f>
+        <v>48446</v>
       </c>
     </row>
   </sheetData>
@@ -23162,7 +24456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO129"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
@@ -23170,12 +24464,12 @@
       <selection pane="bottomLeft" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23300,7 +24594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43888.653217592589</v>
       </c>
@@ -23425,7 +24719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43889.042083333334</v>
       </c>
@@ -23550,7 +24844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43890.101990740739</v>
       </c>
@@ -23675,7 +24969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43891.947314814817</v>
       </c>
@@ -23800,7 +25094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43892.495162037034</v>
       </c>
@@ -23925,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43893.573935185188</v>
       </c>
@@ -24050,7 +25344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43894.98841435185</v>
       </c>
@@ -24175,7 +25469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43895.455000000002</v>
       </c>
@@ -24300,7 +25594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43896.191331018519</v>
       </c>
@@ -24425,7 +25719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43897.299085648148</v>
       </c>
@@ -24550,7 +25844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43898.433333333334</v>
       </c>
@@ -24675,7 +25969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43899.12159722222</v>
       </c>
@@ -24800,7 +26094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43900.040821759256</v>
       </c>
@@ -24925,7 +26219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43901.979224537034</v>
       </c>
@@ -25050,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43902.444004629629</v>
       </c>
@@ -25175,7 +26469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43903.627766203703</v>
       </c>
@@ -25300,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43904.682037037041</v>
       </c>
@@ -25425,7 +26719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43905.982592592591</v>
       </c>
@@ -25550,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43906.245150462964</v>
       </c>
@@ -25675,7 +26969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43907.109988425924</v>
       </c>
@@ -25800,7 +27094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43908.359942129631</v>
       </c>
@@ -25925,7 +27219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43909.612037037034</v>
       </c>
@@ -26050,7 +27344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43910.305115740739</v>
       </c>
@@ -26175,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43911.948449074072</v>
       </c>
@@ -26300,7 +27594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43912.011678240742</v>
       </c>
@@ -26425,7 +27719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43913.073622685188</v>
       </c>
@@ -26550,7 +27844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43914.210648148146</v>
       </c>
@@ -26675,7 +27969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43914.958784722221</v>
       </c>
@@ -26800,7 +28094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43915.643657407411</v>
       </c>
@@ -26925,7 +28219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43916.52484953704</v>
       </c>
@@ -27050,7 +28344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43917.500486111108</v>
       </c>
@@ -27175,7 +28469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43917.663784722223</v>
       </c>
@@ -27300,7 +28594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43918.341932870368</v>
       </c>
@@ -27425,7 +28719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918.611828703702</v>
       </c>
@@ -27550,7 +28844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919.569398148145</v>
       </c>
@@ -27675,7 +28969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920.541979166665</v>
       </c>
@@ -27800,7 +29094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921.137361111112</v>
       </c>
@@ -27925,7 +29219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43921.500358796293</v>
       </c>
@@ -28050,7 +29344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43922.187604166669</v>
       </c>
@@ -28175,7 +29469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43922.500208333331</v>
       </c>
@@ -28300,7 +29594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43923.500648148147</v>
       </c>
@@ -28425,7 +29719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43924.126400462963</v>
       </c>
@@ -28550,7 +29844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43925.590798611112</v>
       </c>
@@ -28675,7 +29969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43926.142210648148</v>
       </c>
@@ -28800,7 +30094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43926.564062500001</v>
       </c>
@@ -28925,7 +30219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43927.56287037037</v>
       </c>
@@ -29050,7 +30344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43928.563379629632</v>
       </c>
@@ -29175,7 +30469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43929.542685185188</v>
       </c>
@@ -29300,7 +30594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43930.563101851854</v>
       </c>
@@ -29425,7 +30719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43931.568472222221</v>
       </c>
@@ -29550,7 +30844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43932.562881944446</v>
       </c>
@@ -29675,7 +30969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43933.549942129626</v>
       </c>
@@ -29800,7 +31094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43934.576504629629</v>
       </c>
@@ -29925,7 +31219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43935.556701388887</v>
       </c>
@@ -30050,7 +31344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43935.62605324074</v>
       </c>
@@ -30175,7 +31469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43936.641458333332</v>
       </c>
@@ -30300,7 +31594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43937.597881944443</v>
       </c>
@@ -30425,7 +31719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43938.590497685182</v>
       </c>
@@ -30550,7 +31844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43939.615011574075</v>
       </c>
@@ -30675,7 +31969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43940.66679398148</v>
       </c>
@@ -30800,7 +32094,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43941.634942129633</v>
       </c>
@@ -30925,7 +32219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43942.651956018519</v>
       </c>
@@ -31050,7 +32344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43943.643599537034</v>
       </c>
@@ -31175,7 +32469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43944.657534722224</v>
       </c>
@@ -31300,7 +32594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43945.662118055552</v>
       </c>
@@ -31425,7 +32719,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43946.66646990741</v>
       </c>
@@ -31550,7 +32844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43947.675543981481</v>
       </c>
@@ -31675,7 +32969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43948.650833333333</v>
       </c>
@@ -31800,7 +33094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43949.669594907406</v>
       </c>
@@ -31925,7 +33219,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43950.665775462963</v>
       </c>
@@ -32050,7 +33344,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43951.661261574074</v>
       </c>
@@ -32175,7 +33469,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43952.629270833335</v>
       </c>
@@ -32300,7 +33594,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43953.663969907408</v>
       </c>
@@ -32425,7 +33719,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43954.667430555557</v>
       </c>
@@ -32550,7 +33844,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43955.657326388886</v>
       </c>
@@ -32675,7 +33969,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43956.6565162037</v>
       </c>
@@ -32800,7 +34094,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43957.667824074073</v>
       </c>
@@ -32925,7 +34219,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43958.639444444445</v>
       </c>
@@ -33050,7 +34344,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43959.649583333332</v>
       </c>
@@ -33175,7 +34469,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43960.633877314816</v>
       </c>
@@ -33300,7 +34594,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43961.656747685185</v>
       </c>
@@ -33425,7 +34719,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43962.656817129631</v>
       </c>
@@ -33550,7 +34844,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43963.662939814814</v>
       </c>
@@ -33675,7 +34969,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43964.645231481481</v>
       </c>
@@ -33800,7 +35094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43965.666458333333</v>
       </c>
@@ -33925,7 +35219,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43966.657893518517</v>
       </c>
@@ -34050,7 +35344,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43967.664201388892</v>
       </c>
@@ -34175,7 +35469,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43968.632280092592</v>
       </c>
@@ -34300,7 +35594,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43969.662060185183</v>
       </c>
@@ -34425,7 +35719,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43970.65216435185</v>
       </c>
@@ -34550,7 +35844,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43971.639363425929</v>
       </c>
@@ -34675,7 +35969,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43972.658599537041</v>
       </c>
@@ -34800,7 +36094,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43973.649317129632</v>
       </c>
@@ -34925,7 +36219,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43974.66070601852</v>
       </c>
@@ -35050,7 +36344,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43975.632037037038</v>
       </c>
@@ -35175,7 +36469,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43976.648993055554</v>
       </c>
@@ -35300,7 +36594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43977.646331018521</v>
       </c>
@@ -35425,7 +36719,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43978.655694444446</v>
       </c>
@@ -35550,7 +36844,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43979.643958333334</v>
       </c>
@@ -35675,7 +36969,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43980.656956018516</v>
       </c>
@@ -35800,7 +37094,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43981.663819444446</v>
       </c>
@@ -35925,7 +37219,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43982.643483796295</v>
       </c>
@@ -36050,7 +37344,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43983.661226851851</v>
       </c>
@@ -36175,7 +37469,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43984.658182870371</v>
       </c>
@@ -36300,7 +37594,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43985.658182870371</v>
       </c>
@@ -36425,7 +37719,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43986.655428240738</v>
       </c>
@@ -36550,7 +37844,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43987.654479166667</v>
       </c>
@@ -36675,7 +37969,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43988.651643518519</v>
       </c>
@@ -36800,7 +38094,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43989.65902777778</v>
       </c>
@@ -36925,7 +38219,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43990.653969907406</v>
       </c>
@@ -37050,7 +38344,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43991.6565162037</v>
       </c>
@@ -37175,7 +38469,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43992.661678240744</v>
       </c>
@@ -37300,7 +38594,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43993.65861111111</v>
       </c>
@@ -37425,7 +38719,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43994.655590277776</v>
       </c>
@@ -37550,7 +38844,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43995.654722222222</v>
       </c>
@@ -37675,7 +38969,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43996.655335648145</v>
       </c>
@@ -37800,7 +39094,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43997.66034722222</v>
       </c>
@@ -37925,7 +39219,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43998.66715277778</v>
       </c>
@@ -38050,7 +39344,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43999.637974537036</v>
       </c>
@@ -38175,7 +39469,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44000.655023148145</v>
       </c>
@@ -38300,7 +39594,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44001.628831018519</v>
       </c>
@@ -38425,7 +39719,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44002.645497685182</v>
       </c>
@@ -38550,7 +39844,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44003.648101851853</v>
       </c>
@@ -38675,7 +39969,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44004.63486111111</v>
       </c>
@@ -38800,7 +40094,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44005.646134259259</v>
       </c>
@@ -38925,7 +40219,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44006.641284722224</v>
       </c>
@@ -39050,7 +40344,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44007.658310185187</v>
       </c>
@@ -39175,7 +40469,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44008.659884259258</v>
       </c>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE4A4E-F7AA-1E41-9A5A-8C173D8C6CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8006CD1E-5B27-DD47-AF2A-92AFF039B997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="620" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hedgar Ajakaiye</author>
+    <author>Ajakaiye, Hedgar</author>
   </authors>
   <commentList>
     <comment ref="G69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -215,6 +216,39 @@
           <t xml:space="preserve">
 2020-06-07 16:10:17, Yesterday, we erroneously reported 7 new cases in Jigawa. Following further review, we can confirm that these were repeat tests for previously confirmed cases
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP190" authorId="1" shapeId="0" xr:uid="{26603119-FA5E-6346-AF9F-554A032C224B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ajakaiye, Hedgar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The figure reported by NCDC is 221 but the actual figure from the cases of constituent state amounted to 218</t>
         </r>
       </text>
     </comment>
@@ -412,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,6 +489,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1241,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP187"/>
+  <dimension ref="A1:AP213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A178" sqref="A178:AO178"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192:AO192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20526,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO178" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO192" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -23681,66 +23728,68 @@
       </c>
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>44058.63958333333</v>
+      </c>
       <c r="B179">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M179">
         <v>0</v>
       </c>
       <c r="N179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O179">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R179">
         <v>0</v>
       </c>
       <c r="S179">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T179">
         <v>0</v>
       </c>
       <c r="U179">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -23764,10 +23813,10 @@
         <v>0</v>
       </c>
       <c r="AC179">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD179">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE179">
         <v>0</v>
@@ -23776,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="AG179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH179">
         <v>0</v>
@@ -23788,34 +23837,40 @@
         <v>0</v>
       </c>
       <c r="AK179">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL179">
         <v>0</v>
       </c>
       <c r="AM179">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AN179">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO179">
+        <f t="shared" si="2"/>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>44059.63958333333</v>
+      </c>
       <c r="B180">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -23824,37 +23879,37 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L180">
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O180">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R180">
         <v>0</v>
       </c>
       <c r="S180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T180">
         <v>0</v>
@@ -23884,7 +23939,7 @@
         <v>0</v>
       </c>
       <c r="AC180">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AD180">
         <v>0</v>
@@ -23911,34 +23966,40 @@
         <v>0</v>
       </c>
       <c r="AL180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM180">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="AN180">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <f t="shared" si="2"/>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>44060.63958333333</v>
+      </c>
       <c r="B181">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -23947,10 +24008,10 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L181">
         <v>0</v>
@@ -23959,19 +24020,19 @@
         <v>0</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O181">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P181">
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R181">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S181">
         <v>0</v>
@@ -23980,13 +24041,13 @@
         <v>0</v>
       </c>
       <c r="U181">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W181">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X181">
         <v>0</v>
@@ -23998,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB181">
         <v>0</v>
       </c>
       <c r="AC181">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD181">
         <v>0</v>
@@ -24028,31 +24089,37 @@
         <v>0</v>
       </c>
       <c r="AK181">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL181">
         <v>0</v>
       </c>
       <c r="AM181">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="AN181">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO181">
+        <f t="shared" si="2"/>
+        <v>417</v>
       </c>
     </row>
     <row r="182" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>44061.63958333333</v>
+      </c>
       <c r="B182">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -24067,46 +24134,46 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L182">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O182">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P182">
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R182">
         <v>0</v>
       </c>
       <c r="S182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T182">
         <v>0</v>
       </c>
       <c r="U182">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V182">
         <v>0</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X182">
         <v>0</v>
@@ -24118,13 +24185,13 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB182">
         <v>0</v>
       </c>
       <c r="AC182">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD182">
         <v>0</v>
@@ -24136,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="AG182">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH182">
         <v>0</v>
@@ -24148,36 +24215,43 @@
         <v>0</v>
       </c>
       <c r="AK182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL182">
         <v>0</v>
       </c>
       <c r="AM182">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AN182">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO182">
+        <f t="shared" si="2"/>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44062.63958333333</v>
+      </c>
       <c r="B183">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -24186,46 +24260,46 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L183">
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N183">
         <v>0</v>
       </c>
       <c r="O183">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P183">
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R183">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S183">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T183">
         <v>0</v>
       </c>
       <c r="U183">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V183">
         <v>0</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X183">
         <v>0</v>
@@ -24243,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="AC183">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AD183">
         <v>0</v>
@@ -24273,174 +24347,3351 @@
         <v>0</v>
       </c>
       <c r="AM183">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="AN183">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO183">
+        <f t="shared" si="2"/>
+        <v>593</v>
       </c>
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44063.63958333333</v>
+      </c>
       <c r="B184">
-        <f>SUM(B2:B183)</f>
-        <v>16369</v>
+        <v>235</v>
       </c>
       <c r="C184">
-        <f t="shared" ref="C184:AN184" si="3">SUM(C2:C183)</f>
-        <v>4665</v>
+        <v>44</v>
       </c>
       <c r="D184">
+        <v>9</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>4</v>
+      </c>
+      <c r="H184">
+        <v>5</v>
+      </c>
+      <c r="I184">
+        <v>33</v>
+      </c>
+      <c r="J184">
+        <v>13</v>
+      </c>
+      <c r="K184">
+        <v>10</v>
+      </c>
+      <c r="L184">
+        <v>7</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>41</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>12</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>5</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>13</v>
+      </c>
+      <c r="X184">
+        <v>1</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>28</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>0</v>
+      </c>
+      <c r="AF184">
+        <v>0</v>
+      </c>
+      <c r="AG184">
+        <v>1</v>
+      </c>
+      <c r="AH184">
+        <v>0</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <v>265</v>
+      </c>
+      <c r="AN184">
+        <v>7</v>
+      </c>
+      <c r="AO184">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44064.63958333333</v>
+      </c>
+      <c r="B185">
+        <v>33</v>
+      </c>
+      <c r="C185">
+        <v>51</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>21</v>
+      </c>
+      <c r="H185">
+        <v>17</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>20</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>11</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>63</v>
+      </c>
+      <c r="P185">
+        <v>10</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>25</v>
+      </c>
+      <c r="S185">
+        <v>9</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>2</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+      <c r="AB185">
+        <v>21</v>
+      </c>
+      <c r="AC185">
+        <v>38</v>
+      </c>
+      <c r="AD185">
+        <v>2</v>
+      </c>
+      <c r="AE185">
+        <v>0</v>
+      </c>
+      <c r="AF185">
+        <v>0</v>
+      </c>
+      <c r="AG185">
+        <v>2</v>
+      </c>
+      <c r="AH185">
+        <v>0</v>
+      </c>
+      <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
+        <v>0</v>
+      </c>
+      <c r="AK185">
+        <v>4</v>
+      </c>
+      <c r="AL185">
+        <v>3</v>
+      </c>
+      <c r="AM185">
+        <v>316</v>
+      </c>
+      <c r="AN185">
+        <v>4</v>
+      </c>
+      <c r="AO185">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44065.63958333333</v>
+      </c>
+      <c r="B186">
+        <v>404</v>
+      </c>
+      <c r="C186">
+        <v>37</v>
+      </c>
+      <c r="D186">
+        <v>12</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>3</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>12</v>
+      </c>
+      <c r="K186">
+        <v>19</v>
+      </c>
+      <c r="L186">
+        <v>11</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>13</v>
+      </c>
+      <c r="P186">
+        <v>2</v>
+      </c>
+      <c r="Q186">
+        <v>14</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>13</v>
+      </c>
+      <c r="V186">
+        <v>5</v>
+      </c>
+      <c r="W186">
+        <v>13</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
+        <v>4</v>
+      </c>
+      <c r="AD186">
+        <v>2</v>
+      </c>
+      <c r="AE186">
+        <v>0</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>7</v>
+      </c>
+      <c r="AH186">
+        <v>0</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>4</v>
+      </c>
+      <c r="AK186">
+        <v>10</v>
+      </c>
+      <c r="AL186">
+        <v>0</v>
+      </c>
+      <c r="AM186">
+        <v>882</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AO186">
+        <f t="shared" si="2"/>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44066.63958333333</v>
+      </c>
+      <c r="B187">
+        <v>130</v>
+      </c>
+      <c r="C187">
+        <v>25</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187">
+        <v>14</v>
+      </c>
+      <c r="F187">
+        <v>6</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>17</v>
+      </c>
+      <c r="K187">
+        <v>14</v>
+      </c>
+      <c r="L187">
+        <v>5</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>36</v>
+      </c>
+      <c r="O187">
+        <v>12</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>11</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>10</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>2</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>13</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <v>5</v>
+      </c>
+      <c r="AD187">
+        <v>0</v>
+      </c>
+      <c r="AE187">
+        <v>0</v>
+      </c>
+      <c r="AF187">
+        <v>0</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>0</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>14</v>
+      </c>
+      <c r="AK187">
+        <v>3</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>178</v>
+      </c>
+      <c r="AN187">
+        <v>5</v>
+      </c>
+      <c r="AO187">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44067.63958333333</v>
+      </c>
+      <c r="B188">
+        <v>98</v>
+      </c>
+      <c r="C188">
+        <v>34</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>11</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>5</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>8</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>30</v>
+      </c>
+      <c r="P188">
+        <v>7</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>7</v>
+      </c>
+      <c r="S188">
+        <v>15</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>9</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>1</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>21</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>11</v>
+      </c>
+      <c r="AC188">
+        <v>17</v>
+      </c>
+      <c r="AD188">
+        <v>2</v>
+      </c>
+      <c r="AE188">
+        <v>2</v>
+      </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
+      <c r="AG188">
+        <v>25</v>
+      </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>3</v>
+      </c>
+      <c r="AK188">
+        <v>4</v>
+      </c>
+      <c r="AL188">
+        <v>2</v>
+      </c>
+      <c r="AM188">
+        <v>312</v>
+      </c>
+      <c r="AN188">
+        <v>2</v>
+      </c>
+      <c r="AO188">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44068.63958333333</v>
+      </c>
+      <c r="B189">
+        <v>26</v>
+      </c>
+      <c r="C189">
+        <v>18</v>
+      </c>
+      <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>6</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>8</v>
+      </c>
+      <c r="K189">
+        <v>8</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>18</v>
+      </c>
+      <c r="P189">
+        <v>10</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>7</v>
+      </c>
+      <c r="S189">
+        <v>27</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>35</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>5</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>8</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+      <c r="AC189">
+        <v>50</v>
+      </c>
+      <c r="AD189">
+        <v>0</v>
+      </c>
+      <c r="AE189">
+        <v>0</v>
+      </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>9</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>5</v>
+      </c>
+      <c r="AK189">
+        <v>1</v>
+      </c>
+      <c r="AL189">
+        <v>0</v>
+      </c>
+      <c r="AM189">
+        <v>707</v>
+      </c>
+      <c r="AN189">
+        <v>3</v>
+      </c>
+      <c r="AO189">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44069.63958333333</v>
+      </c>
+      <c r="B190">
+        <v>17</v>
+      </c>
+      <c r="C190">
+        <v>33</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190">
+        <v>5</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>9</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>26</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>9</v>
+      </c>
+      <c r="R190">
+        <v>4</v>
+      </c>
+      <c r="S190">
+        <v>18</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>9</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>4</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>5</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>60</v>
+      </c>
+      <c r="AD190">
+        <v>3</v>
+      </c>
+      <c r="AE190">
+        <v>0</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>6</v>
+      </c>
+      <c r="AH190">
+        <v>0</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>0</v>
+      </c>
+      <c r="AK190">
+        <v>0</v>
+      </c>
+      <c r="AL190">
+        <v>0</v>
+      </c>
+      <c r="AM190">
+        <v>317</v>
+      </c>
+      <c r="AN190">
+        <v>3</v>
+      </c>
+      <c r="AO190">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44070.63958333333</v>
+      </c>
+      <c r="B191">
+        <v>21</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>31</v>
+      </c>
+      <c r="L191">
+        <v>5</v>
+      </c>
+      <c r="M191">
+        <v>7</v>
+      </c>
+      <c r="N191">
+        <v>12</v>
+      </c>
+      <c r="O191">
+        <v>13</v>
+      </c>
+      <c r="P191">
+        <v>11</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>11</v>
+      </c>
+      <c r="S191">
+        <v>20</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>46</v>
+      </c>
+      <c r="V191">
+        <v>2</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>0</v>
+      </c>
+      <c r="AC191">
+        <v>85</v>
+      </c>
+      <c r="AD191">
+        <v>0</v>
+      </c>
+      <c r="AE191">
+        <v>0</v>
+      </c>
+      <c r="AF191">
+        <v>0</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>0</v>
+      </c>
+      <c r="AK191">
+        <v>6</v>
+      </c>
+      <c r="AL191">
+        <v>0</v>
+      </c>
+      <c r="AM191">
+        <v>445</v>
+      </c>
+      <c r="AN191">
+        <v>1</v>
+      </c>
+      <c r="AO191">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44071.63958333333</v>
+      </c>
+      <c r="B192">
+        <v>27</v>
+      </c>
+      <c r="C192">
+        <v>14</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>18</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>15</v>
+      </c>
+      <c r="K192">
+        <v>9</v>
+      </c>
+      <c r="L192">
+        <v>6</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>2</v>
+      </c>
+      <c r="P192">
+        <v>2</v>
+      </c>
+      <c r="Q192">
+        <v>10</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>4</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <v>0</v>
+      </c>
+      <c r="AC192">
+        <v>44</v>
+      </c>
+      <c r="AD192">
+        <v>0</v>
+      </c>
+      <c r="AE192">
+        <v>1</v>
+      </c>
+      <c r="AF192">
+        <v>0</v>
+      </c>
+      <c r="AG192">
+        <v>4</v>
+      </c>
+      <c r="AH192">
+        <v>0</v>
+      </c>
+      <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
+        <v>0</v>
+      </c>
+      <c r="AK192">
+        <v>0</v>
+      </c>
+      <c r="AL192">
+        <v>0</v>
+      </c>
+      <c r="AM192">
+        <v>291</v>
+      </c>
+      <c r="AN192">
+        <v>0</v>
+      </c>
+      <c r="AO192">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>0</v>
+      </c>
+      <c r="AD193">
+        <v>0</v>
+      </c>
+      <c r="AE193">
+        <v>0</v>
+      </c>
+      <c r="AF193">
+        <v>0</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>0</v>
+      </c>
+      <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>0</v>
+      </c>
+      <c r="AK193">
+        <v>0</v>
+      </c>
+      <c r="AL193">
+        <v>0</v>
+      </c>
+      <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AN193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>0</v>
+      </c>
+      <c r="AC194">
+        <v>0</v>
+      </c>
+      <c r="AD194">
+        <v>0</v>
+      </c>
+      <c r="AE194">
+        <v>0</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>0</v>
+      </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>0</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>0</v>
+      </c>
+      <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AN194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+      <c r="AB195">
+        <v>0</v>
+      </c>
+      <c r="AC195">
+        <v>0</v>
+      </c>
+      <c r="AD195">
+        <v>0</v>
+      </c>
+      <c r="AE195">
+        <v>0</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>0</v>
+      </c>
+      <c r="AH195">
+        <v>0</v>
+      </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
+        <v>0</v>
+      </c>
+      <c r="AK195">
+        <v>0</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+      <c r="AC196">
+        <v>0</v>
+      </c>
+      <c r="AD196">
+        <v>0</v>
+      </c>
+      <c r="AE196">
+        <v>0</v>
+      </c>
+      <c r="AF196">
+        <v>0</v>
+      </c>
+      <c r="AG196">
+        <v>0</v>
+      </c>
+      <c r="AH196">
+        <v>0</v>
+      </c>
+      <c r="AI196">
+        <v>0</v>
+      </c>
+      <c r="AJ196">
+        <v>0</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>0</v>
+      </c>
+      <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AN196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>0</v>
+      </c>
+      <c r="AC197">
+        <v>0</v>
+      </c>
+      <c r="AD197">
+        <v>0</v>
+      </c>
+      <c r="AE197">
+        <v>0</v>
+      </c>
+      <c r="AF197">
+        <v>0</v>
+      </c>
+      <c r="AG197">
+        <v>0</v>
+      </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
+        <v>0</v>
+      </c>
+      <c r="AK197">
+        <v>0</v>
+      </c>
+      <c r="AL197">
+        <v>0</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AN197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <v>0</v>
+      </c>
+      <c r="AD198">
+        <v>0</v>
+      </c>
+      <c r="AE198">
+        <v>0</v>
+      </c>
+      <c r="AF198">
+        <v>0</v>
+      </c>
+      <c r="AG198">
+        <v>0</v>
+      </c>
+      <c r="AH198">
+        <v>0</v>
+      </c>
+      <c r="AI198">
+        <v>0</v>
+      </c>
+      <c r="AJ198">
+        <v>0</v>
+      </c>
+      <c r="AK198">
+        <v>0</v>
+      </c>
+      <c r="AL198">
+        <v>0</v>
+      </c>
+      <c r="AM198">
+        <v>0</v>
+      </c>
+      <c r="AN198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+      <c r="AC199">
+        <v>0</v>
+      </c>
+      <c r="AD199">
+        <v>0</v>
+      </c>
+      <c r="AE199">
+        <v>0</v>
+      </c>
+      <c r="AF199">
+        <v>0</v>
+      </c>
+      <c r="AG199">
+        <v>0</v>
+      </c>
+      <c r="AH199">
+        <v>0</v>
+      </c>
+      <c r="AI199">
+        <v>0</v>
+      </c>
+      <c r="AJ199">
+        <v>0</v>
+      </c>
+      <c r="AK199">
+        <v>0</v>
+      </c>
+      <c r="AL199">
+        <v>0</v>
+      </c>
+      <c r="AM199">
+        <v>0</v>
+      </c>
+      <c r="AN199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+      <c r="AC200">
+        <v>0</v>
+      </c>
+      <c r="AD200">
+        <v>0</v>
+      </c>
+      <c r="AE200">
+        <v>0</v>
+      </c>
+      <c r="AF200">
+        <v>0</v>
+      </c>
+      <c r="AG200">
+        <v>0</v>
+      </c>
+      <c r="AH200">
+        <v>0</v>
+      </c>
+      <c r="AI200">
+        <v>0</v>
+      </c>
+      <c r="AJ200">
+        <v>0</v>
+      </c>
+      <c r="AK200">
+        <v>0</v>
+      </c>
+      <c r="AL200">
+        <v>0</v>
+      </c>
+      <c r="AM200">
+        <v>0</v>
+      </c>
+      <c r="AN200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+      <c r="AB201">
+        <v>0</v>
+      </c>
+      <c r="AC201">
+        <v>0</v>
+      </c>
+      <c r="AD201">
+        <v>0</v>
+      </c>
+      <c r="AE201">
+        <v>0</v>
+      </c>
+      <c r="AF201">
+        <v>0</v>
+      </c>
+      <c r="AG201">
+        <v>0</v>
+      </c>
+      <c r="AH201">
+        <v>0</v>
+      </c>
+      <c r="AI201">
+        <v>0</v>
+      </c>
+      <c r="AJ201">
+        <v>0</v>
+      </c>
+      <c r="AK201">
+        <v>0</v>
+      </c>
+      <c r="AL201">
+        <v>0</v>
+      </c>
+      <c r="AM201">
+        <v>0</v>
+      </c>
+      <c r="AN201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+      <c r="AC202">
+        <v>0</v>
+      </c>
+      <c r="AD202">
+        <v>0</v>
+      </c>
+      <c r="AE202">
+        <v>0</v>
+      </c>
+      <c r="AF202">
+        <v>0</v>
+      </c>
+      <c r="AG202">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>0</v>
+      </c>
+      <c r="AI202">
+        <v>0</v>
+      </c>
+      <c r="AJ202">
+        <v>0</v>
+      </c>
+      <c r="AK202">
+        <v>0</v>
+      </c>
+      <c r="AL202">
+        <v>0</v>
+      </c>
+      <c r="AM202">
+        <v>0</v>
+      </c>
+      <c r="AN202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+      <c r="AB203">
+        <v>0</v>
+      </c>
+      <c r="AC203">
+        <v>0</v>
+      </c>
+      <c r="AD203">
+        <v>0</v>
+      </c>
+      <c r="AE203">
+        <v>0</v>
+      </c>
+      <c r="AF203">
+        <v>0</v>
+      </c>
+      <c r="AG203">
+        <v>0</v>
+      </c>
+      <c r="AH203">
+        <v>0</v>
+      </c>
+      <c r="AI203">
+        <v>0</v>
+      </c>
+      <c r="AJ203">
+        <v>0</v>
+      </c>
+      <c r="AK203">
+        <v>0</v>
+      </c>
+      <c r="AL203">
+        <v>0</v>
+      </c>
+      <c r="AM203">
+        <v>0</v>
+      </c>
+      <c r="AN203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
+      <c r="AG204">
+        <v>0</v>
+      </c>
+      <c r="AH204">
+        <v>0</v>
+      </c>
+      <c r="AI204">
+        <v>0</v>
+      </c>
+      <c r="AJ204">
+        <v>0</v>
+      </c>
+      <c r="AK204">
+        <v>0</v>
+      </c>
+      <c r="AL204">
+        <v>0</v>
+      </c>
+      <c r="AM204">
+        <v>0</v>
+      </c>
+      <c r="AN204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
+        <v>0</v>
+      </c>
+      <c r="AG205">
+        <v>0</v>
+      </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
+      <c r="AI205">
+        <v>0</v>
+      </c>
+      <c r="AJ205">
+        <v>0</v>
+      </c>
+      <c r="AK205">
+        <v>0</v>
+      </c>
+      <c r="AL205">
+        <v>0</v>
+      </c>
+      <c r="AM205">
+        <v>0</v>
+      </c>
+      <c r="AN205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A206" s="1"/>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
+      <c r="AH206">
+        <v>0</v>
+      </c>
+      <c r="AI206">
+        <v>0</v>
+      </c>
+      <c r="AJ206">
+        <v>0</v>
+      </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
+      <c r="AL206">
+        <v>0</v>
+      </c>
+      <c r="AM206">
+        <v>0</v>
+      </c>
+      <c r="AN206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207">
+        <v>0</v>
+      </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
+      <c r="AE207">
+        <v>0</v>
+      </c>
+      <c r="AF207">
+        <v>0</v>
+      </c>
+      <c r="AG207">
+        <v>0</v>
+      </c>
+      <c r="AH207">
+        <v>0</v>
+      </c>
+      <c r="AI207">
+        <v>0</v>
+      </c>
+      <c r="AJ207">
+        <v>0</v>
+      </c>
+      <c r="AK207">
+        <v>0</v>
+      </c>
+      <c r="AL207">
+        <v>0</v>
+      </c>
+      <c r="AM207">
+        <v>0</v>
+      </c>
+      <c r="AN207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>0</v>
+      </c>
+      <c r="AD208">
+        <v>0</v>
+      </c>
+      <c r="AE208">
+        <v>0</v>
+      </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>0</v>
+      </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
+      <c r="AJ208">
+        <v>0</v>
+      </c>
+      <c r="AK208">
+        <v>0</v>
+      </c>
+      <c r="AL208">
+        <v>0</v>
+      </c>
+      <c r="AM208">
+        <v>0</v>
+      </c>
+      <c r="AN208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>0</v>
+      </c>
+      <c r="AC209">
+        <v>0</v>
+      </c>
+      <c r="AD209">
+        <v>0</v>
+      </c>
+      <c r="AE209">
+        <v>0</v>
+      </c>
+      <c r="AF209">
+        <v>0</v>
+      </c>
+      <c r="AG209">
+        <v>0</v>
+      </c>
+      <c r="AH209">
+        <v>0</v>
+      </c>
+      <c r="AI209">
+        <v>0</v>
+      </c>
+      <c r="AJ209">
+        <v>0</v>
+      </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
+      <c r="AL209">
+        <v>0</v>
+      </c>
+      <c r="AM209">
+        <v>0</v>
+      </c>
+      <c r="AN209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <f>SUM(B2:B209)</f>
+        <v>18083</v>
+      </c>
+      <c r="C210">
+        <f t="shared" ref="C210:AN210" si="3">SUM(C2:C209)</f>
+        <v>5108</v>
+      </c>
+      <c r="D210">
         <f t="shared" si="3"/>
-        <v>1677</v>
-      </c>
-      <c r="E184">
+        <v>1725</v>
+      </c>
+      <c r="E210">
         <f t="shared" si="3"/>
-        <v>1535</v>
-      </c>
-      <c r="F184">
+        <v>1638</v>
+      </c>
+      <c r="F210">
         <f t="shared" si="3"/>
-        <v>729</v>
-      </c>
-      <c r="G184">
+        <v>775</v>
+      </c>
+      <c r="G210">
         <f t="shared" si="3"/>
-        <v>648</v>
-      </c>
-      <c r="H184">
+        <v>722</v>
+      </c>
+      <c r="H210">
         <f t="shared" si="3"/>
-        <v>746</v>
-      </c>
-      <c r="I184">
+        <v>789</v>
+      </c>
+      <c r="I210">
         <f t="shared" si="3"/>
-        <v>702</v>
-      </c>
-      <c r="J184">
+        <v>740</v>
+      </c>
+      <c r="J210">
         <f t="shared" si="3"/>
-        <v>2414</v>
-      </c>
-      <c r="K184">
+        <v>2570</v>
+      </c>
+      <c r="K210">
         <f t="shared" si="3"/>
-        <v>2943</v>
-      </c>
-      <c r="L184">
+        <v>3100</v>
+      </c>
+      <c r="L210">
         <f t="shared" si="3"/>
-        <v>888</v>
-      </c>
-      <c r="M184">
+        <v>956</v>
+      </c>
+      <c r="M210">
         <f t="shared" si="3"/>
-        <v>246</v>
-      </c>
-      <c r="N184">
+        <v>278</v>
+      </c>
+      <c r="N210">
         <f t="shared" si="3"/>
-        <v>581</v>
-      </c>
-      <c r="O184">
+        <v>657</v>
+      </c>
+      <c r="O210">
         <f t="shared" si="3"/>
-        <v>1755</v>
-      </c>
-      <c r="P184">
+        <v>2100</v>
+      </c>
+      <c r="P210">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q184">
+        <v>248</v>
+      </c>
+      <c r="Q210">
         <f t="shared" si="3"/>
-        <v>1373</v>
-      </c>
-      <c r="R184">
+        <v>1534</v>
+      </c>
+      <c r="R210">
         <f t="shared" si="3"/>
-        <v>1639</v>
-      </c>
-      <c r="S184">
+        <v>1730</v>
+      </c>
+      <c r="S210">
         <f t="shared" si="3"/>
-        <v>1993</v>
-      </c>
-      <c r="T184">
+        <v>2128</v>
+      </c>
+      <c r="T210">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="U184">
+      <c r="U210">
         <f t="shared" si="3"/>
-        <v>980</v>
-      </c>
-      <c r="V184">
+        <v>1142</v>
+      </c>
+      <c r="V210">
         <f t="shared" si="3"/>
-        <v>229</v>
-      </c>
-      <c r="W184">
+        <v>241</v>
+      </c>
+      <c r="W210">
         <f t="shared" si="3"/>
-        <v>677</v>
-      </c>
-      <c r="X184">
+        <v>763</v>
+      </c>
+      <c r="X210">
         <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="Y184">
+        <v>78</v>
+      </c>
+      <c r="Y210">
         <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="Z184">
+        <v>159</v>
+      </c>
+      <c r="Z210">
         <f t="shared" si="3"/>
-        <v>430</v>
-      </c>
-      <c r="AA184">
+        <v>451</v>
+      </c>
+      <c r="AA210">
         <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="AB184">
+        <v>193</v>
+      </c>
+      <c r="AB210">
         <f t="shared" si="3"/>
-        <v>199</v>
-      </c>
-      <c r="AC184">
+        <v>231</v>
+      </c>
+      <c r="AC210">
         <f t="shared" si="3"/>
-        <v>1689</v>
-      </c>
-      <c r="AD184">
+        <v>2374</v>
+      </c>
+      <c r="AD210">
         <f t="shared" si="3"/>
-        <v>494</v>
-      </c>
-      <c r="AE184">
+        <v>526</v>
+      </c>
+      <c r="AE210">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="AF184">
+        <v>93</v>
+      </c>
+      <c r="AF210">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AG184">
+      <c r="AG210">
         <f t="shared" si="3"/>
-        <v>373</v>
-      </c>
-      <c r="AH184">
+        <v>431</v>
+      </c>
+      <c r="AH210">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="AI184">
+        <v>87</v>
+      </c>
+      <c r="AI210">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="AJ184">
+      <c r="AJ210">
         <f t="shared" si="3"/>
-        <v>352</v>
-      </c>
-      <c r="AK184">
+        <v>378</v>
+      </c>
+      <c r="AK210">
         <f t="shared" si="3"/>
-        <v>911</v>
-      </c>
-      <c r="AL184">
+        <v>971</v>
+      </c>
+      <c r="AL210">
         <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="AM184">
+        <v>82</v>
+      </c>
+      <c r="AM210">
         <f t="shared" si="3"/>
-        <v>35998</v>
-      </c>
-      <c r="AN184">
+        <v>41017</v>
+      </c>
+      <c r="AN210">
         <f t="shared" si="3"/>
-        <v>973</v>
+        <v>1011</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AP187">
-        <f>SUM(AO2:AO178)</f>
-        <v>48446</v>
+    <row r="213" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AP213">
+        <f>SUM(AO2:AO192)</f>
+        <v>53475</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8006CD1E-5B27-DD47-AF2A-92AFF039B997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B33BD-4D45-4E41-A446-562CA5EE1A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,8 +1291,8 @@
   <dimension ref="A1:AP213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:AO192"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:AO194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO192" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO194" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -25491,25 +25491,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A193" s="1"/>
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44072.63958333333</v>
+      </c>
       <c r="B193">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -25518,40 +25520,40 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M193">
         <v>0</v>
       </c>
       <c r="N193">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O193">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P193">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q193">
         <v>0</v>
       </c>
       <c r="R193">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S193">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T193">
         <v>0</v>
       </c>
       <c r="U193">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V193">
         <v>0</v>
@@ -25572,13 +25574,13 @@
         <v>0</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC193">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AD193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE193">
         <v>0</v>
@@ -25587,7 +25589,7 @@
         <v>0</v>
       </c>
       <c r="AG193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH193">
         <v>0</v>
@@ -25596,28 +25598,34 @@
         <v>0</v>
       </c>
       <c r="AJ193">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL193">
         <v>0</v>
       </c>
       <c r="AM193">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AN193">
         <v>0</v>
       </c>
+      <c r="AO193">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A194" s="1"/>
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44073.63958333333</v>
+      </c>
       <c r="B194">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -25638,34 +25646,34 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M194">
         <v>0</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P194">
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R194">
         <v>0</v>
       </c>
       <c r="S194">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T194">
         <v>0</v>
@@ -25677,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X194">
         <v>0</v>
@@ -25686,16 +25694,16 @@
         <v>0</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB194">
         <v>0</v>
       </c>
       <c r="AC194">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD194">
         <v>0</v>
@@ -25719,19 +25727,23 @@
         <v>0</v>
       </c>
       <c r="AK194">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL194">
         <v>0</v>
       </c>
       <c r="AM194">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AN194">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO194">
+        <f t="shared" si="2"/>
+        <v>138</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195">
         <v>0</v>
@@ -25851,7 +25863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196">
         <v>0</v>
@@ -25971,7 +25983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197">
         <v>0</v>
@@ -26091,7 +26103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198">
         <v>0</v>
@@ -26211,7 +26223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199">
         <v>0</v>
@@ -26331,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200">
         <v>0</v>
@@ -26451,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201">
         <v>0</v>
@@ -26571,7 +26583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202">
         <v>0</v>
@@ -26691,7 +26703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203">
         <v>0</v>
@@ -26811,7 +26823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204">
         <v>0</v>
@@ -26931,7 +26943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205">
         <v>0</v>
@@ -27051,7 +27063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206">
         <v>0</v>
@@ -27171,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207">
         <v>0</v>
@@ -27291,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208">
         <v>0</v>
@@ -27533,11 +27545,11 @@
     <row r="210" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B210">
         <f>SUM(B2:B209)</f>
-        <v>18083</v>
+        <v>18119</v>
       </c>
       <c r="C210">
         <f t="shared" ref="C210:AN210" si="3">SUM(C2:C209)</f>
-        <v>5108</v>
+        <v>5156</v>
       </c>
       <c r="D210">
         <f t="shared" si="3"/>
@@ -27545,15 +27557,15 @@
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
-        <v>1638</v>
+        <v>1646</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="G210">
         <f t="shared" si="3"/>
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H210">
         <f t="shared" si="3"/>
@@ -27565,15 +27577,15 @@
       </c>
       <c r="J210">
         <f t="shared" si="3"/>
-        <v>2570</v>
+        <v>2578</v>
       </c>
       <c r="K210">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>3118</v>
       </c>
       <c r="L210">
         <f t="shared" si="3"/>
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="M210">
         <f t="shared" si="3"/>
@@ -27581,27 +27593,27 @@
       </c>
       <c r="N210">
         <f t="shared" si="3"/>
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="O210">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P210">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="Q210">
         <f t="shared" si="3"/>
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="R210">
         <f t="shared" si="3"/>
-        <v>1730</v>
+        <v>1744</v>
       </c>
       <c r="S210">
         <f t="shared" si="3"/>
-        <v>2128</v>
+        <v>2141</v>
       </c>
       <c r="T210">
         <f t="shared" si="3"/>
@@ -27609,7 +27621,7 @@
       </c>
       <c r="U210">
         <f t="shared" si="3"/>
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="V210">
         <f t="shared" si="3"/>
@@ -27617,7 +27629,7 @@
       </c>
       <c r="W210">
         <f t="shared" si="3"/>
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="X210">
         <f t="shared" si="3"/>
@@ -27629,23 +27641,23 @@
       </c>
       <c r="Z210">
         <f t="shared" si="3"/>
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA210">
         <f t="shared" si="3"/>
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AB210">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AC210">
         <f t="shared" si="3"/>
-        <v>2374</v>
+        <v>2498</v>
       </c>
       <c r="AD210">
         <f t="shared" si="3"/>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE210">
         <f t="shared" si="3"/>
@@ -27657,7 +27669,7 @@
       </c>
       <c r="AG210">
         <f t="shared" si="3"/>
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AH210">
         <f t="shared" si="3"/>
@@ -27669,11 +27681,11 @@
       </c>
       <c r="AJ210">
         <f t="shared" si="3"/>
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="AK210">
         <f t="shared" si="3"/>
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="AL210">
         <f t="shared" si="3"/>
@@ -27681,17 +27693,17 @@
       </c>
       <c r="AM210">
         <f t="shared" si="3"/>
-        <v>41017</v>
+        <v>41513</v>
       </c>
       <c r="AN210">
         <f t="shared" si="3"/>
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="213" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AP213">
-        <f>SUM(AO2:AO192)</f>
-        <v>53475</v>
+        <f>SUM(AO2:AO194)</f>
+        <v>53863</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B33BD-4D45-4E41-A446-562CA5EE1A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA1FE5-195D-5749-B5E6-BAF481229C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,6 +249,50 @@
             <family val="2"/>
           </rPr>
           <t>The figure reported by NCDC is 221 but the actual figure from the cases of constituent state amounted to 218</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP195" authorId="1" shapeId="0" xr:uid="{D8B56A0B-75AA-6145-B342-77C5EDFA1E52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ajakaiye, Hedgar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">142 but NCDC data says 143. Dont know where the difference of 1 is coming from
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1290,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:AO194"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP214" sqref="AP214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20617,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO194" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO195" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -25491,7 +25535,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44072.63958333333</v>
       </c>
@@ -25617,7 +25661,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44073.63958333333</v>
       </c>
@@ -25743,40 +25787,42 @@
         <v>138</v>
       </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A195" s="1"/>
+    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44074.63958333333</v>
+      </c>
       <c r="B195">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -25785,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -25803,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="U195">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -25815,19 +25861,19 @@
         <v>0</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB195">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC195">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AD195">
         <v>0</v>
@@ -25851,19 +25897,23 @@
         <v>0</v>
       </c>
       <c r="AK195">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL195">
         <v>0</v>
       </c>
       <c r="AM195">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AN195">
         <v>0</v>
       </c>
+      <c r="AO195">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196">
         <v>0</v>
@@ -25983,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197">
         <v>0</v>
@@ -26103,7 +26153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198">
         <v>0</v>
@@ -26223,7 +26273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199">
         <v>0</v>
@@ -26343,7 +26393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200">
         <v>0</v>
@@ -26463,7 +26513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201">
         <v>0</v>
@@ -26583,7 +26633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202">
         <v>0</v>
@@ -26703,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203">
         <v>0</v>
@@ -26823,7 +26873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204">
         <v>0</v>
@@ -26943,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205">
         <v>0</v>
@@ -27063,7 +27113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206">
         <v>0</v>
@@ -27183,7 +27233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207">
         <v>0</v>
@@ -27303,7 +27353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208">
         <v>0</v>
@@ -27545,23 +27595,23 @@
     <row r="210" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B210">
         <f>SUM(B2:B209)</f>
-        <v>18119</v>
+        <v>18138</v>
       </c>
       <c r="C210">
         <f t="shared" ref="C210:AN210" si="3">SUM(C2:C209)</f>
-        <v>5156</v>
+        <v>5169</v>
       </c>
       <c r="D210">
         <f t="shared" si="3"/>
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="G210">
         <f t="shared" si="3"/>
@@ -27569,7 +27619,7 @@
       </c>
       <c r="H210">
         <f t="shared" si="3"/>
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="I210">
         <f t="shared" si="3"/>
@@ -27577,7 +27627,7 @@
       </c>
       <c r="J210">
         <f t="shared" si="3"/>
-        <v>2578</v>
+        <v>2584</v>
       </c>
       <c r="K210">
         <f t="shared" si="3"/>
@@ -27585,7 +27635,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="3"/>
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="M210">
         <f t="shared" si="3"/>
@@ -27597,7 +27647,7 @@
       </c>
       <c r="O210">
         <f t="shared" si="3"/>
-        <v>2120</v>
+        <v>2141</v>
       </c>
       <c r="P210">
         <f t="shared" si="3"/>
@@ -27621,11 +27671,11 @@
       </c>
       <c r="U210">
         <f t="shared" si="3"/>
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="V210">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="W210">
         <f t="shared" si="3"/>
@@ -27637,23 +27687,23 @@
       </c>
       <c r="Y210">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z210">
         <f t="shared" si="3"/>
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AA210">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AB210">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AC210">
         <f t="shared" si="3"/>
-        <v>2498</v>
+        <v>2533</v>
       </c>
       <c r="AD210">
         <f t="shared" si="3"/>
@@ -27685,7 +27735,7 @@
       </c>
       <c r="AK210">
         <f t="shared" si="3"/>
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="AL210">
         <f t="shared" si="3"/>
@@ -27693,7 +27743,7 @@
       </c>
       <c r="AM210">
         <f t="shared" si="3"/>
-        <v>41513</v>
+        <v>41638</v>
       </c>
       <c r="AN210">
         <f t="shared" si="3"/>
@@ -27702,8 +27752,8 @@
     </row>
     <row r="213" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AP213">
-        <f>SUM(AO2:AO194)</f>
-        <v>53863</v>
+        <f>SUM(AO2:AO195)</f>
+        <v>54005</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA1FE5-195D-5749-B5E6-BAF481229C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F97BF-3F0B-CA4A-BC28-F910018A72AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,50 +249,6 @@
             <family val="2"/>
           </rPr>
           <t>The figure reported by NCDC is 221 but the actual figure from the cases of constituent state amounted to 218</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP195" authorId="1" shapeId="0" xr:uid="{D8B56A0B-75AA-6145-B342-77C5EDFA1E52}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ajakaiye, Hedgar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">142 but NCDC data says 143. Dont know where the difference of 1 is coming from
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
         </r>
       </text>
     </comment>
@@ -1334,9 +1290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP214" sqref="AP214"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196:AO196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20617,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO195" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO196" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -25535,7 +25491,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44072.63958333333</v>
       </c>
@@ -25661,7 +25617,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44073.63958333333</v>
       </c>
@@ -25787,7 +25743,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44074.63958333333</v>
       </c>
@@ -25813,7 +25769,7 @@
         <v>7</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>6</v>
@@ -25910,25 +25866,27 @@
       </c>
       <c r="AO195">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A196" s="1"/>
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44075.63958333333</v>
+      </c>
       <c r="B196">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -25940,7 +25898,7 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -25952,19 +25910,19 @@
         <v>0</v>
       </c>
       <c r="N196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P196">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S196">
         <v>0</v>
@@ -25979,7 +25937,7 @@
         <v>0</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X196">
         <v>0</v>
@@ -25988,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA196">
         <v>0</v>
@@ -25997,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="AC196">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AD196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE196">
         <v>0</v>
@@ -26021,19 +25979,23 @@
         <v>0</v>
       </c>
       <c r="AK196">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL196">
         <v>0</v>
       </c>
       <c r="AM196">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AN196">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AO196">
+        <f t="shared" si="2"/>
+        <v>239</v>
       </c>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197">
         <v>0</v>
@@ -26153,7 +26115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198">
         <v>0</v>
@@ -26273,7 +26235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199">
         <v>0</v>
@@ -26393,7 +26355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200">
         <v>0</v>
@@ -26513,7 +26475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201">
         <v>0</v>
@@ -26633,7 +26595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202">
         <v>0</v>
@@ -26753,7 +26715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203">
         <v>0</v>
@@ -26873,7 +26835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204">
         <v>0</v>
@@ -26993,7 +26955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205">
         <v>0</v>
@@ -27113,7 +27075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206">
         <v>0</v>
@@ -27233,7 +27195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207">
         <v>0</v>
@@ -27353,7 +27315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208">
         <v>0</v>
@@ -27595,11 +27557,11 @@
     <row r="210" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B210">
         <f>SUM(B2:B209)</f>
-        <v>18138</v>
+        <v>18157</v>
       </c>
       <c r="C210">
         <f t="shared" ref="C210:AN210" si="3">SUM(C2:C209)</f>
-        <v>5169</v>
+        <v>5202</v>
       </c>
       <c r="D210">
         <f t="shared" si="3"/>
@@ -27607,11 +27569,11 @@
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
-        <v>1648</v>
+        <v>1659</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G210">
         <f t="shared" si="3"/>
@@ -27623,11 +27585,11 @@
       </c>
       <c r="I210">
         <f t="shared" si="3"/>
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J210">
         <f t="shared" si="3"/>
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="K210">
         <f t="shared" si="3"/>
@@ -27643,23 +27605,23 @@
       </c>
       <c r="N210">
         <f t="shared" si="3"/>
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O210">
         <f t="shared" si="3"/>
-        <v>2141</v>
+        <v>2152</v>
       </c>
       <c r="P210">
         <f t="shared" si="3"/>
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="Q210">
         <f t="shared" si="3"/>
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="R210">
         <f t="shared" si="3"/>
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="S210">
         <f t="shared" si="3"/>
@@ -27679,7 +27641,7 @@
       </c>
       <c r="W210">
         <f t="shared" si="3"/>
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="X210">
         <f t="shared" si="3"/>
@@ -27691,7 +27653,7 @@
       </c>
       <c r="Z210">
         <f t="shared" si="3"/>
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AA210">
         <f t="shared" si="3"/>
@@ -27703,11 +27665,11 @@
       </c>
       <c r="AC210">
         <f t="shared" si="3"/>
-        <v>2533</v>
+        <v>2649</v>
       </c>
       <c r="AD210">
         <f t="shared" si="3"/>
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AE210">
         <f t="shared" si="3"/>
@@ -27735,7 +27697,7 @@
       </c>
       <c r="AK210">
         <f t="shared" si="3"/>
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="AL210">
         <f t="shared" si="3"/>
@@ -27743,17 +27705,17 @@
       </c>
       <c r="AM210">
         <f t="shared" si="3"/>
-        <v>41638</v>
+        <v>42010</v>
       </c>
       <c r="AN210">
         <f t="shared" si="3"/>
-        <v>1013</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="213" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AP213">
-        <f>SUM(AO2:AO195)</f>
-        <v>54005</v>
+        <f>SUM(AO2:AO196)</f>
+        <v>54245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F97BF-3F0B-CA4A-BC28-F910018A72AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9831205-0230-E544-AAF1-D28C62ABE77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,9 +1290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196:AO196"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201:AO201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO196" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO201" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -25996,21 +25996,23 @@
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1">
+        <v>44076.63958333333</v>
+      </c>
       <c r="B197">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -26022,46 +26024,46 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L197">
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O197">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q197">
         <v>0</v>
       </c>
       <c r="R197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S197">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T197">
         <v>0</v>
       </c>
       <c r="U197">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V197">
         <v>0</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X197">
         <v>0</v>
@@ -26079,7 +26081,7 @@
         <v>0</v>
       </c>
       <c r="AC197">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AD197">
         <v>0</v>
@@ -26103,52 +26105,58 @@
         <v>0</v>
       </c>
       <c r="AK197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL197">
         <v>0</v>
       </c>
       <c r="AM197">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="AN197">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO197">
+        <f t="shared" si="2"/>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1">
+        <v>44077.63958333333</v>
+      </c>
       <c r="B198">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -26157,16 +26165,16 @@
         <v>0</v>
       </c>
       <c r="O198">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P198">
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R198">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S198">
         <v>0</v>
@@ -26193,7 +26201,7 @@
         <v>0</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB198">
         <v>0</v>
@@ -26226,49 +26234,55 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM198">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="AN198">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="AO198">
+        <f t="shared" si="2"/>
+        <v>124</v>
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1">
+        <v>44078.63958333333</v>
+      </c>
       <c r="B199">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -26277,10 +26291,10 @@
         <v>0</v>
       </c>
       <c r="O199">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -26289,19 +26303,19 @@
         <v>0</v>
       </c>
       <c r="S199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T199">
         <v>0</v>
       </c>
       <c r="U199">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X199">
         <v>0</v>
@@ -26319,10 +26333,10 @@
         <v>0</v>
       </c>
       <c r="AC199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE199">
         <v>0</v>
@@ -26331,7 +26345,7 @@
         <v>0</v>
       </c>
       <c r="AG199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH199">
         <v>0</v>
@@ -26349,31 +26363,37 @@
         <v>0</v>
       </c>
       <c r="AM199">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AN199">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO199">
+        <f t="shared" si="2"/>
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>44079.63958333333</v>
+      </c>
       <c r="B200">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -26385,10 +26405,10 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -26397,19 +26417,19 @@
         <v>0</v>
       </c>
       <c r="O200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R200">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T200">
         <v>0</v>
@@ -26433,16 +26453,16 @@
         <v>0</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB200">
         <v>0</v>
       </c>
       <c r="AC200">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE200">
         <v>0</v>
@@ -26463,25 +26483,31 @@
         <v>0</v>
       </c>
       <c r="AK200">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL200">
         <v>0</v>
       </c>
       <c r="AM200">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AN200">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO200">
+        <f t="shared" si="2"/>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>44080.63958333333</v>
+      </c>
       <c r="B201">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -26496,16 +26522,16 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>0</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -26514,13 +26540,13 @@
         <v>0</v>
       </c>
       <c r="N201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O201">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -26571,7 +26597,7 @@
         <v>0</v>
       </c>
       <c r="AG201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH201">
         <v>0</v>
@@ -26583,16 +26609,20 @@
         <v>0</v>
       </c>
       <c r="AK201">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL201">
         <v>0</v>
       </c>
       <c r="AM201">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AN201">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO201">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.2">
@@ -27557,11 +27587,11 @@
     <row r="210" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B210">
         <f>SUM(B2:B209)</f>
-        <v>18157</v>
+        <v>18347</v>
       </c>
       <c r="C210">
         <f t="shared" ref="C210:AN210" si="3">SUM(C2:C209)</f>
-        <v>5202</v>
+        <v>5301</v>
       </c>
       <c r="D210">
         <f t="shared" si="3"/>
@@ -27569,19 +27599,19 @@
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
-        <v>1659</v>
+        <v>1678</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="G210">
         <f t="shared" si="3"/>
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="H210">
         <f t="shared" si="3"/>
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="I210">
         <f t="shared" si="3"/>
@@ -27589,43 +27619,43 @@
       </c>
       <c r="J210">
         <f t="shared" si="3"/>
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="K210">
         <f t="shared" si="3"/>
-        <v>3118</v>
+        <v>3194</v>
       </c>
       <c r="L210">
         <f t="shared" si="3"/>
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="M210">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N210">
         <f t="shared" si="3"/>
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O210">
         <f t="shared" si="3"/>
-        <v>2152</v>
+        <v>2208</v>
       </c>
       <c r="P210">
         <f t="shared" si="3"/>
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q210">
         <f t="shared" si="3"/>
-        <v>1543</v>
+        <v>1561</v>
       </c>
       <c r="R210">
         <f t="shared" si="3"/>
-        <v>1749</v>
+        <v>1768</v>
       </c>
       <c r="S210">
         <f t="shared" si="3"/>
-        <v>2141</v>
+        <v>2175</v>
       </c>
       <c r="T210">
         <f t="shared" si="3"/>
@@ -27633,15 +27663,15 @@
       </c>
       <c r="U210">
         <f t="shared" si="3"/>
-        <v>1162</v>
+        <v>1184</v>
       </c>
       <c r="V210">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="W210">
         <f t="shared" si="3"/>
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="X210">
         <f t="shared" si="3"/>
@@ -27657,7 +27687,7 @@
       </c>
       <c r="AA210">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AB210">
         <f t="shared" si="3"/>
@@ -27665,11 +27695,11 @@
       </c>
       <c r="AC210">
         <f t="shared" si="3"/>
-        <v>2649</v>
+        <v>2720</v>
       </c>
       <c r="AD210">
         <f t="shared" si="3"/>
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="AE210">
         <f t="shared" si="3"/>
@@ -27681,7 +27711,7 @@
       </c>
       <c r="AG210">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AH210">
         <f t="shared" si="3"/>
@@ -27697,25 +27727,25 @@
       </c>
       <c r="AK210">
         <f t="shared" si="3"/>
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="AL210">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM210">
         <f t="shared" si="3"/>
-        <v>42010</v>
+        <v>43013</v>
       </c>
       <c r="AN210">
         <f t="shared" si="3"/>
-        <v>1023</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="213" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AP213">
-        <f>SUM(AO2:AO196)</f>
-        <v>54245</v>
+        <f>SUM(AO2:AO201)</f>
+        <v>55003</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9831205-0230-E544-AAF1-D28C62ABE77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD09E4E-F7FA-9840-B660-4B30817A4329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP213"/>
+  <dimension ref="A1:AP224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201:AO201"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A213" sqref="A213:AO213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO201" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO213" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -26626,33 +26626,35 @@
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>44081.63958333333</v>
+      </c>
       <c r="B202">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -26661,16 +26663,16 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N202">
         <v>0</v>
       </c>
       <c r="O202">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P202">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -26679,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="S202">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T202">
         <v>0</v>
@@ -26691,7 +26693,7 @@
         <v>0</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X202">
         <v>0</v>
@@ -26703,13 +26705,13 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB202">
         <v>0</v>
       </c>
       <c r="AC202">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD202">
         <v>0</v>
@@ -26724,7 +26726,7 @@
         <v>0</v>
       </c>
       <c r="AH202">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI202">
         <v>0</v>
@@ -26733,37 +26735,43 @@
         <v>0</v>
       </c>
       <c r="AK202">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL202">
         <v>0</v>
       </c>
       <c r="AM202">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="AN202">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO202">
+        <f t="shared" si="2"/>
+        <v>155</v>
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>44082.63958333333</v>
+      </c>
       <c r="B203">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -26772,16 +26780,16 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -26790,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R203">
         <v>0</v>
       </c>
       <c r="S203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T203">
         <v>0</v>
@@ -26823,16 +26831,16 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB203">
         <v>0</v>
       </c>
       <c r="AC203">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AD203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE203">
         <v>0</v>
@@ -26841,7 +26849,7 @@
         <v>0</v>
       </c>
       <c r="AG203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH203">
         <v>0</v>
@@ -26859,28 +26867,34 @@
         <v>0</v>
       </c>
       <c r="AM203">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AN203">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO203">
+        <f t="shared" si="2"/>
+        <v>296</v>
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>44083.63958333333</v>
+      </c>
       <c r="B204">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -26892,40 +26906,40 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M204">
         <v>0</v>
       </c>
       <c r="N204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O204">
         <v>0</v>
       </c>
       <c r="P204">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R204">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>0</v>
       </c>
       <c r="U204">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V204">
         <v>0</v>
@@ -26946,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC204">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AD204">
         <v>0</v>
@@ -26961,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="AG204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH204">
         <v>0</v>
@@ -26973,49 +26987,55 @@
         <v>0</v>
       </c>
       <c r="AK204">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL204">
         <v>0</v>
       </c>
       <c r="AM204">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AN204">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO204">
+        <f t="shared" si="2"/>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>44084.63958333333</v>
+      </c>
       <c r="B205">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <v>0</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -27027,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="O205">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P205">
         <v>0</v>
@@ -27039,7 +27059,7 @@
         <v>0</v>
       </c>
       <c r="S205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T205">
         <v>0</v>
@@ -27069,10 +27089,10 @@
         <v>0</v>
       </c>
       <c r="AC205">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="AD205">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE205">
         <v>0</v>
@@ -27081,7 +27101,7 @@
         <v>0</v>
       </c>
       <c r="AG205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH205">
         <v>0</v>
@@ -27090,7 +27110,7 @@
         <v>0</v>
       </c>
       <c r="AJ205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK205">
         <v>0</v>
@@ -27099,25 +27119,31 @@
         <v>0</v>
       </c>
       <c r="AM205">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN205">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO205">
+        <f t="shared" si="2"/>
+        <v>197</v>
       </c>
     </row>
     <row r="206" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>44085.63958333333</v>
+      </c>
       <c r="B206">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -27126,52 +27152,52 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M206">
         <v>0</v>
       </c>
       <c r="N206">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O206">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P206">
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R206">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>0</v>
       </c>
       <c r="U206">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V206">
         <v>0</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X206">
         <v>0</v>
@@ -27180,7 +27206,7 @@
         <v>0</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA206">
         <v>0</v>
@@ -27189,10 +27215,10 @@
         <v>0</v>
       </c>
       <c r="AC206">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD206">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE206">
         <v>0</v>
@@ -27204,10 +27230,10 @@
         <v>0</v>
       </c>
       <c r="AH206">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ206">
         <v>0</v>
@@ -27219,19 +27245,25 @@
         <v>0</v>
       </c>
       <c r="AM206">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="AN206">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO206">
+        <f t="shared" si="2"/>
+        <v>188</v>
       </c>
     </row>
     <row r="207" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>44086.63958333333</v>
+      </c>
       <c r="B207">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -27246,16 +27278,16 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I207">
         <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -27267,10 +27299,10 @@
         <v>0</v>
       </c>
       <c r="O207">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -27279,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="S207">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T207">
         <v>0</v>
@@ -27291,7 +27323,7 @@
         <v>0</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X207">
         <v>0</v>
@@ -27300,7 +27332,7 @@
         <v>0</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA207">
         <v>0</v>
@@ -27309,7 +27341,7 @@
         <v>0</v>
       </c>
       <c r="AC207">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AD207">
         <v>0</v>
@@ -27327,10 +27359,10 @@
         <v>0</v>
       </c>
       <c r="AI207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK207">
         <v>0</v>
@@ -27339,34 +27371,40 @@
         <v>0</v>
       </c>
       <c r="AM207">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN207">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO207">
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
     </row>
     <row r="208" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>44087.63958333333</v>
+      </c>
       <c r="B208">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -27375,31 +27413,31 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L208">
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N208">
         <v>0</v>
       </c>
       <c r="O208">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P208">
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T208">
         <v>0</v>
@@ -27423,13 +27461,13 @@
         <v>0</v>
       </c>
       <c r="AA208">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB208">
         <v>0</v>
       </c>
       <c r="AC208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD208">
         <v>0</v>
@@ -27459,15 +27497,22 @@
         <v>0</v>
       </c>
       <c r="AM208">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AN208">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO208">
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
     </row>
-    <row r="209" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44088.63958333333</v>
+      </c>
       <c r="B209">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -27476,16 +27521,16 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -27497,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M209">
         <v>0</v>
       </c>
       <c r="N209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O209">
         <v>0</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q209">
         <v>0</v>
@@ -27518,13 +27563,13 @@
         <v>0</v>
       </c>
       <c r="S209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T209">
         <v>0</v>
       </c>
       <c r="U209">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -27548,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="AC209">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD209">
         <v>0</v>
@@ -27578,174 +27623,1521 @@
         <v>0</v>
       </c>
       <c r="AM209">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AN209">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO209">
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
     </row>
-    <row r="210" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44089.63958333333</v>
+      </c>
       <c r="B210">
-        <f>SUM(B2:B209)</f>
-        <v>18347</v>
+        <v>33</v>
       </c>
       <c r="C210">
-        <f t="shared" ref="C210:AN210" si="3">SUM(C2:C209)</f>
-        <v>5301</v>
+        <v>4</v>
       </c>
       <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>6</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>17</v>
+      </c>
+      <c r="P210">
+        <v>1</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>1</v>
+      </c>
+      <c r="AB210">
+        <v>0</v>
+      </c>
+      <c r="AC210">
+        <v>27</v>
+      </c>
+      <c r="AD210">
+        <v>0</v>
+      </c>
+      <c r="AE210">
+        <v>0</v>
+      </c>
+      <c r="AF210">
+        <v>0</v>
+      </c>
+      <c r="AG210">
+        <v>1</v>
+      </c>
+      <c r="AH210">
+        <v>0</v>
+      </c>
+      <c r="AI210">
+        <v>0</v>
+      </c>
+      <c r="AJ210">
+        <v>0</v>
+      </c>
+      <c r="AK210">
+        <v>0</v>
+      </c>
+      <c r="AL210">
+        <v>0</v>
+      </c>
+      <c r="AM210">
+        <v>93</v>
+      </c>
+      <c r="AN210">
+        <v>5</v>
+      </c>
+      <c r="AO210">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44090.63958333333</v>
+      </c>
+      <c r="B211">
+        <v>27</v>
+      </c>
+      <c r="C211">
+        <v>37</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>6</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211">
+        <v>9</v>
+      </c>
+      <c r="P211">
+        <v>2</v>
+      </c>
+      <c r="Q211">
+        <v>6</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>7</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
+      <c r="AC211">
+        <v>16</v>
+      </c>
+      <c r="AD211">
+        <v>5</v>
+      </c>
+      <c r="AE211">
+        <v>0</v>
+      </c>
+      <c r="AF211">
+        <v>0</v>
+      </c>
+      <c r="AG211">
+        <v>0</v>
+      </c>
+      <c r="AH211">
+        <v>0</v>
+      </c>
+      <c r="AI211">
+        <v>1</v>
+      </c>
+      <c r="AJ211">
+        <v>0</v>
+      </c>
+      <c r="AK211">
+        <v>0</v>
+      </c>
+      <c r="AL211">
+        <v>0</v>
+      </c>
+      <c r="AM211">
+        <v>3442</v>
+      </c>
+      <c r="AN211">
+        <v>3</v>
+      </c>
+      <c r="AO211">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44091.63958333333</v>
+      </c>
+      <c r="B212">
+        <v>45</v>
+      </c>
+      <c r="C212">
+        <v>16</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>3</v>
+      </c>
+      <c r="L212">
+        <v>5</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212">
+        <v>17</v>
+      </c>
+      <c r="P212">
+        <v>2</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>6</v>
+      </c>
+      <c r="S212">
+        <v>1</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
+        <v>6</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>2</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>17</v>
+      </c>
+      <c r="AD212">
+        <v>0</v>
+      </c>
+      <c r="AE212">
+        <v>0</v>
+      </c>
+      <c r="AF212">
+        <v>0</v>
+      </c>
+      <c r="AG212">
+        <v>0</v>
+      </c>
+      <c r="AH212">
+        <v>0</v>
+      </c>
+      <c r="AI212">
+        <v>0</v>
+      </c>
+      <c r="AJ212">
+        <v>0</v>
+      </c>
+      <c r="AK212">
+        <v>1</v>
+      </c>
+      <c r="AL212">
+        <v>2</v>
+      </c>
+      <c r="AM212">
+        <v>220</v>
+      </c>
+      <c r="AN212">
+        <v>2</v>
+      </c>
+      <c r="AO212">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44092.63958333333</v>
+      </c>
+      <c r="B213">
+        <v>59</v>
+      </c>
+      <c r="C213">
+        <v>22</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+      <c r="G213">
+        <v>20</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>7</v>
+      </c>
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
+        <v>6</v>
+      </c>
+      <c r="Q213">
+        <v>4</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>11</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>46</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>6</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>17</v>
+      </c>
+      <c r="AD213">
+        <v>6</v>
+      </c>
+      <c r="AE213">
+        <v>0</v>
+      </c>
+      <c r="AF213">
+        <v>0</v>
+      </c>
+      <c r="AG213">
+        <v>0</v>
+      </c>
+      <c r="AH213">
+        <v>0</v>
+      </c>
+      <c r="AI213">
+        <v>0</v>
+      </c>
+      <c r="AJ213">
+        <v>1</v>
+      </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
+      <c r="AL213">
+        <v>0</v>
+      </c>
+      <c r="AM213">
+        <v>213</v>
+      </c>
+      <c r="AN213">
+        <v>1</v>
+      </c>
+      <c r="AO213">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>0</v>
+      </c>
+      <c r="AE214">
+        <v>0</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AJ214">
+        <v>0</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>0</v>
+      </c>
+      <c r="AE215">
+        <v>0</v>
+      </c>
+      <c r="AF215">
+        <v>0</v>
+      </c>
+      <c r="AG215">
+        <v>0</v>
+      </c>
+      <c r="AH215">
+        <v>0</v>
+      </c>
+      <c r="AI215">
+        <v>0</v>
+      </c>
+      <c r="AJ215">
+        <v>0</v>
+      </c>
+      <c r="AK215">
+        <v>0</v>
+      </c>
+      <c r="AL215">
+        <v>0</v>
+      </c>
+      <c r="AM215">
+        <v>0</v>
+      </c>
+      <c r="AN215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+      <c r="AC216">
+        <v>0</v>
+      </c>
+      <c r="AD216">
+        <v>0</v>
+      </c>
+      <c r="AE216">
+        <v>0</v>
+      </c>
+      <c r="AF216">
+        <v>0</v>
+      </c>
+      <c r="AG216">
+        <v>0</v>
+      </c>
+      <c r="AH216">
+        <v>0</v>
+      </c>
+      <c r="AI216">
+        <v>0</v>
+      </c>
+      <c r="AJ216">
+        <v>0</v>
+      </c>
+      <c r="AK216">
+        <v>0</v>
+      </c>
+      <c r="AL216">
+        <v>0</v>
+      </c>
+      <c r="AM216">
+        <v>0</v>
+      </c>
+      <c r="AN216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+      <c r="AC217">
+        <v>0</v>
+      </c>
+      <c r="AD217">
+        <v>0</v>
+      </c>
+      <c r="AE217">
+        <v>0</v>
+      </c>
+      <c r="AF217">
+        <v>0</v>
+      </c>
+      <c r="AG217">
+        <v>0</v>
+      </c>
+      <c r="AH217">
+        <v>0</v>
+      </c>
+      <c r="AI217">
+        <v>0</v>
+      </c>
+      <c r="AJ217">
+        <v>0</v>
+      </c>
+      <c r="AK217">
+        <v>0</v>
+      </c>
+      <c r="AL217">
+        <v>0</v>
+      </c>
+      <c r="AM217">
+        <v>0</v>
+      </c>
+      <c r="AN217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+      <c r="AB218">
+        <v>0</v>
+      </c>
+      <c r="AC218">
+        <v>0</v>
+      </c>
+      <c r="AD218">
+        <v>0</v>
+      </c>
+      <c r="AE218">
+        <v>0</v>
+      </c>
+      <c r="AF218">
+        <v>0</v>
+      </c>
+      <c r="AG218">
+        <v>0</v>
+      </c>
+      <c r="AH218">
+        <v>0</v>
+      </c>
+      <c r="AI218">
+        <v>0</v>
+      </c>
+      <c r="AJ218">
+        <v>0</v>
+      </c>
+      <c r="AK218">
+        <v>0</v>
+      </c>
+      <c r="AL218">
+        <v>0</v>
+      </c>
+      <c r="AM218">
+        <v>0</v>
+      </c>
+      <c r="AN218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+      <c r="AC219">
+        <v>0</v>
+      </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
+      <c r="AE219">
+        <v>0</v>
+      </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
+      <c r="AG219">
+        <v>0</v>
+      </c>
+      <c r="AH219">
+        <v>0</v>
+      </c>
+      <c r="AI219">
+        <v>0</v>
+      </c>
+      <c r="AJ219">
+        <v>0</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AL219">
+        <v>0</v>
+      </c>
+      <c r="AM219">
+        <v>0</v>
+      </c>
+      <c r="AN219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>0</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>0</v>
+      </c>
+      <c r="AF220">
+        <v>0</v>
+      </c>
+      <c r="AG220">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>0</v>
+      </c>
+      <c r="AI220">
+        <v>0</v>
+      </c>
+      <c r="AJ220">
+        <v>0</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>0</v>
+      </c>
+      <c r="AN220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <f>SUM(B2:B220)</f>
+        <v>18827</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ref="C221:AN221" si="3">SUM(C2:C220)</f>
+        <v>5526</v>
+      </c>
+      <c r="D221">
         <f t="shared" si="3"/>
-        <v>1727</v>
-      </c>
-      <c r="E210">
+        <v>1734</v>
+      </c>
+      <c r="E221">
         <f t="shared" si="3"/>
-        <v>1678</v>
-      </c>
-      <c r="F210">
+        <v>1751</v>
+      </c>
+      <c r="F221">
         <f t="shared" si="3"/>
-        <v>795</v>
-      </c>
-      <c r="G210">
+        <v>817</v>
+      </c>
+      <c r="G221">
         <f t="shared" si="3"/>
-        <v>744</v>
-      </c>
-      <c r="H210">
+        <v>799</v>
+      </c>
+      <c r="H221">
         <f t="shared" si="3"/>
-        <v>813</v>
-      </c>
-      <c r="I210">
+        <v>845</v>
+      </c>
+      <c r="I221">
         <f t="shared" si="3"/>
         <v>741</v>
       </c>
-      <c r="J210">
+      <c r="J221">
         <f t="shared" si="3"/>
-        <v>2597</v>
-      </c>
-      <c r="K210">
+        <v>2611</v>
+      </c>
+      <c r="K221">
         <f t="shared" si="3"/>
-        <v>3194</v>
-      </c>
-      <c r="L210">
+        <v>3226</v>
+      </c>
+      <c r="L221">
         <f t="shared" si="3"/>
-        <v>982</v>
-      </c>
-      <c r="M210">
+        <v>1013</v>
+      </c>
+      <c r="M221">
         <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="N210">
+        <v>288</v>
+      </c>
+      <c r="N221">
         <f t="shared" si="3"/>
-        <v>670</v>
-      </c>
-      <c r="O210">
+        <v>689</v>
+      </c>
+      <c r="O221">
         <f t="shared" si="3"/>
-        <v>2208</v>
-      </c>
-      <c r="P210">
+        <v>2326</v>
+      </c>
+      <c r="P221">
         <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="Q210">
+        <v>310</v>
+      </c>
+      <c r="Q221">
         <f t="shared" si="3"/>
-        <v>1561</v>
-      </c>
-      <c r="R210">
+        <v>1594</v>
+      </c>
+      <c r="R221">
         <f t="shared" si="3"/>
-        <v>1768</v>
-      </c>
-      <c r="S210">
+        <v>1799</v>
+      </c>
+      <c r="S221">
         <f t="shared" si="3"/>
-        <v>2175</v>
-      </c>
-      <c r="T210">
+        <v>2220</v>
+      </c>
+      <c r="T221">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="U210">
+      <c r="U221">
         <f t="shared" si="3"/>
-        <v>1184</v>
-      </c>
-      <c r="V210">
+        <v>1234</v>
+      </c>
+      <c r="V221">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="W221">
+        <f t="shared" si="3"/>
+        <v>881</v>
+      </c>
+      <c r="X221">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="Y221">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="Z221">
+        <f t="shared" si="3"/>
+        <v>473</v>
+      </c>
+      <c r="AA221">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="AB221">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="W210">
+      <c r="AC221">
         <f t="shared" si="3"/>
-        <v>807</v>
-      </c>
-      <c r="X210">
+        <v>3192</v>
+      </c>
+      <c r="AD221">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="Y210">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="Z210">
-        <f t="shared" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="AA210">
-        <f t="shared" si="3"/>
-        <v>207</v>
-      </c>
-      <c r="AB210">
-        <f t="shared" si="3"/>
-        <v>242</v>
-      </c>
-      <c r="AC210">
-        <f t="shared" si="3"/>
-        <v>2720</v>
-      </c>
-      <c r="AD210">
-        <f t="shared" si="3"/>
-        <v>534</v>
-      </c>
-      <c r="AE210">
+        <v>557</v>
+      </c>
+      <c r="AE221">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="AF210">
+      <c r="AF221">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AG210">
+      <c r="AG221">
         <f t="shared" si="3"/>
-        <v>438</v>
-      </c>
-      <c r="AH210">
+        <v>447</v>
+      </c>
+      <c r="AH221">
         <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="AI210">
+        <v>95</v>
+      </c>
+      <c r="AI221">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="AJ210">
+        <v>73</v>
+      </c>
+      <c r="AJ221">
         <f t="shared" si="3"/>
-        <v>391</v>
-      </c>
-      <c r="AK210">
+        <v>394</v>
+      </c>
+      <c r="AK221">
         <f t="shared" si="3"/>
-        <v>1020</v>
-      </c>
-      <c r="AL210">
+        <v>1035</v>
+      </c>
+      <c r="AL221">
         <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="AM210">
+        <v>85</v>
+      </c>
+      <c r="AM221">
         <f t="shared" si="3"/>
-        <v>43013</v>
-      </c>
-      <c r="AN210">
+        <v>48305</v>
+      </c>
+      <c r="AN221">
         <f t="shared" si="3"/>
-        <v>1057</v>
+        <v>1094</v>
       </c>
     </row>
-    <row r="213" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="AP213">
-        <f>SUM(AO2:AO201)</f>
-        <v>55003</v>
+    <row r="224" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AP224">
+        <f>SUM(AO2:AO213)</f>
+        <v>56954</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD09E4E-F7FA-9840-B660-4B30817A4329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE2EF7-69D4-DD43-AC3A-8848EAFCC01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP224"/>
+  <dimension ref="A1:AP233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A213" sqref="A213:AO213"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220:AO220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO213" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO220" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -27507,7 +27507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44088.63958333333</v>
       </c>
@@ -27633,7 +27633,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44089.63958333333</v>
       </c>
@@ -27759,7 +27759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44090.63958333333</v>
       </c>
@@ -27885,7 +27885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44091.63958333333</v>
       </c>
@@ -28011,7 +28011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44092.63958333333</v>
       </c>
@@ -28137,28 +28137,30 @@
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A214" s="1"/>
+    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44093.63958333333</v>
+      </c>
       <c r="B214">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -28167,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -28179,19 +28181,19 @@
         <v>0</v>
       </c>
       <c r="O214">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R214">
         <v>0</v>
       </c>
       <c r="S214">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T214">
         <v>0</v>
@@ -28221,10 +28223,10 @@
         <v>0</v>
       </c>
       <c r="AC214">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AD214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE214">
         <v>0</v>
@@ -28233,46 +28235,52 @@
         <v>0</v>
       </c>
       <c r="AG214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH214">
         <v>0</v>
       </c>
       <c r="AI214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ214">
         <v>0</v>
       </c>
       <c r="AK214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL214">
         <v>0</v>
       </c>
       <c r="AM214">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AN214">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO214">
+        <f t="shared" si="2"/>
+        <v>189</v>
       </c>
     </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A215" s="1"/>
+    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44094.63958333333</v>
+      </c>
       <c r="B215">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -28290,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -28299,10 +28307,10 @@
         <v>0</v>
       </c>
       <c r="O215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q215">
         <v>0</v>
@@ -28311,7 +28319,7 @@
         <v>0</v>
       </c>
       <c r="S215">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T215">
         <v>0</v>
@@ -28320,7 +28328,7 @@
         <v>0</v>
       </c>
       <c r="V215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -28338,13 +28346,13 @@
         <v>0</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE215">
         <v>0</v>
@@ -28371,31 +28379,37 @@
         <v>0</v>
       </c>
       <c r="AM215">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AN215">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO215">
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
     </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A216" s="1"/>
+    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44095.63958333333</v>
+      </c>
       <c r="B216">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -28404,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -28416,28 +28430,28 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O216">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P216">
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R216">
         <v>0</v>
       </c>
       <c r="S216">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T216">
         <v>0</v>
       </c>
       <c r="U216">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="V216">
         <v>0</v>
@@ -28461,7 +28475,7 @@
         <v>0</v>
       </c>
       <c r="AC216">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD216">
         <v>0</v>
@@ -28491,25 +28505,31 @@
         <v>0</v>
       </c>
       <c r="AM216">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AN216">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO216">
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
     </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A217" s="1"/>
+    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44096.63958333333</v>
+      </c>
       <c r="B217">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -28524,10 +28544,10 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -28536,22 +28556,22 @@
         <v>0</v>
       </c>
       <c r="N217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P217">
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S217">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T217">
         <v>0</v>
@@ -28560,7 +28580,7 @@
         <v>0</v>
       </c>
       <c r="V217">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -28581,7 +28601,7 @@
         <v>0</v>
       </c>
       <c r="AC217">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD217">
         <v>0</v>
@@ -28596,13 +28616,13 @@
         <v>0</v>
       </c>
       <c r="AH217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI217">
         <v>0</v>
       </c>
       <c r="AJ217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK217">
         <v>0</v>
@@ -28611,31 +28631,37 @@
         <v>0</v>
       </c>
       <c r="AM217">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AN217">
         <v>0</v>
       </c>
+      <c r="AO217">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
     </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A218" s="1"/>
+    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44097.63958333333</v>
+      </c>
       <c r="B218">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -28644,13 +28670,13 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -28659,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="O218">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -28671,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="S218">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T218">
         <v>0</v>
@@ -28704,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="AD218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE218">
         <v>0</v>
@@ -28722,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AJ218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK218">
         <v>0</v>
@@ -28731,25 +28757,31 @@
         <v>0</v>
       </c>
       <c r="AM218">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="AN218">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO218">
+        <f t="shared" si="2"/>
+        <v>111</v>
       </c>
     </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
+    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44098.63958333333</v>
+      </c>
       <c r="B219">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -28764,10 +28796,10 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -28779,19 +28811,19 @@
         <v>0</v>
       </c>
       <c r="O219">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R219">
         <v>0</v>
       </c>
       <c r="S219">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T219">
         <v>0</v>
@@ -28812,19 +28844,19 @@
         <v>0</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB219">
         <v>0</v>
       </c>
       <c r="AC219">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE219">
         <v>0</v>
@@ -28848,33 +28880,40 @@
         <v>0</v>
       </c>
       <c r="AL219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM219">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="AN219">
         <v>0</v>
       </c>
+      <c r="AO219">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
     </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44099.63958333333</v>
+      </c>
       <c r="B220">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -28883,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K220">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -28898,25 +28937,25 @@
         <v>0</v>
       </c>
       <c r="O220">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P220">
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S220">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -28928,10 +28967,10 @@
         <v>0</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA220">
         <v>0</v>
@@ -28940,7 +28979,7 @@
         <v>0</v>
       </c>
       <c r="AC220">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AD220">
         <v>0</v>
@@ -28970,174 +29009,1257 @@
         <v>0</v>
       </c>
       <c r="AM220">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="AN220">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO220">
+        <f t="shared" si="2"/>
+        <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
       <c r="B221">
-        <f>SUM(B2:B220)</f>
-        <v>18827</v>
+        <v>0</v>
       </c>
       <c r="C221">
-        <f t="shared" ref="C221:AN221" si="3">SUM(C2:C220)</f>
-        <v>5526</v>
+        <v>0</v>
       </c>
       <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>0</v>
+      </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
+      <c r="AJ221">
+        <v>0</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
+      <c r="AN221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A222" s="1"/>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>0</v>
+      </c>
+      <c r="AM226">
+        <v>0</v>
+      </c>
+      <c r="AN226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <f>SUM(B2:B229)</f>
+        <v>19174</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ref="C230:AN230" si="3">SUM(C2:C229)</f>
+        <v>5644</v>
+      </c>
+      <c r="D230">
         <f t="shared" si="3"/>
-        <v>1734</v>
-      </c>
-      <c r="E221">
+        <v>1737</v>
+      </c>
+      <c r="E230">
         <f t="shared" si="3"/>
-        <v>1751</v>
-      </c>
-      <c r="F221">
+        <v>1789</v>
+      </c>
+      <c r="F230">
         <f t="shared" si="3"/>
-        <v>817</v>
-      </c>
-      <c r="G221">
+        <v>833</v>
+      </c>
+      <c r="G230">
         <f t="shared" si="3"/>
-        <v>799</v>
-      </c>
-      <c r="H221">
+        <v>864</v>
+      </c>
+      <c r="H230">
         <f t="shared" si="3"/>
-        <v>845</v>
-      </c>
-      <c r="I221">
+        <v>848</v>
+      </c>
+      <c r="I230">
         <f t="shared" si="3"/>
         <v>741</v>
       </c>
-      <c r="J221">
+      <c r="J230">
         <f t="shared" si="3"/>
-        <v>2611</v>
-      </c>
-      <c r="K221">
+        <v>2620</v>
+      </c>
+      <c r="K230">
         <f t="shared" si="3"/>
-        <v>3226</v>
-      </c>
-      <c r="L221">
+        <v>3248</v>
+      </c>
+      <c r="L230">
         <f t="shared" si="3"/>
-        <v>1013</v>
-      </c>
-      <c r="M221">
+        <v>1028</v>
+      </c>
+      <c r="M230">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="N221">
+      <c r="N230">
         <f t="shared" si="3"/>
-        <v>689</v>
-      </c>
-      <c r="O221">
+        <v>692</v>
+      </c>
+      <c r="O230">
         <f t="shared" si="3"/>
-        <v>2326</v>
-      </c>
-      <c r="P221">
+        <v>2389</v>
+      </c>
+      <c r="P230">
         <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="Q221">
+        <v>314</v>
+      </c>
+      <c r="Q230">
         <f t="shared" si="3"/>
-        <v>1594</v>
-      </c>
-      <c r="R221">
+        <v>1620</v>
+      </c>
+      <c r="R230">
         <f t="shared" si="3"/>
-        <v>1799</v>
-      </c>
-      <c r="S221">
+        <v>1801</v>
+      </c>
+      <c r="S230">
         <f t="shared" si="3"/>
-        <v>2220</v>
-      </c>
-      <c r="T221">
+        <v>2305</v>
+      </c>
+      <c r="T230">
         <f t="shared" si="3"/>
-        <v>322</v>
-      </c>
-      <c r="U221">
+        <v>325</v>
+      </c>
+      <c r="U230">
         <f t="shared" si="3"/>
-        <v>1234</v>
-      </c>
-      <c r="V221">
+        <v>1289</v>
+      </c>
+      <c r="V230">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="W221">
+        <v>259</v>
+      </c>
+      <c r="W230">
         <f t="shared" si="3"/>
         <v>881</v>
       </c>
-      <c r="X221">
+      <c r="X230">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="Y221">
+      <c r="Y230">
         <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-      <c r="Z221">
+        <v>163</v>
+      </c>
+      <c r="Z230">
         <f t="shared" si="3"/>
-        <v>473</v>
-      </c>
-      <c r="AA221">
+        <v>481</v>
+      </c>
+      <c r="AA230">
         <f t="shared" si="3"/>
-        <v>218</v>
-      </c>
-      <c r="AB221">
+        <v>223</v>
+      </c>
+      <c r="AB230">
         <f t="shared" si="3"/>
-        <v>244</v>
-      </c>
-      <c r="AC221">
+        <v>248</v>
+      </c>
+      <c r="AC230">
         <f t="shared" si="3"/>
-        <v>3192</v>
-      </c>
-      <c r="AD221">
+        <v>3373</v>
+      </c>
+      <c r="AD230">
         <f t="shared" si="3"/>
-        <v>557</v>
-      </c>
-      <c r="AE221">
+        <v>566</v>
+      </c>
+      <c r="AE230">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="AF221">
+      <c r="AF230">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AG221">
+      <c r="AG230">
         <f t="shared" si="3"/>
-        <v>447</v>
-      </c>
-      <c r="AH221">
+        <v>448</v>
+      </c>
+      <c r="AH230">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="AI221">
+        <v>96</v>
+      </c>
+      <c r="AI230">
         <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="AJ221">
+        <v>75</v>
+      </c>
+      <c r="AJ230">
         <f t="shared" si="3"/>
-        <v>394</v>
-      </c>
-      <c r="AK221">
+        <v>397</v>
+      </c>
+      <c r="AK230">
         <f t="shared" si="3"/>
-        <v>1035</v>
-      </c>
-      <c r="AL221">
+        <v>1038</v>
+      </c>
+      <c r="AL230">
         <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="AM221">
+        <v>87</v>
+      </c>
+      <c r="AM230">
         <f t="shared" si="3"/>
-        <v>48305</v>
-      </c>
-      <c r="AN221">
+        <v>49606</v>
+      </c>
+      <c r="AN230">
         <f t="shared" si="3"/>
-        <v>1094</v>
+        <v>1104</v>
       </c>
     </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AP224">
-        <f>SUM(AO2:AO213)</f>
-        <v>56954</v>
+    <row r="233" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AP233">
+        <f>SUM(AO2:AO220)</f>
+        <v>58060</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE2EF7-69D4-DD43-AC3A-8848EAFCC01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB1D6C-6F46-1A47-9175-280E6B67D7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="4260" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -1288,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP233"/>
+  <dimension ref="A1:AP245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220:AO220"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A237" sqref="A237:AO237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO220" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO237" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -29020,9 +29020,11 @@
       </c>
     </row>
     <row r="221" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>44100.63958333333</v>
+      </c>
       <c r="B221">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -29031,10 +29033,10 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -29046,10 +29048,10 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K221">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -29058,22 +29060,22 @@
         <v>0</v>
       </c>
       <c r="N221">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O221">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S221">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T221">
         <v>0</v>
@@ -29085,7 +29087,7 @@
         <v>0</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X221">
         <v>0</v>
@@ -29103,7 +29105,7 @@
         <v>0</v>
       </c>
       <c r="AC221">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD221">
         <v>0</v>
@@ -29121,37 +29123,43 @@
         <v>0</v>
       </c>
       <c r="AI221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL221">
         <v>0</v>
       </c>
       <c r="AM221">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AN221">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO221">
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
     </row>
     <row r="222" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>44101.63958333333</v>
+      </c>
       <c r="B222">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -29160,40 +29168,40 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I222">
         <v>0</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M222">
         <v>0</v>
       </c>
       <c r="N222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P222">
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R222">
         <v>0</v>
       </c>
       <c r="S222">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T222">
         <v>0</v>
@@ -29223,10 +29231,10 @@
         <v>0</v>
       </c>
       <c r="AC222">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE222">
         <v>0</v>
@@ -29253,19 +29261,25 @@
         <v>0</v>
       </c>
       <c r="AM222">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AN222">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO222">
+        <f t="shared" si="2"/>
+        <v>126</v>
       </c>
     </row>
     <row r="223" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>44102.63958333333</v>
+      </c>
       <c r="B223">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -29280,28 +29294,28 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M223">
         <v>0</v>
       </c>
       <c r="N223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -29313,7 +29327,7 @@
         <v>0</v>
       </c>
       <c r="S223">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T223">
         <v>0</v>
@@ -29325,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X223">
         <v>0</v>
@@ -29340,10 +29354,10 @@
         <v>0</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC223">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD223">
         <v>0</v>
@@ -29373,40 +29387,46 @@
         <v>0</v>
       </c>
       <c r="AM223">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AN223">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AO223">
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
     </row>
     <row r="224" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>44103.63958333333</v>
+      </c>
       <c r="B224">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -29421,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="O224">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -29433,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="S224">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T224">
         <v>0</v>
@@ -29463,7 +29483,7 @@
         <v>0</v>
       </c>
       <c r="AC224">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD224">
         <v>0</v>
@@ -29475,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="AG224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH224">
         <v>0</v>
@@ -29484,7 +29504,7 @@
         <v>0</v>
       </c>
       <c r="AJ224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK224">
         <v>0</v>
@@ -29493,28 +29513,34 @@
         <v>0</v>
       </c>
       <c r="AM224">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AN224">
         <v>0</v>
       </c>
+      <c r="AO224">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
+    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44104.63958333333</v>
+      </c>
       <c r="B225">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -29529,10 +29555,10 @@
         <v>0</v>
       </c>
       <c r="K225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -29541,7 +29567,7 @@
         <v>0</v>
       </c>
       <c r="O225">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -29553,7 +29579,7 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="T225">
         <v>0</v>
@@ -29565,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X225">
         <v>0</v>
@@ -29580,13 +29606,13 @@
         <v>0</v>
       </c>
       <c r="AB225">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC225">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD225">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE225">
         <v>0</v>
@@ -29598,7 +29624,7 @@
         <v>0</v>
       </c>
       <c r="AH225">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI225">
         <v>0</v>
@@ -29613,55 +29639,61 @@
         <v>0</v>
       </c>
       <c r="AM225">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="AN225">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO225">
+        <f t="shared" si="2"/>
+        <v>201</v>
       </c>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
+    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44105.63958333333</v>
+      </c>
       <c r="B226">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
       <c r="J226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K226">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L226">
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N226">
         <v>0</v>
       </c>
       <c r="O226">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -29673,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="S226">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T226">
         <v>0</v>
@@ -29703,7 +29735,7 @@
         <v>0</v>
       </c>
       <c r="AC226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD226">
         <v>0</v>
@@ -29715,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="AG226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH226">
         <v>0</v>
@@ -29727,34 +29759,40 @@
         <v>0</v>
       </c>
       <c r="AK226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL226">
         <v>0</v>
       </c>
       <c r="AM226">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AN226">
         <v>0</v>
       </c>
+      <c r="AO226">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
+    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44106.63958333333</v>
+      </c>
       <c r="B227">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -29772,7 +29810,7 @@
         <v>0</v>
       </c>
       <c r="L227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -29793,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="S227">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T227">
         <v>0</v>
@@ -29805,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y227">
         <v>0</v>
@@ -29823,10 +29861,10 @@
         <v>0</v>
       </c>
       <c r="AC227">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE227">
         <v>0</v>
@@ -29838,13 +29876,13 @@
         <v>0</v>
       </c>
       <c r="AH227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI227">
         <v>0</v>
       </c>
       <c r="AJ227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK227">
         <v>0</v>
@@ -29853,25 +29891,31 @@
         <v>0</v>
       </c>
       <c r="AM227">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="AN227">
         <v>0</v>
       </c>
+      <c r="AO227">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
     </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A228" s="1"/>
+    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44107.63958333333</v>
+      </c>
       <c r="B228">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -29880,7 +29924,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -29889,10 +29933,10 @@
         <v>0</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -29901,19 +29945,19 @@
         <v>0</v>
       </c>
       <c r="O228">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P228">
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R228">
         <v>0</v>
       </c>
       <c r="S228">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="T228">
         <v>0</v>
@@ -29925,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X228">
         <v>0</v>
@@ -29937,16 +29981,16 @@
         <v>0</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB228">
         <v>0</v>
       </c>
       <c r="AC228">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE228">
         <v>0</v>
@@ -29973,24 +30017,31 @@
         <v>0</v>
       </c>
       <c r="AM228">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AN228">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO228">
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
     </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44108.63958333333</v>
+      </c>
       <c r="B229">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -29999,13 +30050,13 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -30020,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="O229">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R229">
         <v>0</v>
@@ -30062,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="AC229">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD229">
         <v>0</v>
@@ -30092,174 +30143,1665 @@
         <v>0</v>
       </c>
       <c r="AM229">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN229">
         <v>0</v>
       </c>
+      <c r="AO229">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
     </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44109.63958333333</v>
+      </c>
       <c r="B230">
-        <f>SUM(B2:B229)</f>
-        <v>19174</v>
+        <v>12</v>
       </c>
       <c r="C230">
-        <f t="shared" ref="C230:AN230" si="3">SUM(C2:C229)</f>
-        <v>5644</v>
+        <v>0</v>
       </c>
       <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>9</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>8</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>5</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>5</v>
+      </c>
+      <c r="O230">
+        <v>2</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>65</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>7</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>1</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>3</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>183</v>
+      </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
+      <c r="AO230">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44110.63958333333</v>
+      </c>
+      <c r="B231">
+        <v>41</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+      <c r="F231">
+        <v>17</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>3</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>5</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>19</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>2</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>5</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>13</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>357</v>
+      </c>
+      <c r="AN231">
+        <v>0</v>
+      </c>
+      <c r="AO231">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44111.63958333333</v>
+      </c>
+      <c r="B232">
+        <v>84</v>
+      </c>
+      <c r="C232">
+        <v>7</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232">
+        <v>10</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>6</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>12</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>31</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>95</v>
+      </c>
+      <c r="AN232">
+        <v>0</v>
+      </c>
+      <c r="AO232">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44112.63958333333</v>
+      </c>
+      <c r="B233">
+        <v>39</v>
+      </c>
+      <c r="C233">
+        <v>19</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>6</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="O233">
+        <v>4</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>21</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+      <c r="AD233">
+        <v>2</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>148</v>
+      </c>
+      <c r="AN233">
+        <v>0</v>
+      </c>
+      <c r="AO233">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44113.63958333333</v>
+      </c>
+      <c r="B234">
+        <v>71</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>26</v>
+      </c>
+      <c r="F234">
+        <v>10</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>8</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>17</v>
+      </c>
+      <c r="P234">
+        <v>1</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>6</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>0</v>
+      </c>
+      <c r="V234">
+        <v>0</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+      <c r="AB234">
+        <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>5</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>0</v>
+      </c>
+      <c r="AF234">
+        <v>0</v>
+      </c>
+      <c r="AG234">
+        <v>0</v>
+      </c>
+      <c r="AH234">
+        <v>0</v>
+      </c>
+      <c r="AI234">
+        <v>0</v>
+      </c>
+      <c r="AJ234">
+        <v>0</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>63</v>
+      </c>
+      <c r="AN234">
+        <v>0</v>
+      </c>
+      <c r="AO234">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44114.63958333333</v>
+      </c>
+      <c r="B235">
+        <v>23</v>
+      </c>
+      <c r="C235">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>9</v>
+      </c>
+      <c r="F235">
+        <v>11</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>6</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235">
+        <v>3</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+      <c r="AB235">
+        <v>0</v>
+      </c>
+      <c r="AC235">
+        <v>32</v>
+      </c>
+      <c r="AD235">
+        <v>4</v>
+      </c>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>0</v>
+      </c>
+      <c r="AH235">
+        <v>0</v>
+      </c>
+      <c r="AI235">
+        <v>3</v>
+      </c>
+      <c r="AJ235">
+        <v>0</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>0</v>
+      </c>
+      <c r="AM235">
+        <v>97</v>
+      </c>
+      <c r="AN235">
+        <v>2</v>
+      </c>
+      <c r="AO235">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44115.63958333333</v>
+      </c>
+      <c r="B236">
+        <v>113</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+      <c r="F236">
+        <v>8</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>5</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>21</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+      <c r="AB236">
+        <v>0</v>
+      </c>
+      <c r="AC236">
+        <v>1</v>
+      </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
+      <c r="AE236">
+        <v>0</v>
+      </c>
+      <c r="AF236">
+        <v>0</v>
+      </c>
+      <c r="AG236">
+        <v>0</v>
+      </c>
+      <c r="AH236">
+        <v>2</v>
+      </c>
+      <c r="AI236">
+        <v>0</v>
+      </c>
+      <c r="AJ236">
+        <v>2</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
+      <c r="AM236">
+        <v>24</v>
+      </c>
+      <c r="AN236">
+        <v>0</v>
+      </c>
+      <c r="AO236">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44116.63958333333</v>
+      </c>
+      <c r="B237">
+        <v>64</v>
+      </c>
+      <c r="C237">
+        <v>26</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>11</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>11</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>7</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>20</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>1</v>
+      </c>
+      <c r="AA237">
+        <v>4</v>
+      </c>
+      <c r="AB237">
+        <v>0</v>
+      </c>
+      <c r="AC237">
+        <v>8</v>
+      </c>
+      <c r="AD237">
+        <v>2</v>
+      </c>
+      <c r="AE237">
+        <v>0</v>
+      </c>
+      <c r="AF237">
+        <v>0</v>
+      </c>
+      <c r="AG237">
+        <v>3</v>
+      </c>
+      <c r="AH237">
+        <v>0</v>
+      </c>
+      <c r="AI237">
+        <v>0</v>
+      </c>
+      <c r="AJ237">
+        <v>0</v>
+      </c>
+      <c r="AK237">
+        <v>2</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>208</v>
+      </c>
+      <c r="AN237">
+        <v>0</v>
+      </c>
+      <c r="AO237">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+      <c r="AB238">
+        <v>0</v>
+      </c>
+      <c r="AC238">
+        <v>0</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238">
+        <v>0</v>
+      </c>
+      <c r="AF238">
+        <v>0</v>
+      </c>
+      <c r="AG238">
+        <v>0</v>
+      </c>
+      <c r="AH238">
+        <v>0</v>
+      </c>
+      <c r="AI238">
+        <v>0</v>
+      </c>
+      <c r="AJ238">
+        <v>0</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
+      <c r="AN238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A239" s="1"/>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+      <c r="AB239">
+        <v>0</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239">
+        <v>0</v>
+      </c>
+      <c r="AF239">
+        <v>0</v>
+      </c>
+      <c r="AG239">
+        <v>0</v>
+      </c>
+      <c r="AH239">
+        <v>0</v>
+      </c>
+      <c r="AI239">
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <v>0</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+      <c r="AB240">
+        <v>0</v>
+      </c>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+      <c r="AD240">
+        <v>0</v>
+      </c>
+      <c r="AE240">
+        <v>0</v>
+      </c>
+      <c r="AF240">
+        <v>0</v>
+      </c>
+      <c r="AG240">
+        <v>0</v>
+      </c>
+      <c r="AH240">
+        <v>0</v>
+      </c>
+      <c r="AI240">
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <v>0</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>0</v>
+      </c>
+      <c r="AM240">
+        <v>0</v>
+      </c>
+      <c r="AN240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>0</v>
+      </c>
+      <c r="V241">
+        <v>0</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+      <c r="AB241">
+        <v>0</v>
+      </c>
+      <c r="AC241">
+        <v>0</v>
+      </c>
+      <c r="AD241">
+        <v>0</v>
+      </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>0</v>
+      </c>
+      <c r="AH241">
+        <v>0</v>
+      </c>
+      <c r="AI241">
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <v>0</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
+      <c r="AM241">
+        <v>0</v>
+      </c>
+      <c r="AN241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <f>SUM(B2:B241)</f>
+        <v>20098</v>
+      </c>
+      <c r="C242">
+        <f t="shared" ref="C242:AN242" si="3">SUM(C2:C241)</f>
+        <v>5820</v>
+      </c>
+      <c r="D242">
         <f t="shared" si="3"/>
-        <v>1737</v>
-      </c>
-      <c r="E230">
+        <v>1740</v>
+      </c>
+      <c r="E242">
         <f t="shared" si="3"/>
-        <v>1789</v>
-      </c>
-      <c r="F230">
+        <v>1933</v>
+      </c>
+      <c r="F242">
         <f t="shared" si="3"/>
-        <v>833</v>
-      </c>
-      <c r="G230">
+        <v>913</v>
+      </c>
+      <c r="G242">
         <f t="shared" si="3"/>
-        <v>864</v>
-      </c>
-      <c r="H230">
+        <v>883</v>
+      </c>
+      <c r="H242">
         <f t="shared" si="3"/>
-        <v>848</v>
-      </c>
-      <c r="I230">
+        <v>896</v>
+      </c>
+      <c r="I242">
         <f t="shared" si="3"/>
-        <v>741</v>
-      </c>
-      <c r="J230">
+        <v>745</v>
+      </c>
+      <c r="J242">
         <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-      <c r="K230">
+        <v>2636</v>
+      </c>
+      <c r="K242">
         <f t="shared" si="3"/>
-        <v>3248</v>
-      </c>
-      <c r="L230">
+        <v>3315</v>
+      </c>
+      <c r="L242">
         <f t="shared" si="3"/>
-        <v>1028</v>
-      </c>
-      <c r="M230">
+        <v>1050</v>
+      </c>
+      <c r="M242">
         <f t="shared" si="3"/>
-        <v>288</v>
-      </c>
-      <c r="N230">
+        <v>295</v>
+      </c>
+      <c r="N242">
         <f t="shared" si="3"/>
-        <v>692</v>
-      </c>
-      <c r="O230">
+        <v>710</v>
+      </c>
+      <c r="O242">
         <f t="shared" si="3"/>
-        <v>2389</v>
-      </c>
-      <c r="P230">
+        <v>2519</v>
+      </c>
+      <c r="P242">
         <f t="shared" si="3"/>
-        <v>314</v>
-      </c>
-      <c r="Q230">
+        <v>320</v>
+      </c>
+      <c r="Q242">
         <f t="shared" si="3"/>
-        <v>1620</v>
-      </c>
-      <c r="R230">
+        <v>1650</v>
+      </c>
+      <c r="R242">
         <f t="shared" si="3"/>
-        <v>1801</v>
-      </c>
-      <c r="S230">
+        <v>1803</v>
+      </c>
+      <c r="S242">
         <f t="shared" si="3"/>
-        <v>2305</v>
-      </c>
-      <c r="T230">
+        <v>2661</v>
+      </c>
+      <c r="T242">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="U230">
+      <c r="U242">
         <f t="shared" si="3"/>
-        <v>1289</v>
-      </c>
-      <c r="V230">
+        <v>1309</v>
+      </c>
+      <c r="V242">
         <f t="shared" si="3"/>
-        <v>259</v>
-      </c>
-      <c r="W230">
+        <v>261</v>
+      </c>
+      <c r="W242">
         <f t="shared" si="3"/>
-        <v>881</v>
-      </c>
-      <c r="X230">
+        <v>898</v>
+      </c>
+      <c r="X242">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="Y230">
+        <v>79</v>
+      </c>
+      <c r="Y242">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="Z230">
+      <c r="Z242">
         <f t="shared" si="3"/>
-        <v>481</v>
-      </c>
-      <c r="AA230">
+        <v>483</v>
+      </c>
+      <c r="AA242">
         <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="AB230">
+        <v>240</v>
+      </c>
+      <c r="AB242">
         <f t="shared" si="3"/>
-        <v>248</v>
-      </c>
-      <c r="AC230">
+        <v>262</v>
+      </c>
+      <c r="AC242">
         <f t="shared" si="3"/>
-        <v>3373</v>
-      </c>
-      <c r="AD230">
+        <v>3545</v>
+      </c>
+      <c r="AD242">
         <f t="shared" si="3"/>
-        <v>566</v>
-      </c>
-      <c r="AE230">
+        <v>585</v>
+      </c>
+      <c r="AE242">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="AF230">
+      <c r="AF242">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AG230">
+      <c r="AG242">
         <f t="shared" si="3"/>
-        <v>448</v>
-      </c>
-      <c r="AH230">
+        <v>471</v>
+      </c>
+      <c r="AH242">
         <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="AI230">
+        <v>109</v>
+      </c>
+      <c r="AI242">
         <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="AJ230">
+        <v>79</v>
+      </c>
+      <c r="AJ242">
         <f t="shared" si="3"/>
-        <v>397</v>
-      </c>
-      <c r="AK230">
+        <v>403</v>
+      </c>
+      <c r="AK242">
         <f t="shared" si="3"/>
-        <v>1038</v>
-      </c>
-      <c r="AL230">
+        <v>1044</v>
+      </c>
+      <c r="AL242">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="AM230">
+      <c r="AM242">
         <f t="shared" si="3"/>
-        <v>49606</v>
-      </c>
-      <c r="AN230">
+        <v>51943</v>
+      </c>
+      <c r="AN242">
         <f t="shared" si="3"/>
-        <v>1104</v>
+        <v>1115</v>
       </c>
     </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AP233">
-        <f>SUM(AO2:AO220)</f>
-        <v>58060</v>
+    <row r="245" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AP245">
+        <f>SUM(AO2:AO237)</f>
+        <v>60428</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB1D6C-6F46-1A47-9175-280E6B67D7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EFA1E-FCCB-0E4C-935D-4CB0C1E1EF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8280" yWindow="4260" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,8 +1291,8 @@
   <dimension ref="A1:AP245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A237" sqref="A237:AO237"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A239" sqref="A239:AO239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO237" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO239" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -31162,18 +31162,20 @@
       </c>
     </row>
     <row r="238" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1">
+        <v>44117.63958333333</v>
+      </c>
       <c r="B238">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -31188,7 +31190,7 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -31203,19 +31205,19 @@
         <v>0</v>
       </c>
       <c r="O238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R238">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S238">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T238">
         <v>0</v>
@@ -31224,7 +31226,7 @@
         <v>0</v>
       </c>
       <c r="V238">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -31239,7 +31241,7 @@
         <v>0</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB238">
         <v>0</v>
@@ -31275,28 +31277,34 @@
         <v>0</v>
       </c>
       <c r="AM238">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AN238">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO238">
+        <f t="shared" si="2"/>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
+      <c r="A239" s="1">
+        <v>44118.63958333333</v>
+      </c>
       <c r="B239">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -31308,10 +31316,10 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -31323,19 +31331,19 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q239">
         <v>0</v>
       </c>
       <c r="R239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S239">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T239">
         <v>0</v>
@@ -31359,13 +31367,13 @@
         <v>0</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB239">
         <v>0</v>
       </c>
       <c r="AC239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD239">
         <v>0</v>
@@ -31377,7 +31385,7 @@
         <v>0</v>
       </c>
       <c r="AG239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH239">
         <v>0</v>
@@ -31395,10 +31403,14 @@
         <v>0</v>
       </c>
       <c r="AM239">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AN239">
         <v>0</v>
+      </c>
+      <c r="AO239">
+        <f t="shared" si="2"/>
+        <v>179</v>
       </c>
     </row>
     <row r="240" spans="1:41" x14ac:dyDescent="0.2">
@@ -31643,11 +31655,11 @@
     <row r="242" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B242">
         <f>SUM(B2:B241)</f>
-        <v>20098</v>
+        <v>20379</v>
       </c>
       <c r="C242">
         <f t="shared" ref="C242:AN242" si="3">SUM(C2:C241)</f>
-        <v>5820</v>
+        <v>5846</v>
       </c>
       <c r="D242">
         <f t="shared" si="3"/>
@@ -31655,11 +31667,11 @@
       </c>
       <c r="E242">
         <f t="shared" si="3"/>
-        <v>1933</v>
+        <v>1947</v>
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G242">
         <f t="shared" si="3"/>
@@ -31675,11 +31687,11 @@
       </c>
       <c r="J242">
         <f t="shared" si="3"/>
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="K242">
         <f t="shared" si="3"/>
-        <v>3315</v>
+        <v>3324</v>
       </c>
       <c r="L242">
         <f t="shared" si="3"/>
@@ -31695,23 +31707,23 @@
       </c>
       <c r="O242">
         <f t="shared" si="3"/>
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="P242">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q242">
         <f t="shared" si="3"/>
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="R242">
         <f t="shared" si="3"/>
-        <v>1803</v>
+        <v>1810</v>
       </c>
       <c r="S242">
         <f t="shared" si="3"/>
-        <v>2661</v>
+        <v>2683</v>
       </c>
       <c r="T242">
         <f t="shared" si="3"/>
@@ -31723,7 +31735,7 @@
       </c>
       <c r="V242">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="W242">
         <f t="shared" si="3"/>
@@ -31743,7 +31755,7 @@
       </c>
       <c r="AA242">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AB242">
         <f t="shared" si="3"/>
@@ -31751,7 +31763,7 @@
       </c>
       <c r="AC242">
         <f t="shared" si="3"/>
-        <v>3545</v>
+        <v>3547</v>
       </c>
       <c r="AD242">
         <f t="shared" si="3"/>
@@ -31767,7 +31779,7 @@
       </c>
       <c r="AG242">
         <f t="shared" si="3"/>
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AH242">
         <f t="shared" si="3"/>
@@ -31791,17 +31803,17 @@
       </c>
       <c r="AM242">
         <f t="shared" si="3"/>
-        <v>51943</v>
+        <v>52143</v>
       </c>
       <c r="AN242">
         <f t="shared" si="3"/>
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="245" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AP245">
-        <f>SUM(AO2:AO237)</f>
-        <v>60428</v>
+        <f>SUM(AO2:AO239)</f>
+        <v>60832</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EFA1E-FCCB-0E4C-935D-4CB0C1E1EF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A9C74-5A6A-CA40-B50A-864F1E4E3E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8280" yWindow="4260" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,9 +1290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A239" sqref="A239:AO239"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241:AO241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO239" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO241" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -31414,18 +31414,20 @@
       </c>
     </row>
     <row r="240" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1">
+        <v>44119.63958333333</v>
+      </c>
       <c r="B240">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -31440,10 +31442,10 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L240">
         <v>0</v>
@@ -31455,19 +31457,19 @@
         <v>0</v>
       </c>
       <c r="O240">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P240">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R240">
         <v>0</v>
       </c>
       <c r="S240">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T240">
         <v>0</v>
@@ -31497,10 +31499,10 @@
         <v>0</v>
       </c>
       <c r="AC240">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE240">
         <v>0</v>
@@ -31509,10 +31511,10 @@
         <v>0</v>
       </c>
       <c r="AG240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI240">
         <v>0</v>
@@ -31521,39 +31523,46 @@
         <v>0</v>
       </c>
       <c r="AK240">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL240">
         <v>0</v>
       </c>
       <c r="AM240">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AN240">
         <v>0</v>
       </c>
+      <c r="AO240">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
     </row>
-    <row r="241" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44120.63958333333</v>
+      </c>
       <c r="B241">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -31562,7 +31571,7 @@
         <v>0</v>
       </c>
       <c r="K241">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -31574,7 +31583,7 @@
         <v>0</v>
       </c>
       <c r="O241">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P241">
         <v>0</v>
@@ -31616,7 +31625,7 @@
         <v>0</v>
       </c>
       <c r="AC241">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD241">
         <v>0</v>
@@ -31646,20 +31655,24 @@
         <v>0</v>
       </c>
       <c r="AM241">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN241">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO241">
+        <f t="shared" si="2"/>
+        <v>212</v>
       </c>
     </row>
-    <row r="242" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B242">
         <f>SUM(B2:B241)</f>
-        <v>20379</v>
+        <v>20530</v>
       </c>
       <c r="C242">
         <f t="shared" ref="C242:AN242" si="3">SUM(C2:C241)</f>
-        <v>5846</v>
+        <v>5892</v>
       </c>
       <c r="D242">
         <f t="shared" si="3"/>
@@ -31667,11 +31680,11 @@
       </c>
       <c r="E242">
         <f t="shared" si="3"/>
-        <v>1947</v>
+        <v>1962</v>
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G242">
         <f t="shared" si="3"/>
@@ -31679,7 +31692,7 @@
       </c>
       <c r="H242">
         <f t="shared" si="3"/>
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="I242">
         <f t="shared" si="3"/>
@@ -31687,11 +31700,11 @@
       </c>
       <c r="J242">
         <f t="shared" si="3"/>
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="K242">
         <f t="shared" si="3"/>
-        <v>3324</v>
+        <v>3409</v>
       </c>
       <c r="L242">
         <f t="shared" si="3"/>
@@ -31707,15 +31720,15 @@
       </c>
       <c r="O242">
         <f t="shared" si="3"/>
-        <v>2522</v>
+        <v>2534</v>
       </c>
       <c r="P242">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q242">
         <f t="shared" si="3"/>
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="R242">
         <f t="shared" si="3"/>
@@ -31723,7 +31736,7 @@
       </c>
       <c r="S242">
         <f t="shared" si="3"/>
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="T242">
         <f t="shared" si="3"/>
@@ -31763,11 +31776,11 @@
       </c>
       <c r="AC242">
         <f t="shared" si="3"/>
-        <v>3547</v>
+        <v>3569</v>
       </c>
       <c r="AD242">
         <f t="shared" si="3"/>
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AE242">
         <f t="shared" si="3"/>
@@ -31779,11 +31792,11 @@
       </c>
       <c r="AG242">
         <f t="shared" si="3"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AH242">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI242">
         <f t="shared" si="3"/>
@@ -31795,7 +31808,7 @@
       </c>
       <c r="AK242">
         <f t="shared" si="3"/>
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="AL242">
         <f t="shared" si="3"/>
@@ -31803,17 +31816,17 @@
       </c>
       <c r="AM242">
         <f t="shared" si="3"/>
-        <v>52143</v>
+        <v>52304</v>
       </c>
       <c r="AN242">
         <f t="shared" si="3"/>
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
-    <row r="245" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AP245">
-        <f>SUM(AO2:AO239)</f>
-        <v>60832</v>
+        <f>SUM(AO2:AO240)</f>
+        <v>60980</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A9C74-5A6A-CA40-B50A-864F1E4E3E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F839148-3593-4E4B-A1F3-E7A5BFA1A92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="4260" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9800" yWindow="3760" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -1288,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP245"/>
+  <dimension ref="A1:AP259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241:AO241"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A244" sqref="A244:AO244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO241" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO244" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -31539,7 +31539,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44120.63958333333</v>
       </c>
@@ -31665,168 +31665,1866 @@
         <v>212</v>
       </c>
     </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44121.63958333333</v>
+      </c>
       <c r="B242">
-        <f>SUM(B2:B241)</f>
-        <v>20530</v>
+        <v>37</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:AN242" si="3">SUM(C2:C241)</f>
-        <v>5892</v>
+        <v>6</v>
       </c>
       <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>11</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>3</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>16</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>7</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+      <c r="U242">
+        <v>4</v>
+      </c>
+      <c r="V242">
+        <v>4</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>1</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+      <c r="AB242">
+        <v>0</v>
+      </c>
+      <c r="AC242">
+        <v>11</v>
+      </c>
+      <c r="AD242">
+        <v>2</v>
+      </c>
+      <c r="AE242">
+        <v>0</v>
+      </c>
+      <c r="AF242">
+        <v>0</v>
+      </c>
+      <c r="AG242">
+        <v>0</v>
+      </c>
+      <c r="AH242">
+        <v>8</v>
+      </c>
+      <c r="AI242">
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <v>0</v>
+      </c>
+      <c r="AK242">
+        <v>0</v>
+      </c>
+      <c r="AL242">
+        <v>0</v>
+      </c>
+      <c r="AM242">
+        <v>4253</v>
+      </c>
+      <c r="AN242">
+        <v>4</v>
+      </c>
+      <c r="AO242">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="243" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44122.63958333333</v>
+      </c>
+      <c r="B243">
+        <v>90</v>
+      </c>
+      <c r="C243">
+        <v>8</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>6</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>8</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>3</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>13</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+      <c r="AB243">
+        <v>0</v>
+      </c>
+      <c r="AC243">
+        <v>1</v>
+      </c>
+      <c r="AD243">
+        <v>0</v>
+      </c>
+      <c r="AE243">
+        <v>0</v>
+      </c>
+      <c r="AF243">
+        <v>0</v>
+      </c>
+      <c r="AG243">
+        <v>2</v>
+      </c>
+      <c r="AH243">
+        <v>0</v>
+      </c>
+      <c r="AI243">
+        <v>0</v>
+      </c>
+      <c r="AJ243">
+        <v>0</v>
+      </c>
+      <c r="AK243">
+        <v>0</v>
+      </c>
+      <c r="AL243">
+        <v>0</v>
+      </c>
+      <c r="AM243">
+        <v>54</v>
+      </c>
+      <c r="AN243">
+        <v>2</v>
+      </c>
+      <c r="AO243">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="244" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44123.63958333333</v>
+      </c>
+      <c r="B244">
+        <v>51</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>8</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>2</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>4</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>26</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+      <c r="V244">
+        <v>1</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+      <c r="AB244">
+        <v>0</v>
+      </c>
+      <c r="AC244">
+        <v>6</v>
+      </c>
+      <c r="AD244">
+        <v>12</v>
+      </c>
+      <c r="AE244">
+        <v>0</v>
+      </c>
+      <c r="AF244">
+        <v>0</v>
+      </c>
+      <c r="AG244">
+        <v>0</v>
+      </c>
+      <c r="AH244">
+        <v>0</v>
+      </c>
+      <c r="AI244">
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <v>0</v>
+      </c>
+      <c r="AK244">
+        <v>0</v>
+      </c>
+      <c r="AL244">
+        <v>0</v>
+      </c>
+      <c r="AM244">
+        <v>86</v>
+      </c>
+      <c r="AN244">
+        <v>0</v>
+      </c>
+      <c r="AO244">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="245" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <v>0</v>
+      </c>
+      <c r="V245">
+        <v>0</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+      <c r="AB245">
+        <v>0</v>
+      </c>
+      <c r="AC245">
+        <v>0</v>
+      </c>
+      <c r="AD245">
+        <v>0</v>
+      </c>
+      <c r="AE245">
+        <v>0</v>
+      </c>
+      <c r="AF245">
+        <v>0</v>
+      </c>
+      <c r="AG245">
+        <v>0</v>
+      </c>
+      <c r="AH245">
+        <v>0</v>
+      </c>
+      <c r="AI245">
+        <v>0</v>
+      </c>
+      <c r="AJ245">
+        <v>0</v>
+      </c>
+      <c r="AK245">
+        <v>0</v>
+      </c>
+      <c r="AL245">
+        <v>0</v>
+      </c>
+      <c r="AM245">
+        <v>0</v>
+      </c>
+      <c r="AN245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0</v>
+      </c>
+      <c r="V246">
+        <v>0</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+      <c r="AB246">
+        <v>0</v>
+      </c>
+      <c r="AC246">
+        <v>0</v>
+      </c>
+      <c r="AD246">
+        <v>0</v>
+      </c>
+      <c r="AE246">
+        <v>0</v>
+      </c>
+      <c r="AF246">
+        <v>0</v>
+      </c>
+      <c r="AG246">
+        <v>0</v>
+      </c>
+      <c r="AH246">
+        <v>0</v>
+      </c>
+      <c r="AI246">
+        <v>0</v>
+      </c>
+      <c r="AJ246">
+        <v>0</v>
+      </c>
+      <c r="AK246">
+        <v>0</v>
+      </c>
+      <c r="AL246">
+        <v>0</v>
+      </c>
+      <c r="AM246">
+        <v>0</v>
+      </c>
+      <c r="AN246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <v>0</v>
+      </c>
+      <c r="V247">
+        <v>0</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+      <c r="AB247">
+        <v>0</v>
+      </c>
+      <c r="AC247">
+        <v>0</v>
+      </c>
+      <c r="AD247">
+        <v>0</v>
+      </c>
+      <c r="AE247">
+        <v>0</v>
+      </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
+      <c r="AG247">
+        <v>0</v>
+      </c>
+      <c r="AH247">
+        <v>0</v>
+      </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
+      <c r="AJ247">
+        <v>0</v>
+      </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
+      <c r="AL247">
+        <v>0</v>
+      </c>
+      <c r="AM247">
+        <v>0</v>
+      </c>
+      <c r="AN247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+      <c r="AB248">
+        <v>0</v>
+      </c>
+      <c r="AC248">
+        <v>0</v>
+      </c>
+      <c r="AD248">
+        <v>0</v>
+      </c>
+      <c r="AE248">
+        <v>0</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>0</v>
+      </c>
+      <c r="AH248">
+        <v>0</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
+      <c r="AN248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+      <c r="AB249">
+        <v>0</v>
+      </c>
+      <c r="AC249">
+        <v>0</v>
+      </c>
+      <c r="AD249">
+        <v>0</v>
+      </c>
+      <c r="AE249">
+        <v>0</v>
+      </c>
+      <c r="AF249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>0</v>
+      </c>
+      <c r="AH249">
+        <v>0</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>0</v>
+      </c>
+      <c r="AK249">
+        <v>0</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>0</v>
+      </c>
+      <c r="AN249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+      <c r="AB250">
+        <v>0</v>
+      </c>
+      <c r="AC250">
+        <v>0</v>
+      </c>
+      <c r="AD250">
+        <v>0</v>
+      </c>
+      <c r="AE250">
+        <v>0</v>
+      </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
+      <c r="AG250">
+        <v>0</v>
+      </c>
+      <c r="AH250">
+        <v>0</v>
+      </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <v>0</v>
+      </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
+      <c r="AL250">
+        <v>0</v>
+      </c>
+      <c r="AM250">
+        <v>0</v>
+      </c>
+      <c r="AN250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+      <c r="AB251">
+        <v>0</v>
+      </c>
+      <c r="AC251">
+        <v>0</v>
+      </c>
+      <c r="AD251">
+        <v>0</v>
+      </c>
+      <c r="AE251">
+        <v>0</v>
+      </c>
+      <c r="AF251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>0</v>
+      </c>
+      <c r="AH251">
+        <v>0</v>
+      </c>
+      <c r="AI251">
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <v>0</v>
+      </c>
+      <c r="AK251">
+        <v>0</v>
+      </c>
+      <c r="AL251">
+        <v>0</v>
+      </c>
+      <c r="AM251">
+        <v>0</v>
+      </c>
+      <c r="AN251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+      <c r="AB252">
+        <v>0</v>
+      </c>
+      <c r="AC252">
+        <v>0</v>
+      </c>
+      <c r="AD252">
+        <v>0</v>
+      </c>
+      <c r="AE252">
+        <v>0</v>
+      </c>
+      <c r="AF252">
+        <v>0</v>
+      </c>
+      <c r="AG252">
+        <v>0</v>
+      </c>
+      <c r="AH252">
+        <v>0</v>
+      </c>
+      <c r="AI252">
+        <v>0</v>
+      </c>
+      <c r="AJ252">
+        <v>0</v>
+      </c>
+      <c r="AK252">
+        <v>0</v>
+      </c>
+      <c r="AL252">
+        <v>0</v>
+      </c>
+      <c r="AM252">
+        <v>0</v>
+      </c>
+      <c r="AN252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+      <c r="AB253">
+        <v>0</v>
+      </c>
+      <c r="AC253">
+        <v>0</v>
+      </c>
+      <c r="AD253">
+        <v>0</v>
+      </c>
+      <c r="AE253">
+        <v>0</v>
+      </c>
+      <c r="AF253">
+        <v>0</v>
+      </c>
+      <c r="AG253">
+        <v>0</v>
+      </c>
+      <c r="AH253">
+        <v>0</v>
+      </c>
+      <c r="AI253">
+        <v>0</v>
+      </c>
+      <c r="AJ253">
+        <v>0</v>
+      </c>
+      <c r="AK253">
+        <v>0</v>
+      </c>
+      <c r="AL253">
+        <v>0</v>
+      </c>
+      <c r="AM253">
+        <v>0</v>
+      </c>
+      <c r="AN253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>0</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+      <c r="AB254">
+        <v>0</v>
+      </c>
+      <c r="AC254">
+        <v>0</v>
+      </c>
+      <c r="AD254">
+        <v>0</v>
+      </c>
+      <c r="AE254">
+        <v>0</v>
+      </c>
+      <c r="AF254">
+        <v>0</v>
+      </c>
+      <c r="AG254">
+        <v>0</v>
+      </c>
+      <c r="AH254">
+        <v>0</v>
+      </c>
+      <c r="AI254">
+        <v>0</v>
+      </c>
+      <c r="AJ254">
+        <v>0</v>
+      </c>
+      <c r="AK254">
+        <v>0</v>
+      </c>
+      <c r="AL254">
+        <v>0</v>
+      </c>
+      <c r="AM254">
+        <v>0</v>
+      </c>
+      <c r="AN254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+      <c r="AB255">
+        <v>0</v>
+      </c>
+      <c r="AC255">
+        <v>0</v>
+      </c>
+      <c r="AD255">
+        <v>0</v>
+      </c>
+      <c r="AE255">
+        <v>0</v>
+      </c>
+      <c r="AF255">
+        <v>0</v>
+      </c>
+      <c r="AG255">
+        <v>0</v>
+      </c>
+      <c r="AH255">
+        <v>0</v>
+      </c>
+      <c r="AI255">
+        <v>0</v>
+      </c>
+      <c r="AJ255">
+        <v>0</v>
+      </c>
+      <c r="AK255">
+        <v>0</v>
+      </c>
+      <c r="AL255">
+        <v>0</v>
+      </c>
+      <c r="AM255">
+        <v>0</v>
+      </c>
+      <c r="AN255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <f t="shared" ref="B256:AN256" si="3">SUM(B2:B255)</f>
+        <v>20708</v>
+      </c>
+      <c r="C256">
         <f t="shared" si="3"/>
-        <v>1740</v>
-      </c>
-      <c r="E242">
+        <v>5911</v>
+      </c>
+      <c r="D256">
         <f t="shared" si="3"/>
-        <v>1962</v>
-      </c>
-      <c r="F242">
+        <v>1741</v>
+      </c>
+      <c r="E256">
         <f t="shared" si="3"/>
-        <v>915</v>
-      </c>
-      <c r="G242">
+        <v>1976</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="3"/>
+        <v>923</v>
+      </c>
+      <c r="G256">
         <f t="shared" si="3"/>
         <v>883</v>
       </c>
-      <c r="H242">
+      <c r="H256">
         <f t="shared" si="3"/>
-        <v>902</v>
-      </c>
-      <c r="I242">
+        <v>904</v>
+      </c>
+      <c r="I256">
         <f t="shared" si="3"/>
         <v>745</v>
       </c>
-      <c r="J242">
+      <c r="J256">
         <f t="shared" si="3"/>
-        <v>2640</v>
-      </c>
-      <c r="K242">
+        <v>2645</v>
+      </c>
+      <c r="K256">
         <f t="shared" si="3"/>
-        <v>3409</v>
-      </c>
-      <c r="L242">
+        <v>3415</v>
+      </c>
+      <c r="L256">
         <f t="shared" si="3"/>
         <v>1050</v>
       </c>
-      <c r="M242">
+      <c r="M256">
         <f t="shared" si="3"/>
         <v>295</v>
       </c>
-      <c r="N242">
+      <c r="N256">
         <f t="shared" si="3"/>
         <v>710</v>
       </c>
-      <c r="O242">
+      <c r="O256">
         <f t="shared" si="3"/>
-        <v>2534</v>
-      </c>
-      <c r="P242">
+        <v>2562</v>
+      </c>
+      <c r="P256">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="Q242">
+      <c r="Q256">
         <f t="shared" si="3"/>
-        <v>1654</v>
-      </c>
-      <c r="R242">
+        <v>1657</v>
+      </c>
+      <c r="R256">
         <f t="shared" si="3"/>
-        <v>1810</v>
-      </c>
-      <c r="S242">
+        <v>1812</v>
+      </c>
+      <c r="S256">
         <f t="shared" si="3"/>
-        <v>2689</v>
-      </c>
-      <c r="T242">
+        <v>2735</v>
+      </c>
+      <c r="T256">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="U242">
+      <c r="U256">
         <f t="shared" si="3"/>
-        <v>1309</v>
-      </c>
-      <c r="V242">
+        <v>1313</v>
+      </c>
+      <c r="V256">
         <f t="shared" si="3"/>
-        <v>269</v>
-      </c>
-      <c r="W242">
+        <v>274</v>
+      </c>
+      <c r="W256">
         <f t="shared" si="3"/>
         <v>898</v>
       </c>
-      <c r="X242">
+      <c r="X256">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="Y242">
+      <c r="Y256">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="Z242">
+      <c r="Z256">
         <f t="shared" si="3"/>
-        <v>483</v>
-      </c>
-      <c r="AA242">
+        <v>484</v>
+      </c>
+      <c r="AA256">
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
-      <c r="AB242">
+      <c r="AB256">
         <f t="shared" si="3"/>
         <v>262</v>
       </c>
-      <c r="AC242">
+      <c r="AC256">
         <f t="shared" si="3"/>
-        <v>3569</v>
-      </c>
-      <c r="AD242">
+        <v>3587</v>
+      </c>
+      <c r="AD256">
         <f t="shared" si="3"/>
-        <v>587</v>
-      </c>
-      <c r="AE242">
+        <v>601</v>
+      </c>
+      <c r="AE256">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="AF242">
+      <c r="AF256">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AG242">
+      <c r="AG256">
         <f t="shared" si="3"/>
-        <v>475</v>
-      </c>
-      <c r="AH242">
+        <v>477</v>
+      </c>
+      <c r="AH256">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="AI242">
+        <v>118</v>
+      </c>
+      <c r="AI256">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="AJ242">
+      <c r="AJ256">
         <f t="shared" si="3"/>
         <v>403</v>
       </c>
-      <c r="AK242">
+      <c r="AK256">
         <f t="shared" si="3"/>
         <v>1049</v>
       </c>
-      <c r="AL242">
+      <c r="AL256">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="AM242">
+      <c r="AM256">
         <f t="shared" si="3"/>
-        <v>52304</v>
-      </c>
-      <c r="AN242">
+        <v>56697</v>
+      </c>
+      <c r="AN256">
         <f t="shared" si="3"/>
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AP245">
-        <f>SUM(AO2:AO240)</f>
-        <v>60980</v>
+    <row r="259" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP259">
+        <f>SUM(AO2:AO244)</f>
+        <v>61556</v>
       </c>
     </row>
   </sheetData>

--- a/covid19Naija/data/records_covid19.xlsx
+++ b/covid19Naija/data/records_covid19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/covid19Naija/covid19Naija/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F839148-3593-4E4B-A1F3-E7A5BFA1A92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26547985-5C67-C444-B576-9A1FAB0CFC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="3760" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -1290,9 +1290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A244" sqref="A244:AO244"/>
+      <selection pane="bottomLeft" activeCell="AJ248" sqref="AJ248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20573,7 +20573,7 @@
         <v>12</v>
       </c>
       <c r="AO153">
-        <f t="shared" ref="AO153:AO244" si="2">SUM(B153:AL153)</f>
+        <f t="shared" ref="AO153:AO246" si="2">SUM(B153:AL153)</f>
         <v>562</v>
       </c>
     </row>
@@ -32044,18 +32044,20 @@
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>44124.63958333333</v>
+      </c>
       <c r="B245">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -32085,19 +32087,19 @@
         <v>0</v>
       </c>
       <c r="O245">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P245">
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R245">
         <v>0</v>
       </c>
       <c r="S245">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T245">
         <v>0</v>
@@ -32161,10 +32163,16 @@
       </c>
       <c r="AN245">
         <v>0</v>
+      </c>
+      <c r="AO245">
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
     </row>
     <row r="246" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>44125.63958333333</v>
+      </c>
       <c r="B246">
         <v>0</v>
       </c>
@@ -32211,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R246">
         <v>0</v>
@@ -32280,11 +32288,16 @@
         <v>0</v>
       </c>
       <c r="AN246">
+        <v>0</v>
+      </c>
+      <c r="AO246">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>44126.63958333333</v>
+      </c>
       <c r="B247">
         <v>0</v>
       </c>
@@ -32400,11 +32413,16 @@
         <v>0</v>
       </c>
       <c r="AN247">
+        <v>0</v>
+      </c>
+      <c r="AO247">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>44127.63958333333</v>
+      </c>
       <c r="B248">
         <v>0</v>
       </c>
@@ -32520,11 +32538,16 @@
         <v>0</v>
       </c>
       <c r="AN248">
+        <v>0</v>
+      </c>
+      <c r="AO248">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>44128.63958333333</v>
+      </c>
       <c r="B249">
         <v>0</v>
       </c>
@@ -32644,7 +32667,9 @@
       </c>
     </row>
     <row r="250" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1">
+        <v>44123.63958333333</v>
+      </c>
       <c r="B250">
         <v>0</v>
       </c>
@@ -32764,7 +32789,9 @@
       </c>
     </row>
     <row r="251" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>44123.63958333333</v>
+      </c>
       <c r="B251">
         <v>0</v>
       </c>
@@ -32884,7 +32911,9 @@
       </c>
     </row>
     <row r="252" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>44123.63958333333</v>
+      </c>
       <c r="B252">
         <v>0</v>
       </c>
@@ -33004,7 +33033,9 @@
       </c>
     </row>
     <row r="253" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1">
+        <v>44123.63958333333</v>
+      </c>
       <c r="B253">
         <v>0</v>
       </c>
@@ -33124,7 +33155,9 @@
       </c>
     </row>
     <row r="254" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>44123.63958333333</v>
+      </c>
       <c r="B254">
         <v>0</v>
       </c>
@@ -33366,11 +33399,11 @@
     <row r="256" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B256">
         <f t="shared" ref="B256:AN256" si="3">SUM(B2:B255)</f>
-        <v>20708</v>
+        <v>20726</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
-        <v>5911</v>
+        <v>5924</v>
       </c>
       <c r="D256">
         <f t="shared" si="3"/>
@@ -33378,7 +33411,7 @@
       </c>
       <c r="E256">
         <f t="shared" si="3"/>
-        <v>1976</v>
+        <v>1981</v>
       </c>
       <c r="F256">
         <f t="shared" si="3"/>
@@ -33418,7 +33451,7 @@
       </c>
       <c r="O256">
         <f t="shared" si="3"/>
-        <v>2562</v>
+        <v>2568</v>
       </c>
       <c r="P256">
         <f t="shared" si="3"/>
@@ -33426,7 +33459,7 @@
       </c>
       <c r="Q256">
         <f t="shared" si="3"/>
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="R256">
         <f t="shared" si="3"/>
@@ -33434,7 +33467,7 @@
       </c>
       <c r="S256">
         <f t="shared" si="3"/>
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="T256">
         <f t="shared" si="3"/>
